--- a/KurseMscECMX.xlsx
+++ b/KurseMscECMX.xlsx
@@ -1,18 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11101"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\janine.langerbein\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/martin/Git projects/ECMTX_course_overview/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4511989D-9024-0C4E-B57A-5A5492F63226}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="35085" yWindow="6420" windowWidth="29040" windowHeight="17805" tabRatio="500" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Liste" sheetId="8" state="hidden" r:id="rId1"/>
+    <sheet name="Liste" sheetId="8" r:id="rId1"/>
     <sheet name="Kursliste" sheetId="5" r:id="rId2"/>
     <sheet name="Übersicht Winter 19" sheetId="7" r:id="rId3"/>
   </sheets>
@@ -25,12 +26,23 @@
     <definedName name="Intervall" localSheetId="0">#REF!</definedName>
     <definedName name="Intervall">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="152511" iterateDelta="1E-4"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2298" uniqueCount="590">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2297" uniqueCount="589">
   <si>
     <t>FECMX-D</t>
   </si>
@@ -757,9 +769,6 @@
   </si>
   <si>
     <t>Econometrics</t>
-  </si>
-  <si>
-    <t>Prof. Dr. Carsten Jensch</t>
   </si>
   <si>
     <t>ECMX</t>
@@ -1862,12 +1871,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode=";;;@"/>
     <numFmt numFmtId="165" formatCode="h:mm;@"/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF595959"/>
@@ -2325,15 +2334,15 @@
     </xf>
   </cellXfs>
   <cellStyles count="9">
-    <cellStyle name="Excel Built-in Bad" xfId="6"/>
-    <cellStyle name="Excel Built-in Good" xfId="8"/>
-    <cellStyle name="Excel Built-in Heading 2" xfId="5"/>
-    <cellStyle name="Excel Built-in Neutral" xfId="7"/>
-    <cellStyle name="Excel Built-in Title" xfId="4"/>
-    <cellStyle name="Link" xfId="1" builtinId="8" customBuiltin="1"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
-    <cellStyle name="Table_Details" xfId="2"/>
-    <cellStyle name="Uhrzeit" xfId="3"/>
+    <cellStyle name="Excel Built-in Bad" xfId="6" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Excel Built-in Good" xfId="8" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Excel Built-in Heading 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Excel Built-in Neutral" xfId="7" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Excel Built-in Title" xfId="4" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" customBuiltin="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Table_Details" xfId="2" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="Uhrzeit" xfId="3" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
@@ -2731,748 +2740,748 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:ALV106"/>
   <sheetViews>
     <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.875" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="37.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="41.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="72.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="37.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="72.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="1010" width="10.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="3" customFormat="1" ht="65.099999999999994" customHeight="1">
+    <row r="1" spans="1:3" s="3" customFormat="1" ht="65" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>48</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>464</v>
       </c>
-      <c r="C1" s="5" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" s="4" customFormat="1" ht="65.099999999999994" customHeight="1">
+    </row>
+    <row r="2" spans="1:3" s="4" customFormat="1" ht="65" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="10" t="s">
         <v>186</v>
       </c>
       <c r="B2" s="10" t="s">
+        <v>466</v>
+      </c>
+      <c r="C2" s="52" t="s">
         <v>467</v>
       </c>
-      <c r="C2" s="52" t="s">
+    </row>
+    <row r="3" spans="1:3" s="4" customFormat="1" ht="65" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="10" t="s">
+        <v>473</v>
+      </c>
+      <c r="B3" s="10" t="s">
         <v>468</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" s="4" customFormat="1" ht="65.099999999999994" customHeight="1">
-      <c r="A3" s="10" t="s">
+      <c r="C3" s="52" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" s="4" customFormat="1" ht="65" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="10" t="s">
+        <v>414</v>
+      </c>
+      <c r="B4" s="10" t="s">
         <v>474</v>
       </c>
-      <c r="B3" s="10" t="s">
-        <v>469</v>
-      </c>
-      <c r="C3" s="52" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" s="4" customFormat="1" ht="65.099999999999994" customHeight="1">
-      <c r="A4" s="10" t="s">
-        <v>415</v>
-      </c>
-      <c r="B4" s="10" t="s">
+      <c r="C4" s="52" t="s">
         <v>475</v>
       </c>
-      <c r="C4" s="52" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" s="4" customFormat="1" ht="65.099999999999994" customHeight="1">
+    </row>
+    <row r="5" spans="1:3" s="4" customFormat="1" ht="65" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="10" t="s">
         <v>220</v>
       </c>
       <c r="B5" s="23" t="s">
+        <v>549</v>
+      </c>
+      <c r="C5" s="23" t="s">
         <v>550</v>
       </c>
-      <c r="C5" s="23" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" s="4" customFormat="1" ht="65.099999999999994" customHeight="1">
+    </row>
+    <row r="6" spans="1:3" s="4" customFormat="1" ht="65" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="10" t="s">
         <v>224</v>
       </c>
       <c r="B6" s="10" t="s">
+        <v>478</v>
+      </c>
+      <c r="C6" s="52" t="s">
         <v>479</v>
       </c>
-      <c r="C6" s="52" t="s">
+    </row>
+    <row r="7" spans="1:3" s="4" customFormat="1" ht="65" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="10" t="s">
+        <v>267</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>481</v>
+      </c>
+      <c r="C7" s="52" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="7" spans="1:3" s="4" customFormat="1" ht="65.099999999999994" customHeight="1">
-      <c r="A7" s="10" t="s">
-        <v>268</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>482</v>
-      </c>
-      <c r="C7" s="52" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" s="4" customFormat="1" ht="65.099999999999994" customHeight="1">
+    <row r="8" spans="1:3" s="4" customFormat="1" ht="65" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="10" t="s">
         <v>231</v>
       </c>
       <c r="B8" s="10" t="s">
+        <v>486</v>
+      </c>
+      <c r="C8" s="52" t="s">
         <v>487</v>
       </c>
-      <c r="C8" s="52" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" s="4" customFormat="1" ht="65.099999999999994" customHeight="1">
+    </row>
+    <row r="9" spans="1:3" s="4" customFormat="1" ht="65" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="10" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B9" s="10" t="s">
+        <v>489</v>
+      </c>
+      <c r="C9" s="52" t="s">
         <v>490</v>
       </c>
-      <c r="C9" s="52" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" s="4" customFormat="1" ht="65.099999999999994" customHeight="1">
+    </row>
+    <row r="10" spans="1:3" s="4" customFormat="1" ht="65" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="10" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B10" s="10" t="s">
+        <v>493</v>
+      </c>
+      <c r="C10" s="52" t="s">
         <v>494</v>
       </c>
-      <c r="C10" s="52" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" s="4" customFormat="1" ht="65.099999999999994" customHeight="1">
+    </row>
+    <row r="11" spans="1:3" s="4" customFormat="1" ht="65" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="10" t="s">
         <v>213</v>
       </c>
       <c r="B11" s="10" t="s">
+        <v>501</v>
+      </c>
+      <c r="C11" s="52" t="s">
         <v>502</v>
       </c>
-      <c r="C11" s="52" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" s="4" customFormat="1" ht="65.099999999999994" customHeight="1">
+    </row>
+    <row r="12" spans="1:3" s="4" customFormat="1" ht="65" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="10" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B12" s="10" t="s">
+        <v>508</v>
+      </c>
+      <c r="C12" s="52" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" s="4" customFormat="1" ht="65" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="10" t="s">
+        <v>257</v>
+      </c>
+      <c r="B13" s="10" t="s">
         <v>509</v>
       </c>
-      <c r="C12" s="52" t="s">
+      <c r="C13" s="52" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" s="4" customFormat="1" ht="65" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="10" t="s">
+        <v>274</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>514</v>
+      </c>
+      <c r="C14" s="52" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" s="4" customFormat="1" ht="65" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="10" t="s">
+        <v>526</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>520</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" s="4" customFormat="1" ht="65" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="10" t="s">
+        <v>386</v>
+      </c>
+      <c r="B16" s="10" t="s">
         <v>508</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" s="4" customFormat="1" ht="65.099999999999994" customHeight="1">
-      <c r="A13" s="10" t="s">
-        <v>258</v>
-      </c>
-      <c r="B13" s="10" t="s">
-        <v>510</v>
-      </c>
-      <c r="C13" s="52" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" s="4" customFormat="1" ht="65.099999999999994" customHeight="1">
-      <c r="A14" s="10" t="s">
-        <v>275</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>515</v>
-      </c>
-      <c r="C14" s="52" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" s="4" customFormat="1" ht="65.099999999999994" customHeight="1">
-      <c r="A15" s="10" t="s">
-        <v>527</v>
-      </c>
-      <c r="B15" s="10" t="s">
-        <v>521</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" s="4" customFormat="1" ht="65.099999999999994" customHeight="1">
-      <c r="A16" s="10" t="s">
-        <v>387</v>
-      </c>
-      <c r="B16" s="10" t="s">
-        <v>509</v>
-      </c>
       <c r="C16" s="52" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" s="4" customFormat="1" ht="65.099999999999994" customHeight="1">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" s="4" customFormat="1" ht="65" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="11" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C17" s="51" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" s="4" customFormat="1" ht="65.099999999999994" customHeight="1">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" s="4" customFormat="1" ht="65" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="12" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B18" s="12" t="s">
+        <v>476</v>
+      </c>
+      <c r="C18" s="53" t="s">
         <v>477</v>
       </c>
-      <c r="C18" s="53" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" s="4" customFormat="1" ht="65.099999999999994" customHeight="1">
+    </row>
+    <row r="19" spans="1:3" s="4" customFormat="1" ht="65" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="11" t="s">
         <v>72</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C19" s="51" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" s="4" customFormat="1" ht="65.099999999999994" customHeight="1">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" s="4" customFormat="1" ht="65" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="11" t="s">
         <v>80</v>
       </c>
       <c r="B20" s="11" t="s">
+        <v>483</v>
+      </c>
+      <c r="C20" s="51" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" s="4" customFormat="1" ht="65" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="12" t="s">
+        <v>294</v>
+      </c>
+      <c r="B21" s="12" t="s">
         <v>484</v>
       </c>
-      <c r="C20" s="51" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" s="4" customFormat="1" ht="65.099999999999994" customHeight="1">
-      <c r="A21" s="12" t="s">
-        <v>295</v>
-      </c>
-      <c r="B21" s="12" t="s">
+      <c r="C21" s="53" t="s">
         <v>485</v>
       </c>
-      <c r="C21" s="53" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" s="4" customFormat="1" ht="65.099999999999994" customHeight="1">
+    </row>
+    <row r="22" spans="1:3" s="4" customFormat="1" ht="65" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="12" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C22" s="53" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" s="4" customFormat="1" ht="65.099999999999994" customHeight="1">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" s="4" customFormat="1" ht="65" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="11" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B23" s="11" t="s">
+        <v>491</v>
+      </c>
+      <c r="C23" s="51" t="s">
         <v>492</v>
       </c>
-      <c r="C23" s="51" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" s="4" customFormat="1" ht="65.099999999999994" customHeight="1">
+    </row>
+    <row r="24" spans="1:3" s="4" customFormat="1" ht="65" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="11" t="s">
         <v>102</v>
       </c>
       <c r="B24" s="11" t="s">
+        <v>495</v>
+      </c>
+      <c r="C24" s="51" t="s">
         <v>496</v>
       </c>
-      <c r="C24" s="51" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" s="4" customFormat="1" ht="65.099999999999994" customHeight="1">
+    </row>
+    <row r="25" spans="1:3" s="4" customFormat="1" ht="65" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="11" t="s">
         <v>88</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C25" s="51" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" s="4" customFormat="1" ht="65.099999999999994" customHeight="1">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" s="4" customFormat="1" ht="65" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="11" t="s">
         <v>134</v>
       </c>
       <c r="B26" s="11" t="s">
+        <v>499</v>
+      </c>
+      <c r="C26" s="51" t="s">
         <v>500</v>
       </c>
-      <c r="C26" s="51" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" s="4" customFormat="1" ht="65.099999999999994" customHeight="1">
+    </row>
+    <row r="27" spans="1:3" s="4" customFormat="1" ht="65" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="11" t="s">
         <v>116</v>
       </c>
       <c r="B27" s="11" t="s">
+        <v>503</v>
+      </c>
+      <c r="C27" s="51" t="s">
         <v>504</v>
       </c>
-      <c r="C27" s="51" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" s="4" customFormat="1" ht="65.099999999999994" customHeight="1">
+    </row>
+    <row r="28" spans="1:3" s="4" customFormat="1" ht="65" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="11" t="s">
         <v>129</v>
       </c>
       <c r="B28" s="11" t="s">
+        <v>505</v>
+      </c>
+      <c r="C28" s="51" t="s">
         <v>506</v>
       </c>
-      <c r="C28" s="51" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" s="4" customFormat="1" ht="65.099999999999994" customHeight="1">
+    </row>
+    <row r="29" spans="1:3" s="4" customFormat="1" ht="65" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="12" t="s">
+        <v>523</v>
+      </c>
+      <c r="B29" s="12" t="s">
         <v>524</v>
       </c>
-      <c r="B29" s="12" t="s">
+      <c r="C29" s="53" t="s">
         <v>525</v>
       </c>
-      <c r="C29" s="53" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" s="4" customFormat="1" ht="65.099999999999994" customHeight="1">
+    </row>
+    <row r="30" spans="1:3" s="4" customFormat="1" ht="65" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="12" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B30" s="12" t="s">
+        <v>511</v>
+      </c>
+      <c r="C30" s="53" t="s">
         <v>512</v>
       </c>
-      <c r="C30" s="53" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" s="4" customFormat="1" ht="65.099999999999994" customHeight="1">
+    </row>
+    <row r="31" spans="1:3" s="4" customFormat="1" ht="65" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="12" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B31" s="12" t="s">
+        <v>484</v>
+      </c>
+      <c r="C31" s="53" t="s">
         <v>485</v>
       </c>
-      <c r="C31" s="53" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" s="1" customFormat="1" ht="65.099999999999994" customHeight="1">
+    </row>
+    <row r="32" spans="1:3" s="1" customFormat="1" ht="65" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="11" t="s">
         <v>181</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" s="1" customFormat="1" ht="65.099999999999994" customHeight="1"/>
-    <row r="34" spans="1:3" s="1" customFormat="1" ht="65.099999999999994" customHeight="1">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" s="1" customFormat="1" ht="65" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="34" spans="1:3" s="1" customFormat="1" ht="65" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34"/>
       <c r="B34"/>
       <c r="C34"/>
     </row>
-    <row r="35" spans="1:3" s="1" customFormat="1" ht="65.099999999999994" customHeight="1">
+    <row r="35" spans="1:3" s="1" customFormat="1" ht="65" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35"/>
       <c r="B35"/>
       <c r="C35"/>
     </row>
-    <row r="36" spans="1:3" s="1" customFormat="1" ht="65.099999999999994" customHeight="1">
+    <row r="36" spans="1:3" s="1" customFormat="1" ht="65" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36"/>
       <c r="B36"/>
       <c r="C36"/>
     </row>
-    <row r="37" spans="1:3" s="1" customFormat="1" ht="65.099999999999994" customHeight="1">
+    <row r="37" spans="1:3" s="1" customFormat="1" ht="65" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37"/>
       <c r="B37"/>
       <c r="C37"/>
     </row>
-    <row r="38" spans="1:3" s="1" customFormat="1" ht="65.099999999999994" customHeight="1">
+    <row r="38" spans="1:3" s="1" customFormat="1" ht="65" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38"/>
       <c r="B38"/>
       <c r="C38"/>
     </row>
-    <row r="39" spans="1:3" s="1" customFormat="1" ht="65.099999999999994" customHeight="1">
+    <row r="39" spans="1:3" s="1" customFormat="1" ht="65" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39"/>
       <c r="B39"/>
       <c r="C39"/>
     </row>
-    <row r="40" spans="1:3" s="1" customFormat="1" ht="65.099999999999994" customHeight="1">
+    <row r="40" spans="1:3" s="1" customFormat="1" ht="65" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40"/>
       <c r="B40"/>
       <c r="C40"/>
     </row>
-    <row r="41" spans="1:3" s="1" customFormat="1" ht="65.099999999999994" customHeight="1">
+    <row r="41" spans="1:3" s="1" customFormat="1" ht="65" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41"/>
       <c r="B41"/>
       <c r="C41"/>
     </row>
-    <row r="42" spans="1:3" s="1" customFormat="1" ht="65.099999999999994" customHeight="1">
+    <row r="42" spans="1:3" s="1" customFormat="1" ht="65" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42"/>
       <c r="B42"/>
       <c r="C42"/>
     </row>
-    <row r="43" spans="1:3" s="1" customFormat="1" ht="65.099999999999994" customHeight="1">
+    <row r="43" spans="1:3" s="1" customFormat="1" ht="65" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43"/>
       <c r="B43"/>
       <c r="C43"/>
     </row>
-    <row r="44" spans="1:3" s="1" customFormat="1" ht="65.099999999999994" customHeight="1">
+    <row r="44" spans="1:3" s="1" customFormat="1" ht="65" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44"/>
       <c r="B44"/>
       <c r="C44"/>
     </row>
-    <row r="45" spans="1:3" s="1" customFormat="1" ht="65.099999999999994" customHeight="1">
+    <row r="45" spans="1:3" s="1" customFormat="1" ht="65" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45"/>
       <c r="B45"/>
       <c r="C45"/>
     </row>
-    <row r="46" spans="1:3" s="1" customFormat="1" ht="65.099999999999994" customHeight="1">
+    <row r="46" spans="1:3" s="1" customFormat="1" ht="65" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46"/>
       <c r="B46"/>
       <c r="C46"/>
     </row>
-    <row r="47" spans="1:3" s="1" customFormat="1" ht="65.099999999999994" customHeight="1">
+    <row r="47" spans="1:3" s="1" customFormat="1" ht="65" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47"/>
       <c r="B47"/>
       <c r="C47"/>
     </row>
-    <row r="48" spans="1:3" s="1" customFormat="1" ht="65.099999999999994" customHeight="1">
+    <row r="48" spans="1:3" s="1" customFormat="1" ht="65" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48"/>
       <c r="B48"/>
       <c r="C48"/>
     </row>
-    <row r="49" spans="1:3" s="1" customFormat="1" ht="65.099999999999994" customHeight="1">
+    <row r="49" spans="1:3" s="1" customFormat="1" ht="65" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49"/>
       <c r="B49"/>
       <c r="C49"/>
     </row>
-    <row r="50" spans="1:3" s="1" customFormat="1" ht="65.099999999999994" customHeight="1">
+    <row r="50" spans="1:3" s="1" customFormat="1" ht="65" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50"/>
       <c r="B50"/>
       <c r="C50"/>
     </row>
-    <row r="51" spans="1:3" s="1" customFormat="1" ht="65.099999999999994" customHeight="1">
+    <row r="51" spans="1:3" s="1" customFormat="1" ht="65" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51"/>
       <c r="B51"/>
       <c r="C51"/>
     </row>
-    <row r="52" spans="1:3" s="1" customFormat="1" ht="65.099999999999994" customHeight="1">
+    <row r="52" spans="1:3" s="1" customFormat="1" ht="65" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52"/>
       <c r="B52"/>
       <c r="C52"/>
     </row>
-    <row r="53" spans="1:3" s="1" customFormat="1" ht="65.099999999999994" customHeight="1">
+    <row r="53" spans="1:3" s="1" customFormat="1" ht="65" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53"/>
       <c r="B53"/>
       <c r="C53"/>
     </row>
-    <row r="54" spans="1:3" s="1" customFormat="1" ht="65.099999999999994" customHeight="1">
+    <row r="54" spans="1:3" s="1" customFormat="1" ht="65" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54"/>
       <c r="B54"/>
       <c r="C54"/>
     </row>
-    <row r="55" spans="1:3" s="1" customFormat="1" ht="65.099999999999994" customHeight="1">
+    <row r="55" spans="1:3" s="1" customFormat="1" ht="65" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55"/>
       <c r="B55"/>
       <c r="C55"/>
     </row>
-    <row r="56" spans="1:3" s="1" customFormat="1" ht="65.099999999999994" customHeight="1">
+    <row r="56" spans="1:3" s="1" customFormat="1" ht="65" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56"/>
       <c r="B56"/>
       <c r="C56"/>
     </row>
-    <row r="57" spans="1:3" s="1" customFormat="1" ht="65.099999999999994" customHeight="1">
+    <row r="57" spans="1:3" s="1" customFormat="1" ht="65" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57"/>
       <c r="B57"/>
       <c r="C57"/>
     </row>
-    <row r="58" spans="1:3" s="1" customFormat="1" ht="65.099999999999994" customHeight="1">
+    <row r="58" spans="1:3" s="1" customFormat="1" ht="65" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58"/>
       <c r="B58"/>
       <c r="C58"/>
     </row>
-    <row r="59" spans="1:3" s="1" customFormat="1" ht="65.099999999999994" customHeight="1">
+    <row r="59" spans="1:3" s="1" customFormat="1" ht="65" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59"/>
       <c r="B59"/>
       <c r="C59"/>
     </row>
-    <row r="60" spans="1:3" s="1" customFormat="1" ht="65.099999999999994" customHeight="1">
+    <row r="60" spans="1:3" s="1" customFormat="1" ht="65" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60"/>
       <c r="B60"/>
       <c r="C60"/>
     </row>
-    <row r="61" spans="1:3" s="1" customFormat="1" ht="65.099999999999994" customHeight="1">
+    <row r="61" spans="1:3" s="1" customFormat="1" ht="65" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61"/>
       <c r="B61"/>
       <c r="C61"/>
     </row>
-    <row r="62" spans="1:3" s="1" customFormat="1" ht="65.099999999999994" customHeight="1">
+    <row r="62" spans="1:3" s="1" customFormat="1" ht="65" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62"/>
       <c r="B62"/>
       <c r="C62"/>
     </row>
-    <row r="63" spans="1:3" s="1" customFormat="1" ht="65.099999999999994" customHeight="1">
+    <row r="63" spans="1:3" s="1" customFormat="1" ht="65" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63"/>
       <c r="B63"/>
       <c r="C63"/>
     </row>
-    <row r="64" spans="1:3" s="1" customFormat="1" ht="65.099999999999994" customHeight="1">
+    <row r="64" spans="1:3" s="1" customFormat="1" ht="65" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64"/>
       <c r="B64"/>
       <c r="C64"/>
     </row>
-    <row r="65" spans="1:3" s="1" customFormat="1" ht="65.099999999999994" customHeight="1">
+    <row r="65" spans="1:3" s="1" customFormat="1" ht="65" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65"/>
       <c r="B65"/>
       <c r="C65"/>
     </row>
-    <row r="66" spans="1:3" s="1" customFormat="1" ht="65.099999999999994" customHeight="1">
+    <row r="66" spans="1:3" s="1" customFormat="1" ht="65" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66"/>
       <c r="B66"/>
       <c r="C66"/>
     </row>
-    <row r="67" spans="1:3" s="1" customFormat="1" ht="65.099999999999994" customHeight="1">
+    <row r="67" spans="1:3" s="1" customFormat="1" ht="65" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67"/>
       <c r="B67"/>
       <c r="C67"/>
     </row>
-    <row r="68" spans="1:3" s="1" customFormat="1" ht="65.099999999999994" customHeight="1">
+    <row r="68" spans="1:3" s="1" customFormat="1" ht="65" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68"/>
       <c r="B68"/>
       <c r="C68"/>
     </row>
-    <row r="69" spans="1:3" s="1" customFormat="1" ht="65.099999999999994" customHeight="1">
+    <row r="69" spans="1:3" s="1" customFormat="1" ht="65" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A69"/>
       <c r="B69"/>
       <c r="C69"/>
     </row>
-    <row r="70" spans="1:3" s="1" customFormat="1" ht="65.099999999999994" customHeight="1">
+    <row r="70" spans="1:3" s="1" customFormat="1" ht="65" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A70"/>
       <c r="B70"/>
       <c r="C70"/>
     </row>
-    <row r="71" spans="1:3" s="1" customFormat="1" ht="65.099999999999994" customHeight="1">
+    <row r="71" spans="1:3" s="1" customFormat="1" ht="65" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A71"/>
       <c r="B71"/>
       <c r="C71"/>
     </row>
-    <row r="72" spans="1:3" s="1" customFormat="1" ht="65.099999999999994" customHeight="1">
+    <row r="72" spans="1:3" s="1" customFormat="1" ht="65" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72"/>
       <c r="B72"/>
       <c r="C72"/>
     </row>
-    <row r="73" spans="1:3" s="1" customFormat="1" ht="65.099999999999994" customHeight="1">
+    <row r="73" spans="1:3" s="1" customFormat="1" ht="65" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73"/>
       <c r="B73"/>
       <c r="C73"/>
     </row>
-    <row r="74" spans="1:3" s="1" customFormat="1" ht="65.099999999999994" customHeight="1">
+    <row r="74" spans="1:3" s="1" customFormat="1" ht="65" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A74"/>
       <c r="B74"/>
       <c r="C74"/>
     </row>
-    <row r="75" spans="1:3" s="1" customFormat="1" ht="65.099999999999994" customHeight="1">
+    <row r="75" spans="1:3" s="1" customFormat="1" ht="65" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75"/>
       <c r="B75"/>
       <c r="C75"/>
     </row>
-    <row r="76" spans="1:3" s="1" customFormat="1" ht="65.099999999999994" customHeight="1">
+    <row r="76" spans="1:3" s="1" customFormat="1" ht="65" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A76"/>
       <c r="B76"/>
       <c r="C76"/>
     </row>
-    <row r="77" spans="1:3" s="1" customFormat="1" ht="65.099999999999994" customHeight="1">
+    <row r="77" spans="1:3" s="1" customFormat="1" ht="65" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A77"/>
       <c r="B77"/>
       <c r="C77"/>
     </row>
-    <row r="78" spans="1:3" s="1" customFormat="1" ht="65.099999999999994" customHeight="1">
+    <row r="78" spans="1:3" s="1" customFormat="1" ht="65" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A78"/>
       <c r="B78"/>
       <c r="C78"/>
     </row>
-    <row r="79" spans="1:3" s="1" customFormat="1" ht="65.099999999999994" customHeight="1">
+    <row r="79" spans="1:3" s="1" customFormat="1" ht="65" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A79"/>
       <c r="B79"/>
       <c r="C79"/>
     </row>
-    <row r="80" spans="1:3" s="1" customFormat="1" ht="65.099999999999994" customHeight="1">
+    <row r="80" spans="1:3" s="1" customFormat="1" ht="65" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80"/>
       <c r="B80"/>
       <c r="C80"/>
     </row>
-    <row r="81" spans="1:3" s="1" customFormat="1" ht="65.099999999999994" customHeight="1">
+    <row r="81" spans="1:3" s="1" customFormat="1" ht="65" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A81"/>
       <c r="B81"/>
       <c r="C81"/>
     </row>
-    <row r="82" spans="1:3" s="1" customFormat="1" ht="65.099999999999994" customHeight="1">
+    <row r="82" spans="1:3" s="1" customFormat="1" ht="65" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A82"/>
       <c r="B82"/>
       <c r="C82"/>
     </row>
-    <row r="83" spans="1:3" s="1" customFormat="1" ht="65.099999999999994" customHeight="1">
+    <row r="83" spans="1:3" s="1" customFormat="1" ht="65" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A83"/>
       <c r="B83"/>
       <c r="C83"/>
     </row>
-    <row r="84" spans="1:3" s="1" customFormat="1" ht="65.099999999999994" customHeight="1">
+    <row r="84" spans="1:3" s="1" customFormat="1" ht="65" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A84"/>
       <c r="B84"/>
       <c r="C84"/>
     </row>
-    <row r="85" spans="1:3" s="1" customFormat="1" ht="65.099999999999994" customHeight="1">
+    <row r="85" spans="1:3" s="1" customFormat="1" ht="65" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A85"/>
       <c r="B85"/>
       <c r="C85"/>
     </row>
-    <row r="86" spans="1:3" s="1" customFormat="1" ht="65.099999999999994" customHeight="1">
+    <row r="86" spans="1:3" s="1" customFormat="1" ht="65" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A86"/>
       <c r="B86"/>
       <c r="C86"/>
     </row>
-    <row r="87" spans="1:3" s="1" customFormat="1" ht="65.099999999999994" customHeight="1">
+    <row r="87" spans="1:3" s="1" customFormat="1" ht="65" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A87"/>
       <c r="B87"/>
       <c r="C87"/>
     </row>
-    <row r="88" spans="1:3" s="1" customFormat="1" ht="65.099999999999994" customHeight="1">
+    <row r="88" spans="1:3" s="1" customFormat="1" ht="65" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A88"/>
       <c r="B88"/>
       <c r="C88"/>
     </row>
-    <row r="89" spans="1:3" s="1" customFormat="1" ht="65.099999999999994" customHeight="1">
+    <row r="89" spans="1:3" s="1" customFormat="1" ht="65" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A89"/>
       <c r="B89"/>
       <c r="C89"/>
     </row>
-    <row r="90" spans="1:3" s="1" customFormat="1" ht="65.099999999999994" customHeight="1">
+    <row r="90" spans="1:3" s="1" customFormat="1" ht="65" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A90"/>
       <c r="B90"/>
       <c r="C90"/>
     </row>
-    <row r="91" spans="1:3" s="1" customFormat="1" ht="65.099999999999994" customHeight="1">
+    <row r="91" spans="1:3" s="1" customFormat="1" ht="65" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A91"/>
       <c r="B91"/>
       <c r="C91"/>
     </row>
-    <row r="92" spans="1:3" s="1" customFormat="1" ht="65.099999999999994" customHeight="1">
+    <row r="92" spans="1:3" s="1" customFormat="1" ht="65" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A92"/>
       <c r="B92"/>
       <c r="C92"/>
     </row>
-    <row r="93" spans="1:3" s="1" customFormat="1" ht="65.099999999999994" customHeight="1">
+    <row r="93" spans="1:3" s="1" customFormat="1" ht="65" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A93"/>
       <c r="B93"/>
       <c r="C93"/>
     </row>
-    <row r="94" spans="1:3" s="1" customFormat="1" ht="65.099999999999994" customHeight="1">
+    <row r="94" spans="1:3" s="1" customFormat="1" ht="65" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A94"/>
       <c r="B94"/>
       <c r="C94"/>
     </row>
-    <row r="95" spans="1:3" s="1" customFormat="1" ht="65.099999999999994" customHeight="1">
+    <row r="95" spans="1:3" s="1" customFormat="1" ht="65" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A95"/>
       <c r="B95"/>
       <c r="C95"/>
     </row>
-    <row r="96" spans="1:3" s="1" customFormat="1" ht="65.099999999999994" customHeight="1">
+    <row r="96" spans="1:3" s="1" customFormat="1" ht="65" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A96"/>
       <c r="B96"/>
       <c r="C96"/>
     </row>
-    <row r="97" spans="1:3" s="1" customFormat="1" ht="65.099999999999994" customHeight="1">
+    <row r="97" spans="1:3" s="1" customFormat="1" ht="65" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A97"/>
       <c r="B97"/>
       <c r="C97"/>
     </row>
-    <row r="98" spans="1:3" s="1" customFormat="1" ht="65.099999999999994" customHeight="1">
+    <row r="98" spans="1:3" s="1" customFormat="1" ht="65" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A98"/>
       <c r="B98"/>
       <c r="C98"/>
     </row>
-    <row r="99" spans="1:3" s="1" customFormat="1" ht="65.099999999999994" customHeight="1">
+    <row r="99" spans="1:3" s="1" customFormat="1" ht="65" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A99"/>
       <c r="B99"/>
       <c r="C99"/>
     </row>
-    <row r="100" spans="1:3" s="1" customFormat="1" ht="65.099999999999994" customHeight="1">
+    <row r="100" spans="1:3" s="1" customFormat="1" ht="65" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A100"/>
       <c r="B100"/>
       <c r="C100"/>
     </row>
-    <row r="101" spans="1:3">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A101"/>
       <c r="B101"/>
       <c r="C101"/>
     </row>
-    <row r="102" spans="1:3">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A102"/>
       <c r="B102"/>
       <c r="C102"/>
     </row>
-    <row r="103" spans="1:3">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A103"/>
       <c r="B103"/>
       <c r="C103"/>
     </row>
-    <row r="104" spans="1:3">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A104"/>
       <c r="B104"/>
       <c r="C104"/>
     </row>
-    <row r="105" spans="1:3">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A105"/>
       <c r="B105"/>
       <c r="C105"/>
     </row>
-    <row r="106" spans="1:3">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A106"/>
       <c r="B106"/>
       <c r="C106"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C33">
-    <sortState ref="A2:C34">
+  <autoFilter ref="A1:C33" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C34">
       <sortCondition sortBy="cellColor" ref="A1:A34" dxfId="0"/>
     </sortState>
   </autoFilter>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select a day from the list. Select CANCEL, and then press ALT+DOWN ARROW to select from the drop-down list" sqref="M42">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select a day from the list. Select CANCEL, and then press ALT+DOWN ARROW to select from the drop-down list" sqref="M42" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"SONNTAG,MONTAG,DIENSTAG,MITTWOCH,DONNERSTAG,FREITAG,SAMSTAG"</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -3483,50 +3492,49 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AMN122"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="N135" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="J95" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Q97" sqref="Q97"/>
+      <selection pane="bottomRight" activeCell="O98" sqref="O98"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.875" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="42.875" style="17" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.375" style="17" customWidth="1"/>
-    <col min="3" max="3" width="25.125" style="17" customWidth="1"/>
-    <col min="4" max="4" width="19.375" style="17" customWidth="1"/>
-    <col min="5" max="5" width="23.375" style="17" customWidth="1"/>
-    <col min="6" max="6" width="14.75" style="36" customWidth="1"/>
-    <col min="7" max="7" width="15.625" style="17" customWidth="1"/>
-    <col min="8" max="8" width="13.125" style="17" customWidth="1"/>
-    <col min="9" max="9" width="17.75" style="17" customWidth="1"/>
+    <col min="1" max="1" width="42.83203125" style="17" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.33203125" style="17" customWidth="1"/>
+    <col min="3" max="3" width="25.1640625" style="17" customWidth="1"/>
+    <col min="4" max="4" width="19.33203125" style="17" customWidth="1"/>
+    <col min="5" max="5" width="23.33203125" style="17" customWidth="1"/>
+    <col min="6" max="6" width="14.6640625" style="36" customWidth="1"/>
+    <col min="7" max="7" width="15.6640625" style="17" customWidth="1"/>
+    <col min="8" max="8" width="13.1640625" style="17" customWidth="1"/>
+    <col min="9" max="9" width="17.6640625" style="17" customWidth="1"/>
     <col min="10" max="10" width="13" style="17" customWidth="1"/>
-    <col min="11" max="11" width="10.125" style="17" customWidth="1"/>
-    <col min="12" max="12" width="12.875" style="17" customWidth="1"/>
-    <col min="13" max="13" width="5.375" style="17" customWidth="1"/>
+    <col min="11" max="11" width="10.1640625" style="17" customWidth="1"/>
+    <col min="12" max="12" width="12.83203125" style="17" customWidth="1"/>
+    <col min="13" max="13" width="5.33203125" style="17" customWidth="1"/>
     <col min="14" max="14" width="88.5" style="17" customWidth="1"/>
-    <col min="15" max="15" width="13.875" style="17" customWidth="1"/>
-    <col min="16" max="16" width="43.875" style="17" customWidth="1"/>
-    <col min="17" max="17" width="48.875" style="17" customWidth="1"/>
+    <col min="15" max="15" width="13.83203125" style="17" customWidth="1"/>
+    <col min="16" max="16" width="43.83203125" style="17" customWidth="1"/>
+    <col min="17" max="17" width="48.83203125" style="17" customWidth="1"/>
     <col min="18" max="18" width="16" style="17" customWidth="1"/>
-    <col min="19" max="19" width="7.875" style="17" customWidth="1"/>
-    <col min="20" max="20" width="27.625" style="17" customWidth="1"/>
-    <col min="21" max="21" width="29.375" style="17" customWidth="1"/>
+    <col min="19" max="19" width="7.83203125" style="17" customWidth="1"/>
+    <col min="20" max="20" width="27.6640625" style="17" customWidth="1"/>
+    <col min="21" max="21" width="29.33203125" style="17" customWidth="1"/>
     <col min="22" max="1028" width="10.5" style="17" customWidth="1"/>
-    <col min="1029" max="16384" width="8.875" style="35"/>
+    <col min="1029" max="16384" width="8.83203125" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="22" customFormat="1" ht="65.099999999999994" customHeight="1">
+    <row r="1" spans="1:21" s="22" customFormat="1" ht="65" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="13" t="s">
         <v>45</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C1" s="13" t="s">
         <v>46</v>
@@ -3562,13 +3570,13 @@
         <v>56</v>
       </c>
       <c r="N1" s="13" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="O1" s="21" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="P1" s="21" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="Q1" s="13" t="s">
         <v>57</v>
@@ -3583,25 +3591,25 @@
         <v>59</v>
       </c>
       <c r="U1" s="13" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21" s="24" customFormat="1" ht="65.099999999999994" hidden="1" customHeight="1">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" s="24" customFormat="1" ht="65" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="31" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B2" s="38" t="str">
         <f>VLOOKUP($E2,Liste!$A$2:$C$32,2,FALSE)</f>
         <v>Finanzwissenschaft und Wirtschaftspolitik</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D2" s="16" t="s">
         <v>71</v>
       </c>
       <c r="E2" s="16" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="F2" s="16" t="s">
         <v>25</v>
@@ -3610,7 +3618,7 @@
         <v>107</v>
       </c>
       <c r="H2" s="16" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="I2" s="32">
         <v>0.33333333333333298</v>
@@ -3619,14 +3627,14 @@
         <v>0.5</v>
       </c>
       <c r="K2" s="16" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="L2" s="16" t="s">
         <v>75</v>
       </c>
       <c r="M2" s="33"/>
       <c r="N2" s="16" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="O2" s="34">
         <v>16</v>
@@ -3636,7 +3644,7 @@
         <v>https://www.wiwi.ruhr-uni-bochum.de/fiwipo/index.html.de</v>
       </c>
       <c r="Q2" s="16" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="R2" s="16" t="s">
         <v>68</v>
@@ -3645,28 +3653,28 @@
         <v>10</v>
       </c>
       <c r="T2" s="16" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="U2" s="16" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" s="24" customFormat="1" ht="65.099999999999994" hidden="1" customHeight="1">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" s="24" customFormat="1" ht="65" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="31" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B3" s="20" t="str">
         <f>VLOOKUP($E3,Liste!$A$2:$C$32,2,FALSE)</f>
         <v>Finanzwissenschaft und Wirtschaftspolitik</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D3" s="16" t="s">
         <v>77</v>
       </c>
       <c r="E3" s="16" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="F3" s="16" t="s">
         <v>26</v>
@@ -3675,7 +3683,7 @@
         <v>107</v>
       </c>
       <c r="H3" s="16" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="I3" s="32">
         <v>0.5</v>
@@ -3684,16 +3692,16 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="K3" s="16" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="L3" s="16" t="s">
         <v>75</v>
       </c>
       <c r="M3" s="33" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="N3" s="16" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="O3" s="34">
         <v>16</v>
@@ -3703,7 +3711,7 @@
         <v>https://www.wiwi.ruhr-uni-bochum.de/fiwipo/index.html.de</v>
       </c>
       <c r="Q3" s="16" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="R3" s="16" t="s">
         <v>68</v>
@@ -3712,13 +3720,13 @@
         <v>10</v>
       </c>
       <c r="T3" s="16" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="U3" s="16" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" s="50" customFormat="1" ht="65.099999999999994" hidden="1" customHeight="1">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" s="50" customFormat="1" ht="65" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="23" t="s">
         <v>192</v>
       </c>
@@ -3733,7 +3741,7 @@
         <v>71</v>
       </c>
       <c r="E4" s="23" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="F4" s="14" t="s">
         <v>193</v>
@@ -3758,10 +3766,10 @@
       </c>
       <c r="M4" s="47"/>
       <c r="N4" s="49" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="O4" s="23" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="P4" s="49" t="str">
         <f>VLOOKUP($B4,Liste!$B$2:$C$32,2,FALSE)</f>
@@ -3777,13 +3785,13 @@
         <v>9</v>
       </c>
       <c r="T4" s="23" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="U4" s="23" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" s="50" customFormat="1" ht="65.099999999999994" hidden="1" customHeight="1">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" s="50" customFormat="1" ht="65" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="23" t="s">
         <v>192</v>
       </c>
@@ -3798,7 +3806,7 @@
         <v>77</v>
       </c>
       <c r="E5" s="23" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="F5" s="14" t="s">
         <v>20</v>
@@ -3813,7 +3821,7 @@
         <v>189</v>
       </c>
       <c r="J5" s="23" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="K5" s="23" t="s">
         <v>65</v>
@@ -3823,10 +3831,10 @@
       </c>
       <c r="M5" s="23"/>
       <c r="N5" s="49" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="O5" s="23" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="P5" s="49" t="str">
         <f>VLOOKUP($B5,Liste!$B$2:$C$32,2,FALSE)</f>
@@ -3842,31 +3850,31 @@
         <v>9</v>
       </c>
       <c r="T5" s="23" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="U5" s="23" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" s="42" customFormat="1" ht="65.099999999999994" hidden="1" customHeight="1">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" s="42" customFormat="1" ht="65" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="47" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B6" s="48" t="e">
         <f>VLOOKUP($E6,Liste!$A$2:$C$32,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="C6" s="47" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D6" s="47" t="s">
         <v>77</v>
       </c>
       <c r="E6" s="47" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="F6" s="47" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="G6" s="47" t="s">
         <v>63</v>
@@ -3881,17 +3889,17 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="K6" s="47" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="L6" s="47" t="s">
         <v>75</v>
       </c>
       <c r="M6" s="47"/>
       <c r="N6" s="48" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="O6" s="47" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="P6" s="48" t="e">
         <f>VLOOKUP($B6,Liste!$B$2:$C$32,2,FALSE)</f>
@@ -3905,31 +3913,31 @@
         <v>8</v>
       </c>
       <c r="T6" s="47" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="U6" s="47" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" s="42" customFormat="1" ht="65.099999999999994" hidden="1" customHeight="1">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" s="42" customFormat="1" ht="65" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="47" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B7" s="48" t="e">
         <f>VLOOKUP($E7,Liste!$A$2:$C$32,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="C7" s="47" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D7" s="47" t="s">
         <v>77</v>
       </c>
       <c r="E7" s="47" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="F7" s="47" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="G7" s="47" t="s">
         <v>86</v>
@@ -3944,17 +3952,17 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="K7" s="47" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="L7" s="47" t="s">
         <v>75</v>
       </c>
       <c r="M7" s="47"/>
       <c r="N7" s="48" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="O7" s="47" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="P7" s="48" t="e">
         <f>VLOOKUP($B7,Liste!$B$2:$C$32,2,FALSE)</f>
@@ -3968,31 +3976,31 @@
         <v>8</v>
       </c>
       <c r="T7" s="47" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="U7" s="47" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" s="42" customFormat="1" ht="65.099999999999994" hidden="1" customHeight="1">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" s="42" customFormat="1" ht="65" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="47" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B8" s="48" t="e">
         <f>VLOOKUP($E8,Liste!$A$2:$C$32,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="C8" s="47" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D8" s="47" t="s">
         <v>71</v>
       </c>
       <c r="E8" s="47" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="F8" s="47" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="G8" s="47" t="s">
         <v>63</v>
@@ -4007,17 +4015,17 @@
         <v>0.5</v>
       </c>
       <c r="K8" s="47" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="L8" s="47" t="s">
         <v>75</v>
       </c>
       <c r="M8" s="47"/>
       <c r="N8" s="48" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="O8" s="47" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="P8" s="48" t="e">
         <f>VLOOKUP($B8,Liste!$B$2:$C$32,2,FALSE)</f>
@@ -4031,31 +4039,31 @@
         <v>8</v>
       </c>
       <c r="T8" s="47" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="U8" s="47" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" s="42" customFormat="1" ht="65.099999999999994" hidden="1" customHeight="1">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" s="42" customFormat="1" ht="65" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="47" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B9" s="48" t="e">
         <f>VLOOKUP($E9,Liste!$A$2:$C$32,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="C9" s="47" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D9" s="47" t="s">
         <v>71</v>
       </c>
       <c r="E9" s="47" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="F9" s="47" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="G9" s="47" t="s">
         <v>120</v>
@@ -4070,17 +4078,17 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="K9" s="47" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="L9" s="47" t="s">
         <v>75</v>
       </c>
       <c r="M9" s="47"/>
       <c r="N9" s="48" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="O9" s="47" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="P9" s="48" t="e">
         <f>VLOOKUP($B9,Liste!$B$2:$C$32,2,FALSE)</f>
@@ -4094,13 +4102,13 @@
         <v>8</v>
       </c>
       <c r="T9" s="47" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="U9" s="47" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" s="24" customFormat="1" ht="65.099999999999994" hidden="1" customHeight="1">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" s="24" customFormat="1" ht="65" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="25" t="s">
         <v>60</v>
       </c>
@@ -4116,7 +4124,7 @@
         <v>61</v>
       </c>
       <c r="E10" s="15" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="F10" s="15" t="s">
         <v>62</v>
@@ -4134,17 +4142,17 @@
         <v>0.66666666666666696</v>
       </c>
       <c r="K10" s="15" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="L10" s="15" t="s">
         <v>75</v>
       </c>
       <c r="M10" s="15"/>
       <c r="N10" s="27" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="O10" s="15" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="P10" s="27" t="str">
         <f>VLOOKUP($B10,Liste!$B$2:$C$32,2,FALSE)</f>
@@ -4160,13 +4168,13 @@
         <v>6</v>
       </c>
       <c r="T10" s="15" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="U10" s="15" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" s="24" customFormat="1" ht="65.099999999999994" hidden="1" customHeight="1">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" s="24" customFormat="1" ht="65" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="25" t="s">
         <v>98</v>
       </c>
@@ -4182,7 +4190,7 @@
         <v>71</v>
       </c>
       <c r="E11" s="15" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="F11" s="15" t="s">
         <v>24</v>
@@ -4200,14 +4208,14 @@
         <v>0.5</v>
       </c>
       <c r="K11" s="27" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="L11" s="27" t="s">
         <v>75</v>
       </c>
       <c r="M11" s="28"/>
       <c r="N11" s="27" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="O11" s="29">
         <v>53</v>
@@ -4226,13 +4234,13 @@
         <v>6</v>
       </c>
       <c r="T11" s="30" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="U11" s="30" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21" s="24" customFormat="1" ht="65.099999999999994" hidden="1" customHeight="1">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" s="24" customFormat="1" ht="65" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="25" t="s">
         <v>98</v>
       </c>
@@ -4248,7 +4256,7 @@
         <v>77</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="F12" s="15" t="s">
         <v>24</v>
@@ -4266,14 +4274,14 @@
         <v>0.41666666666666702</v>
       </c>
       <c r="K12" s="27" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="L12" s="27" t="s">
         <v>75</v>
       </c>
       <c r="M12" s="28"/>
       <c r="N12" s="27" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="O12" s="29">
         <v>53</v>
@@ -4292,13 +4300,13 @@
         <v>6</v>
       </c>
       <c r="T12" s="30" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="U12" s="30" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21" s="24" customFormat="1" ht="65.099999999999994" hidden="1" customHeight="1">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" s="24" customFormat="1" ht="65" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="25" t="s">
         <v>141</v>
       </c>
@@ -4314,7 +4322,7 @@
         <v>71</v>
       </c>
       <c r="E13" s="15" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="F13" s="15" t="s">
         <v>142</v>
@@ -4332,7 +4340,7 @@
         <v>0.58333333333333304</v>
       </c>
       <c r="K13" s="27" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="L13" s="27" t="s">
         <v>75</v>
@@ -4341,7 +4349,7 @@
         <v>143</v>
       </c>
       <c r="N13" s="27" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="O13" s="29">
         <v>61</v>
@@ -4360,13 +4368,13 @@
         <v>3</v>
       </c>
       <c r="T13" s="30" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="U13" s="30" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="14" spans="1:21" s="24" customFormat="1" ht="65.099999999999994" hidden="1" customHeight="1">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" s="24" customFormat="1" ht="65" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="25" t="s">
         <v>141</v>
       </c>
@@ -4382,7 +4390,7 @@
         <v>77</v>
       </c>
       <c r="E14" s="15" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="F14" s="15" t="s">
         <v>146</v>
@@ -4400,7 +4408,7 @@
         <v>0.41666666666666702</v>
       </c>
       <c r="K14" s="27" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="L14" s="27" t="s">
         <v>75</v>
@@ -4409,7 +4417,7 @@
         <v>143</v>
       </c>
       <c r="N14" s="27" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="O14" s="29">
         <v>61</v>
@@ -4428,15 +4436,15 @@
         <v>3</v>
       </c>
       <c r="T14" s="30" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="U14" s="30" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21" s="50" customFormat="1" ht="65.099999999999994" hidden="1" customHeight="1">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" s="50" customFormat="1" ht="65" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="23" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B15" s="49" t="str">
         <f>VLOOKUP($E15,Liste!$A$2:$C$32,2,FALSE)</f>
@@ -4449,10 +4457,10 @@
         <v>71</v>
       </c>
       <c r="E15" s="23" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="F15" s="14" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G15" s="14" t="s">
         <v>63</v>
@@ -4467,19 +4475,19 @@
         <v>203</v>
       </c>
       <c r="K15" s="23" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="L15" s="23" t="s">
         <v>66</v>
       </c>
       <c r="M15" s="23" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="N15" s="49" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="O15" s="23" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="P15" s="49" t="str">
         <f>VLOOKUP($B15,Liste!$B$2:$C$32,2,FALSE)</f>
@@ -4495,49 +4503,49 @@
         <v>3.5</v>
       </c>
       <c r="T15" s="23" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="U15" s="23" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21" s="24" customFormat="1" ht="65.099999999999994" hidden="1" customHeight="1">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" s="24" customFormat="1" ht="65" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="31" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B16" s="20" t="str">
         <f>VLOOKUP($E16,Liste!$A$2:$C$32,2,FALSE)</f>
         <v>Apl.-Professur für Health Economics</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D16" s="16" t="s">
         <v>61</v>
       </c>
       <c r="E16" s="16" t="s">
+        <v>294</v>
+      </c>
+      <c r="F16" s="16" t="s">
         <v>295</v>
-      </c>
-      <c r="F16" s="16" t="s">
-        <v>296</v>
       </c>
       <c r="G16" s="16"/>
       <c r="H16" s="16" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="I16" s="32"/>
       <c r="J16" s="32"/>
       <c r="K16" s="16" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="L16" s="16" t="s">
         <v>75</v>
       </c>
       <c r="M16" s="33" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="N16" s="16" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="O16" s="34">
         <v>15</v>
@@ -4547,7 +4555,7 @@
         <v>https://www.wiwi.ruhr-uni-bochum.de/health/index.html.de</v>
       </c>
       <c r="Q16" s="16" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="R16" s="16" t="s">
         <v>68</v>
@@ -4556,13 +4564,13 @@
         <v>5</v>
       </c>
       <c r="T16" s="16" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="U16" s="16" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="17" spans="1:21" s="24" customFormat="1" ht="65.099999999999994" hidden="1" customHeight="1">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" s="24" customFormat="1" ht="65" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="23" t="s">
         <v>223</v>
       </c>
@@ -4605,7 +4613,7 @@
         <v>225</v>
       </c>
       <c r="O17" s="14" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="P17" s="49" t="str">
         <f>VLOOKUP($B17,Liste!$B$2:$C$32,2,FALSE)</f>
@@ -4621,13 +4629,13 @@
         <v>9</v>
       </c>
       <c r="T17" s="14" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="U17" s="14" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="18" spans="1:21" s="24" customFormat="1" ht="65.099999999999994" hidden="1" customHeight="1">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" s="24" customFormat="1" ht="65" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="23" t="s">
         <v>223</v>
       </c>
@@ -4670,7 +4678,7 @@
         <v>225</v>
       </c>
       <c r="O18" s="14" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="P18" s="49" t="str">
         <f>VLOOKUP($B18,Liste!$B$2:$C$32,2,FALSE)</f>
@@ -4686,13 +4694,13 @@
         <v>9</v>
       </c>
       <c r="T18" s="14" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="U18" s="14" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="19" spans="1:21" s="24" customFormat="1" ht="65.099999999999994" hidden="1" customHeight="1">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" s="24" customFormat="1" ht="65" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="23" t="s">
         <v>223</v>
       </c>
@@ -4737,7 +4745,7 @@
         <v>225</v>
       </c>
       <c r="O19" s="14" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="P19" s="49" t="str">
         <f>VLOOKUP($B19,Liste!$B$2:$C$32,2,FALSE)</f>
@@ -4753,13 +4761,13 @@
         <v>9</v>
       </c>
       <c r="T19" s="14" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="U19" s="14" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="20" spans="1:21" s="24" customFormat="1" ht="65.099999999999994" hidden="1" customHeight="1">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" s="24" customFormat="1" ht="65" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="23" t="s">
         <v>223</v>
       </c>
@@ -4804,7 +4812,7 @@
         <v>225</v>
       </c>
       <c r="O20" s="14" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="P20" s="49" t="str">
         <f>VLOOKUP($B20,Liste!$B$2:$C$32,2,FALSE)</f>
@@ -4820,13 +4828,13 @@
         <v>9</v>
       </c>
       <c r="T20" s="14" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="U20" s="14" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="21" spans="1:21" s="24" customFormat="1" ht="65.099999999999994" hidden="1" customHeight="1">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" s="24" customFormat="1" ht="65" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="25" t="s">
         <v>101</v>
       </c>
@@ -4887,13 +4895,13 @@
         <v>3</v>
       </c>
       <c r="T21" s="30" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="U21" s="30" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="22" spans="1:21" s="24" customFormat="1" ht="65.099999999999994" hidden="1" customHeight="1">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" s="24" customFormat="1" ht="65" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="25" t="s">
         <v>101</v>
       </c>
@@ -4954,31 +4962,31 @@
         <v>3</v>
       </c>
       <c r="T22" s="30" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="U22" s="30" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="23" spans="1:21" s="24" customFormat="1" ht="65.099999999999994" customHeight="1">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" s="24" customFormat="1" ht="65" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="23" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B23" s="18" t="str">
         <f>VLOOKUP($E23,Liste!$A$2:$C$32,2,FALSE)</f>
         <v>Statistical Methods for Big Data</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D23" s="14" t="s">
         <v>71</v>
       </c>
       <c r="E23" s="14" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="F23" s="14" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="G23" s="14" t="s">
         <v>63</v>
@@ -4993,24 +5001,24 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="K23" s="14" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="L23" s="14" t="s">
         <v>66</v>
       </c>
       <c r="M23" s="14"/>
       <c r="N23" s="23" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="O23" s="23" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="P23" s="49" t="str">
         <f>VLOOKUP($B23,Liste!$B$2:$C$32,2,FALSE)</f>
         <v>https://www.statistik.tu-dortmund.de/bigdata.html</v>
       </c>
       <c r="Q23" s="23" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="R23" s="14" t="s">
         <v>68</v>
@@ -5019,31 +5027,31 @@
         <v>9</v>
       </c>
       <c r="T23" s="14" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="U23" s="14" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="24" spans="1:21" s="24" customFormat="1" ht="65.099999999999994" customHeight="1">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" s="24" customFormat="1" ht="65" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="23" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B24" s="18" t="str">
         <f>VLOOKUP($E24,Liste!$A$2:$C$32,2,FALSE)</f>
         <v>Statistical Methods for Big Data</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D24" s="14" t="s">
         <v>71</v>
       </c>
       <c r="E24" s="14" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="F24" s="14" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="G24" s="14" t="s">
         <v>120</v>
@@ -5058,24 +5066,24 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="K24" s="14" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="L24" s="14" t="s">
         <v>66</v>
       </c>
       <c r="M24" s="14"/>
       <c r="N24" s="23" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="O24" s="14" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="P24" s="49" t="str">
         <f>VLOOKUP($B24,Liste!$B$2:$C$32,2,FALSE)</f>
         <v>https://www.statistik.tu-dortmund.de/bigdata.html</v>
       </c>
       <c r="Q24" s="23" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="R24" s="14" t="s">
         <v>68</v>
@@ -5084,13 +5092,13 @@
         <v>9</v>
       </c>
       <c r="T24" s="14" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="U24" s="14" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="25" spans="1:21" s="24" customFormat="1" ht="65.099999999999994" hidden="1" customHeight="1">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" s="24" customFormat="1" ht="65" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="25" t="s">
         <v>175</v>
       </c>
@@ -5117,7 +5125,7 @@
       <c r="I25" s="26"/>
       <c r="J25" s="26"/>
       <c r="K25" s="27" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="L25" s="27" t="s">
         <v>75</v>
@@ -5126,7 +5134,7 @@
         <v>177</v>
       </c>
       <c r="N25" s="27" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="O25" s="29">
         <v>71</v>
@@ -5145,13 +5153,13 @@
         <v>6</v>
       </c>
       <c r="T25" s="30" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="U25" s="30" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="26" spans="1:21" s="24" customFormat="1" ht="65.099999999999994" hidden="1" customHeight="1">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" s="24" customFormat="1" ht="65" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="25" t="s">
         <v>160</v>
       </c>
@@ -5212,13 +5220,13 @@
         <v>3</v>
       </c>
       <c r="T26" s="30" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="U26" s="30" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="27" spans="1:21" s="24" customFormat="1" ht="65.099999999999994" hidden="1" customHeight="1">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" s="24" customFormat="1" ht="65" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="25" t="s">
         <v>160</v>
       </c>
@@ -5279,31 +5287,31 @@
         <v>3</v>
       </c>
       <c r="T27" s="30" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="U27" s="30" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="28" spans="1:21" s="24" customFormat="1" ht="65.099999999999994" customHeight="1">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" s="24" customFormat="1" ht="65" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="23" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B28" s="18" t="str">
         <f>VLOOKUP($E28,Liste!$A$2:$C$32,2,FALSE)</f>
         <v>Statistical Methods for Big Data</v>
       </c>
       <c r="C28" s="14" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D28" s="14" t="s">
         <v>77</v>
       </c>
       <c r="E28" s="14" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="F28" s="14" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="G28" s="14" t="s">
         <v>82</v>
@@ -5318,24 +5326,24 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="K28" s="14" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="L28" s="14" t="s">
         <v>66</v>
       </c>
       <c r="M28" s="14"/>
       <c r="N28" s="23" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="O28" s="14" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="P28" s="49" t="str">
         <f>VLOOKUP($B28,Liste!$B$2:$C$32,2,FALSE)</f>
         <v>https://www.statistik.tu-dortmund.de/bigdata.html</v>
       </c>
       <c r="Q28" s="23" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="R28" s="14" t="s">
         <v>68</v>
@@ -5344,13 +5352,13 @@
         <v>9</v>
       </c>
       <c r="T28" s="14" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="U28" s="14" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="29" spans="1:21" s="24" customFormat="1" ht="65.099999999999994" customHeight="1">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" s="24" customFormat="1" ht="65" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="23" t="s">
         <v>207</v>
       </c>
@@ -5380,10 +5388,10 @@
         <v>209</v>
       </c>
       <c r="J29" s="14" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="K29" s="14" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="L29" s="14" t="s">
         <v>66</v>
@@ -5395,14 +5403,14 @@
         <v>211</v>
       </c>
       <c r="O29" s="14" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="P29" s="49" t="str">
         <f>VLOOKUP($B29,Liste!$B$2:$C$32,2,FALSE)</f>
         <v>https://www.wiwi2.tu-dortmund.de/wiwi/ae/de/lehrstuhl/</v>
       </c>
       <c r="Q29" s="14" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="R29" s="14" t="s">
         <v>145</v>
@@ -5411,31 +5419,31 @@
         <v>7.5</v>
       </c>
       <c r="T29" s="14" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="U29" s="14" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="30" spans="1:21" s="42" customFormat="1" ht="65.099999999999994" customHeight="1">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" s="42" customFormat="1" ht="65" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="47" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B30" s="48" t="str">
         <f>VLOOKUP($E30,Liste!$A$2:$C$32,2,FALSE)</f>
         <v>Statistik mit Anwendungen im Bereich der Ingenieurwissenschaften</v>
       </c>
       <c r="C30" s="47" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D30" s="47" t="s">
         <v>61</v>
       </c>
       <c r="E30" s="47" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F30" s="47" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G30" s="47" t="s">
         <v>107</v>
@@ -5450,24 +5458,24 @@
         <v>189</v>
       </c>
       <c r="K30" s="47" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="L30" s="47" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="M30" s="47"/>
       <c r="N30" s="47" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="O30" s="47" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="P30" s="48" t="str">
         <f>VLOOKUP($B30,Liste!$B$2:$C$32,2,FALSE)</f>
         <v>https://www.statistik.tu-dortmund.de/ingenieurswissenschaften.html</v>
       </c>
       <c r="Q30" s="47" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="R30" s="47" t="s">
         <v>92</v>
@@ -5476,31 +5484,31 @@
         <v>8</v>
       </c>
       <c r="T30" s="47" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="U30" s="47" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="31" spans="1:21" s="24" customFormat="1" ht="65.099999999999994" hidden="1" customHeight="1">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" s="24" customFormat="1" ht="65" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="23" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B31" s="18" t="str">
         <f>VLOOKUP($E31,Liste!$A$2:$C$32,2,FALSE)</f>
         <v>Statistical Methods for Big Data</v>
       </c>
       <c r="C31" s="14" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D31" s="14" t="s">
         <v>71</v>
       </c>
       <c r="E31" s="14" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="F31" s="14" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="G31" s="14" t="s">
         <v>63</v>
@@ -5515,17 +5523,17 @@
         <v>0.5</v>
       </c>
       <c r="K31" s="14" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="L31" s="14" t="s">
         <v>66</v>
       </c>
       <c r="M31" s="14"/>
       <c r="N31" s="49" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="O31" s="14" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="P31" s="49" t="str">
         <f>VLOOKUP($B31,Liste!$B$2:$C$32,2,FALSE)</f>
@@ -5539,31 +5547,31 @@
         <v>9</v>
       </c>
       <c r="T31" s="14" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="U31" s="14" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="32" spans="1:21" s="24" customFormat="1" ht="65.099999999999994" hidden="1" customHeight="1">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" s="24" customFormat="1" ht="65" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="23" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B32" s="18" t="str">
         <f>VLOOKUP($E32,Liste!$A$2:$C$32,2,FALSE)</f>
         <v>Statistical Methods for Big Data</v>
       </c>
       <c r="C32" s="14" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D32" s="14" t="s">
         <v>71</v>
       </c>
       <c r="E32" s="14" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="F32" s="14" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="G32" s="14" t="s">
         <v>120</v>
@@ -5578,17 +5586,17 @@
         <v>0.5</v>
       </c>
       <c r="K32" s="14" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="L32" s="14" t="s">
         <v>66</v>
       </c>
       <c r="M32" s="14"/>
       <c r="N32" s="49" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="O32" s="14" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="P32" s="49" t="str">
         <f>VLOOKUP($B32,Liste!$B$2:$C$32,2,FALSE)</f>
@@ -5602,31 +5610,31 @@
         <v>9</v>
       </c>
       <c r="T32" s="14" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="U32" s="14" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="33" spans="1:21" s="24" customFormat="1" ht="65.099999999999994" hidden="1" customHeight="1">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21" s="24" customFormat="1" ht="65" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="23" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B33" s="18" t="str">
         <f>VLOOKUP($E33,Liste!$A$2:$C$32,2,FALSE)</f>
         <v>Statistical Methods for Big Data</v>
       </c>
       <c r="C33" s="14" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D33" s="14" t="s">
         <v>77</v>
       </c>
       <c r="E33" s="14" t="s">
+        <v>414</v>
+      </c>
+      <c r="F33" s="14" t="s">
         <v>415</v>
-      </c>
-      <c r="F33" s="14" t="s">
-        <v>416</v>
       </c>
       <c r="G33" s="14" t="s">
         <v>86</v>
@@ -5641,17 +5649,17 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="K33" s="14" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="L33" s="14" t="s">
         <v>66</v>
       </c>
       <c r="M33" s="14"/>
       <c r="N33" s="49" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="O33" s="14" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="P33" s="49" t="str">
         <f>VLOOKUP($B33,Liste!$B$2:$C$32,2,FALSE)</f>
@@ -5665,13 +5673,13 @@
         <v>9</v>
       </c>
       <c r="T33" s="14" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="U33" s="14" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="34" spans="1:21" s="24" customFormat="1" ht="65.099999999999994" customHeight="1">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21" s="24" customFormat="1" ht="65" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="23" t="s">
         <v>229</v>
       </c>
@@ -5704,7 +5712,7 @@
         <v>189</v>
       </c>
       <c r="K34" s="14" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="L34" s="14" t="s">
         <v>66</v>
@@ -5713,17 +5721,17 @@
         <v>233</v>
       </c>
       <c r="N34" s="23" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="O34" s="14" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="P34" s="49" t="str">
         <f>VLOOKUP($B34,Liste!$B$2:$C$32,2,FALSE)</f>
         <v>https://www.wiwi2.tu-dortmund.de/wiwi/mak/de/lehrstuhl/index.html</v>
       </c>
       <c r="Q34" s="14" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="R34" s="14" t="s">
         <v>68</v>
@@ -5732,19 +5740,19 @@
         <v>7.5</v>
       </c>
       <c r="T34" s="14" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="U34" s="14" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="35" spans="1:21" s="24" customFormat="1" ht="65.099999999999994" hidden="1" customHeight="1">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21" s="24" customFormat="1" ht="65" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="23" t="s">
         <v>235</v>
       </c>
-      <c r="B35" s="18" t="e">
+      <c r="B35" s="18" t="str">
         <f>VLOOKUP($E35,Liste!$A$2:$C$32,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>Wirtschafts- und Sozialstatistik</v>
       </c>
       <c r="C35" s="14" t="s">
         <v>235</v>
@@ -5753,10 +5761,10 @@
         <v>99</v>
       </c>
       <c r="E35" s="14" t="s">
+        <v>534</v>
+      </c>
+      <c r="F35" s="14" t="s">
         <v>236</v>
-      </c>
-      <c r="F35" s="14" t="s">
-        <v>237</v>
       </c>
       <c r="G35" s="14"/>
       <c r="H35" s="14" t="s">
@@ -5765,23 +5773,23 @@
       <c r="I35" s="14"/>
       <c r="J35" s="14"/>
       <c r="K35" s="14" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="L35" s="14" t="s">
         <v>75</v>
       </c>
       <c r="M35" s="14" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="N35" s="49" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="O35" s="14" t="s">
-        <v>567</v>
-      </c>
-      <c r="P35" s="49" t="e">
+        <v>566</v>
+      </c>
+      <c r="P35" s="49" t="str">
         <f>VLOOKUP($B35,Liste!$B$2:$C$32,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>https://www.statistik.tu-dortmund.de/iwus.html</v>
       </c>
       <c r="Q35" s="49"/>
       <c r="R35" s="14" t="s">
@@ -5791,31 +5799,31 @@
         <v>9</v>
       </c>
       <c r="T35" s="14" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="U35" s="14" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="36" spans="1:21" s="24" customFormat="1" ht="65.099999999999994" hidden="1" customHeight="1">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21" s="24" customFormat="1" ht="65" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="23" t="s">
-        <v>420</v>
-      </c>
-      <c r="B36" s="18" t="e">
+        <v>419</v>
+      </c>
+      <c r="B36" s="18" t="str">
         <f>VLOOKUP($E36,Liste!$A$2:$C$32,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>Wirtschafts- und Sozialstatistik</v>
       </c>
       <c r="C36" s="14" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D36" s="14" t="s">
         <v>71</v>
       </c>
       <c r="E36" s="14" t="s">
-        <v>236</v>
+        <v>534</v>
       </c>
       <c r="F36" s="14" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="G36" s="14" t="s">
         <v>82</v>
@@ -5830,21 +5838,21 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="K36" s="14" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="L36" s="14" t="s">
         <v>66</v>
       </c>
       <c r="M36" s="14"/>
       <c r="N36" s="49" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="O36" s="14" t="s">
-        <v>562</v>
-      </c>
-      <c r="P36" s="49" t="e">
+        <v>561</v>
+      </c>
+      <c r="P36" s="49" t="str">
         <f>VLOOKUP($B36,Liste!$B$2:$C$32,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>https://www.statistik.tu-dortmund.de/iwus.html</v>
       </c>
       <c r="Q36" s="49"/>
       <c r="R36" s="14" t="s">
@@ -5854,31 +5862,31 @@
         <v>9</v>
       </c>
       <c r="T36" s="14" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="U36" s="14" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="37" spans="1:21" s="24" customFormat="1" ht="65.099999999999994" hidden="1" customHeight="1">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="37" spans="1:21" s="24" customFormat="1" ht="65" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="23" t="s">
-        <v>420</v>
-      </c>
-      <c r="B37" s="18" t="e">
+        <v>419</v>
+      </c>
+      <c r="B37" s="18" t="str">
         <f>VLOOKUP($E37,Liste!$A$2:$C$32,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>Wirtschafts- und Sozialstatistik</v>
       </c>
       <c r="C37" s="14" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D37" s="14" t="s">
         <v>77</v>
       </c>
       <c r="E37" s="14" t="s">
-        <v>236</v>
+        <v>534</v>
       </c>
       <c r="F37" s="14" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="G37" s="14" t="s">
         <v>107</v>
@@ -5893,21 +5901,21 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="K37" s="14" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="L37" s="14" t="s">
         <v>66</v>
       </c>
       <c r="M37" s="14"/>
       <c r="N37" s="49" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="O37" s="14" t="s">
-        <v>562</v>
-      </c>
-      <c r="P37" s="49" t="e">
+        <v>561</v>
+      </c>
+      <c r="P37" s="49" t="str">
         <f>VLOOKUP($B37,Liste!$B$2:$C$32,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>https://www.statistik.tu-dortmund.de/iwus.html</v>
       </c>
       <c r="Q37" s="49"/>
       <c r="R37" s="14" t="s">
@@ -5917,13 +5925,13 @@
         <v>9</v>
       </c>
       <c r="T37" s="14" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="U37" s="14" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="38" spans="1:21" s="24" customFormat="1" ht="65.099999999999994" customHeight="1">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="38" spans="1:21" s="24" customFormat="1" ht="65" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="23" t="s">
         <v>229</v>
       </c>
@@ -5950,13 +5958,13 @@
         <v>188</v>
       </c>
       <c r="I38" s="14" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="J38" s="14" t="s">
         <v>202</v>
       </c>
       <c r="K38" s="14" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="L38" s="14" t="s">
         <v>66</v>
@@ -5965,17 +5973,17 @@
         <v>233</v>
       </c>
       <c r="N38" s="23" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="O38" s="14" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="P38" s="49" t="str">
         <f>VLOOKUP($B38,Liste!$B$2:$C$32,2,FALSE)</f>
         <v>https://www.wiwi2.tu-dortmund.de/wiwi/mak/de/lehrstuhl/index.html</v>
       </c>
       <c r="Q38" s="14" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="R38" s="14" t="s">
         <v>68</v>
@@ -5984,13 +5992,13 @@
         <v>7.5</v>
       </c>
       <c r="T38" s="14" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="U38" s="14" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="39" spans="1:21" s="24" customFormat="1" ht="65.099999999999994" customHeight="1">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="39" spans="1:21" s="24" customFormat="1" ht="65" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="25" t="s">
         <v>109</v>
       </c>
@@ -6023,14 +6031,14 @@
         <v>0.58333333333333304</v>
       </c>
       <c r="K39" s="27" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="L39" s="27" t="s">
         <v>66</v>
       </c>
       <c r="M39" s="28"/>
       <c r="N39" s="15" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="O39" s="29">
         <v>55</v>
@@ -6040,7 +6048,7 @@
         <v>https://www.stat.wiwi.uni-due.de/</v>
       </c>
       <c r="Q39" s="15" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="R39" s="28" t="s">
         <v>92</v>
@@ -6049,13 +6057,13 @@
         <v>3</v>
       </c>
       <c r="T39" s="30" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="U39" s="30" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="40" spans="1:21" s="24" customFormat="1" ht="65.099999999999994" customHeight="1">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="40" spans="1:21" s="24" customFormat="1" ht="65" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="25" t="s">
         <v>109</v>
       </c>
@@ -6088,14 +6096,14 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="K40" s="27" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="L40" s="27" t="s">
         <v>66</v>
       </c>
       <c r="M40" s="28"/>
       <c r="N40" s="15" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="O40" s="29">
         <v>55</v>
@@ -6105,7 +6113,7 @@
         <v>https://www.stat.wiwi.uni-due.de/</v>
       </c>
       <c r="Q40" s="15" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="R40" s="28" t="s">
         <v>92</v>
@@ -6114,31 +6122,31 @@
         <v>3</v>
       </c>
       <c r="T40" s="30" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="U40" s="30" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="41" spans="1:21" s="24" customFormat="1" ht="65.099999999999994" hidden="1" customHeight="1">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="41" spans="1:21" s="24" customFormat="1" ht="65" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="23" t="s">
-        <v>412</v>
-      </c>
-      <c r="B41" s="18" t="e">
+        <v>411</v>
+      </c>
+      <c r="B41" s="18" t="str">
         <f>VLOOKUP($E41,Liste!$A$2:$C$32,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>Wirtschafts- und Sozialstatistik</v>
       </c>
       <c r="C41" s="14" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D41" s="14" t="s">
         <v>61</v>
       </c>
       <c r="E41" s="14" t="s">
-        <v>236</v>
+        <v>534</v>
       </c>
       <c r="F41" s="14" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="G41" s="14" t="s">
         <v>157</v>
@@ -6153,21 +6161,21 @@
         <v>157</v>
       </c>
       <c r="K41" s="14" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="L41" s="14" t="s">
         <v>158</v>
       </c>
       <c r="M41" s="14"/>
       <c r="N41" s="49" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="O41" s="14" t="s">
-        <v>569</v>
-      </c>
-      <c r="P41" s="49" t="e">
+        <v>568</v>
+      </c>
+      <c r="P41" s="49" t="str">
         <f>VLOOKUP($B41,Liste!$B$2:$C$32,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>https://www.statistik.tu-dortmund.de/iwus.html</v>
       </c>
       <c r="Q41" s="49"/>
       <c r="R41" s="14" t="s">
@@ -6177,28 +6185,28 @@
         <v>4</v>
       </c>
       <c r="T41" s="14" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="U41" s="14" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="42" spans="1:21" s="24" customFormat="1" ht="65.099999999999994" hidden="1" customHeight="1">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="42" spans="1:21" s="24" customFormat="1" ht="65" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="23" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B42" s="18" t="str">
         <f>VLOOKUP($E42,Liste!$A$2:$C$32,2,FALSE)</f>
         <v>Wirtschafts- und Sozialstatistik</v>
       </c>
       <c r="C42" s="14" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D42" s="14" t="s">
         <v>71</v>
       </c>
       <c r="E42" s="14" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="F42" s="14" t="s">
         <v>1</v>
@@ -6216,24 +6224,24 @@
         <v>0.58333333333333304</v>
       </c>
       <c r="K42" s="14" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="L42" s="14" t="s">
         <v>66</v>
       </c>
       <c r="M42" s="14"/>
       <c r="N42" s="49" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="O42" s="14" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="P42" s="49" t="str">
         <f>VLOOKUP($B42,Liste!$B$2:$C$32,2,FALSE)</f>
         <v>https://www.statistik.tu-dortmund.de/iwus.html</v>
       </c>
       <c r="Q42" s="49" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="R42" s="14" t="s">
         <v>92</v>
@@ -6242,28 +6250,28 @@
         <v>10</v>
       </c>
       <c r="T42" s="14" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="U42" s="14" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="43" spans="1:21" s="24" customFormat="1" ht="65.099999999999994" hidden="1" customHeight="1">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="43" spans="1:21" s="24" customFormat="1" ht="65" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="23" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B43" s="18" t="str">
         <f>VLOOKUP($E43,Liste!$A$2:$C$32,2,FALSE)</f>
         <v>Wirtschafts- und Sozialstatistik</v>
       </c>
       <c r="C43" s="14" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D43" s="14" t="s">
         <v>77</v>
       </c>
       <c r="E43" s="14" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="F43" s="14" t="s">
         <v>9</v>
@@ -6281,17 +6289,17 @@
         <v>0.75</v>
       </c>
       <c r="K43" s="14" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="L43" s="14" t="s">
         <v>66</v>
       </c>
       <c r="M43" s="14"/>
       <c r="N43" s="49" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="O43" s="14" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="P43" s="49" t="str">
         <f>VLOOKUP($B43,Liste!$B$2:$C$32,2,FALSE)</f>
@@ -6305,28 +6313,28 @@
         <v>10</v>
       </c>
       <c r="T43" s="14" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="U43" s="14" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="44" spans="1:21" s="24" customFormat="1" ht="65.099999999999994" hidden="1" customHeight="1">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="44" spans="1:21" s="24" customFormat="1" ht="65" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="23" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B44" s="18" t="str">
         <f>VLOOKUP($E44,Liste!$A$2:$C$32,2,FALSE)</f>
         <v>Wirtschafts- und Sozialstatistik</v>
       </c>
       <c r="C44" s="14" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D44" s="14" t="s">
         <v>71</v>
       </c>
       <c r="E44" s="14" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="F44" s="14" t="s">
         <v>1</v>
@@ -6344,24 +6352,24 @@
         <v>0.5</v>
       </c>
       <c r="K44" s="14" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="L44" s="14" t="s">
         <v>66</v>
       </c>
       <c r="M44" s="14"/>
       <c r="N44" s="49" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="O44" s="49" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="P44" s="49" t="str">
         <f>VLOOKUP($B44,Liste!$B$2:$C$32,2,FALSE)</f>
         <v>https://www.statistik.tu-dortmund.de/iwus.html</v>
       </c>
       <c r="Q44" s="49" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="R44" s="14" t="s">
         <v>92</v>
@@ -6370,28 +6378,28 @@
         <v>10</v>
       </c>
       <c r="T44" s="14" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="U44" s="14" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="45" spans="1:21" s="24" customFormat="1" ht="65.099999999999994" hidden="1" customHeight="1">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="45" spans="1:21" s="24" customFormat="1" ht="65" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="23" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B45" s="39" t="str">
         <f>VLOOKUP($E45,Liste!$A$2:$C$32,2,FALSE)</f>
         <v>Statistik mit Anwendungen im Bereich der Ingenieurwissenschaften</v>
       </c>
       <c r="C45" s="14" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D45" s="14" t="s">
         <v>77</v>
       </c>
       <c r="E45" s="14" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F45" s="14" t="s">
         <v>40</v>
@@ -6409,17 +6417,17 @@
         <v>190</v>
       </c>
       <c r="K45" s="14" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="L45" s="14" t="s">
         <v>75</v>
       </c>
       <c r="M45" s="14"/>
       <c r="N45" s="49" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="O45" s="14" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="P45" s="49" t="str">
         <f>VLOOKUP($B45,Liste!$B$2:$C$32,2,FALSE)</f>
@@ -6433,28 +6441,28 @@
         <v>9</v>
       </c>
       <c r="T45" s="14" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="U45" s="14" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="46" spans="1:21" s="24" customFormat="1" ht="65.099999999999994" hidden="1" customHeight="1">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="46" spans="1:21" s="24" customFormat="1" ht="65" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="23" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B46" s="18" t="str">
         <f>VLOOKUP($E46,Liste!$A$2:$C$32,2,FALSE)</f>
         <v>Statistik mit Anwendungen im Bereich der Ingenieurwissenschaften</v>
       </c>
       <c r="C46" s="14" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D46" s="14" t="s">
         <v>71</v>
       </c>
       <c r="E46" s="14" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F46" s="14" t="s">
         <v>37</v>
@@ -6472,17 +6480,17 @@
         <v>0.5</v>
       </c>
       <c r="K46" s="14" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="L46" s="14" t="s">
         <v>75</v>
       </c>
       <c r="M46" s="14"/>
       <c r="N46" s="49" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="O46" s="14" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="P46" s="49" t="str">
         <f>VLOOKUP($B46,Liste!$B$2:$C$32,2,FALSE)</f>
@@ -6496,13 +6504,13 @@
         <v>9</v>
       </c>
       <c r="T46" s="14" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="U46" s="14" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="47" spans="1:21" s="24" customFormat="1" ht="65.099999999999994" customHeight="1">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="47" spans="1:21" s="24" customFormat="1" ht="65" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="25" t="s">
         <v>87</v>
       </c>
@@ -6535,14 +6543,14 @@
         <v>0.5</v>
       </c>
       <c r="K47" s="27" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="L47" s="27" t="s">
         <v>66</v>
       </c>
       <c r="M47" s="28"/>
       <c r="N47" s="15" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="O47" s="29">
         <v>45</v>
@@ -6561,31 +6569,31 @@
         <v>3</v>
       </c>
       <c r="T47" s="30" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="U47" s="30" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="48" spans="1:21" s="24" customFormat="1" ht="65.099999999999994" hidden="1" customHeight="1">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="48" spans="1:21" s="24" customFormat="1" ht="65" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="23" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B48" s="18" t="str">
         <f>VLOOKUP($E48,Liste!$A$2:$C$32,2,FALSE)</f>
         <v>Statistik mit Anwendungen im Bereich der Ingenieurwissenschaften</v>
       </c>
       <c r="C48" s="14" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D48" s="14" t="s">
         <v>71</v>
       </c>
       <c r="E48" s="14" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F48" s="14" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G48" s="14" t="s">
         <v>107</v>
@@ -6600,24 +6608,24 @@
         <v>0.5</v>
       </c>
       <c r="K48" s="14" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="L48" s="14" t="s">
         <v>75</v>
       </c>
       <c r="M48" s="14"/>
       <c r="N48" s="49" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="O48" s="14" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="P48" s="49" t="str">
         <f>VLOOKUP($B48,Liste!$B$2:$C$32,2,FALSE)</f>
         <v>https://www.statistik.tu-dortmund.de/ingenieurswissenschaften.html</v>
       </c>
       <c r="Q48" s="49" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R48" s="14" t="s">
         <v>92</v>
@@ -6626,31 +6634,31 @@
         <v>9</v>
       </c>
       <c r="T48" s="14" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="U48" s="14" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="49" spans="1:21" s="24" customFormat="1" ht="65.099999999999994" hidden="1" customHeight="1">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="49" spans="1:21" s="24" customFormat="1" ht="65" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="23" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B49" s="18" t="str">
         <f>VLOOKUP($E49,Liste!$A$2:$C$32,2,FALSE)</f>
         <v>Statistik mit Anwendungen im Bereich der Ingenieurwissenschaften</v>
       </c>
       <c r="C49" s="14" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D49" s="14" t="s">
         <v>77</v>
       </c>
       <c r="E49" s="14" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F49" s="14" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="G49" s="14" t="s">
         <v>63</v>
@@ -6665,24 +6673,24 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="K49" s="14" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="L49" s="14" t="s">
         <v>75</v>
       </c>
       <c r="M49" s="14"/>
       <c r="N49" s="49" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="O49" s="14" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="P49" s="49" t="str">
         <f>VLOOKUP($B49,Liste!$B$2:$C$32,2,FALSE)</f>
         <v>https://www.statistik.tu-dortmund.de/ingenieurswissenschaften.html</v>
       </c>
       <c r="Q49" s="49" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R49" s="14" t="s">
         <v>92</v>
@@ -6691,22 +6699,22 @@
         <v>9</v>
       </c>
       <c r="T49" s="14" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="U49" s="14" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="50" spans="1:21" ht="65.099999999999994" hidden="1" customHeight="1">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="50" spans="1:21" ht="65" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="25" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B50" s="19" t="str">
         <f>VLOOKUP($E50,Liste!$A$2:$C$32,2,FALSE)</f>
         <v>Ökonometrie</v>
       </c>
       <c r="C50" s="15" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D50" s="15" t="s">
         <v>99</v>
@@ -6715,7 +6723,7 @@
         <v>72</v>
       </c>
       <c r="F50" s="15" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="G50" s="15" t="s">
         <v>82</v>
@@ -6730,24 +6738,24 @@
         <v>0.75</v>
       </c>
       <c r="K50" s="15" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="L50" s="15" t="s">
         <v>66</v>
       </c>
       <c r="M50" s="15"/>
       <c r="N50" s="27" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="O50" s="15" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="P50" s="27" t="str">
         <f>VLOOKUP($B50,Liste!$B$2:$C$32,2,FALSE)</f>
         <v>https://www.oek.wiwi.uni-due.de/</v>
       </c>
       <c r="Q50" s="27" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="R50" s="15" t="s">
         <v>68</v>
@@ -6756,13 +6764,13 @@
         <v>6</v>
       </c>
       <c r="T50" s="15" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="U50" s="15" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="51" spans="1:21" ht="65.099999999999994" hidden="1" customHeight="1">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="51" spans="1:21" ht="65" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="25" t="s">
         <v>69</v>
       </c>
@@ -6791,16 +6799,16 @@
       <c r="I51" s="26"/>
       <c r="J51" s="26"/>
       <c r="K51" s="27" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="L51" s="27" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="M51" s="28" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="N51" s="27" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="O51" s="29">
         <v>64</v>
@@ -6819,13 +6827,13 @@
         <v>3</v>
       </c>
       <c r="T51" s="30" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="U51" s="30" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="52" spans="1:21" ht="65.099999999999994" hidden="1" customHeight="1">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="52" spans="1:21" ht="65" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="25" t="s">
         <v>69</v>
       </c>
@@ -6854,16 +6862,16 @@
       <c r="I52" s="26"/>
       <c r="J52" s="26"/>
       <c r="K52" s="27" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="L52" s="27" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="M52" s="28" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="N52" s="27" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="O52" s="29">
         <v>64</v>
@@ -6882,13 +6890,13 @@
         <v>3</v>
       </c>
       <c r="T52" s="30" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="U52" s="30" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="53" spans="1:21" ht="65.099999999999994" customHeight="1">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="53" spans="1:21" ht="65" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="25" t="s">
         <v>87</v>
       </c>
@@ -6921,14 +6929,14 @@
         <v>0.41666666666666702</v>
       </c>
       <c r="K53" s="27" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="L53" s="27" t="s">
         <v>66</v>
       </c>
       <c r="M53" s="28"/>
       <c r="N53" s="15" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="O53" s="29">
         <v>45</v>
@@ -6947,13 +6955,13 @@
         <v>3</v>
       </c>
       <c r="T53" s="30" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="U53" s="30" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="54" spans="1:21" ht="65.099999999999994" customHeight="1">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="54" spans="1:21" ht="65" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="25" t="s">
         <v>165</v>
       </c>
@@ -6989,7 +6997,7 @@
         <v>167</v>
       </c>
       <c r="N54" s="15" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="O54" s="29">
         <v>68</v>
@@ -7008,28 +7016,28 @@
         <v>6</v>
       </c>
       <c r="T54" s="30" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="U54" s="30" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="55" spans="1:21" ht="65.099999999999994" customHeight="1">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="55" spans="1:21" ht="65" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="31" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B55" s="20" t="str">
         <f>VLOOKUP($E55,Liste!$A$2:$C$32,2,FALSE)</f>
         <v> Quantitative Analyse (Statistik/Ökonometrie)</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D55" s="16" t="s">
         <v>71</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F55" s="16" t="s">
         <v>4</v>
@@ -7038,7 +7046,7 @@
         <v>63</v>
       </c>
       <c r="H55" s="16" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="I55" s="32">
         <v>0.41666666666666702</v>
@@ -7047,16 +7055,16 @@
         <v>0.5</v>
       </c>
       <c r="K55" s="16" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="L55" s="16" t="s">
         <v>66</v>
       </c>
       <c r="M55" s="33" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="N55" s="16" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="O55" s="34">
         <v>22</v>
@@ -7066,7 +7074,7 @@
         <v>https://www.wiwi.ruhr-uni-bochum.de/statoek/index.html.de</v>
       </c>
       <c r="Q55" s="16" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="R55" s="16" t="s">
         <v>68</v>
@@ -7075,13 +7083,13 @@
         <v>10</v>
       </c>
       <c r="T55" s="16" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="U55" s="16" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="56" spans="1:21" ht="65.099999999999994" hidden="1" customHeight="1">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="56" spans="1:21" ht="65" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="25" t="s">
         <v>137</v>
       </c>
@@ -7140,13 +7148,13 @@
         <v>3</v>
       </c>
       <c r="T56" s="30" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="U56" s="30" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="57" spans="1:21" ht="65.099999999999994" hidden="1" customHeight="1">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="57" spans="1:21" ht="65" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="25" t="s">
         <v>137</v>
       </c>
@@ -7205,37 +7213,37 @@
         <v>3</v>
       </c>
       <c r="T57" s="30" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="U57" s="30" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="58" spans="1:21" ht="65.099999999999994" customHeight="1">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="58" spans="1:21" ht="65" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="31" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B58" s="20" t="str">
         <f>VLOOKUP($E58,Liste!$A$2:$C$32,2,FALSE)</f>
         <v> Quantitative Analyse (Statistik/Ökonometrie)</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D58" s="16" t="s">
         <v>77</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F58" s="16" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="G58" s="16" t="s">
         <v>63</v>
       </c>
       <c r="H58" s="16" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="I58" s="32">
         <v>0.33333333333333298</v>
@@ -7244,16 +7252,16 @@
         <v>0.41666666666666702</v>
       </c>
       <c r="K58" s="16" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="L58" s="16" t="s">
         <v>66</v>
       </c>
       <c r="M58" s="33" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="N58" s="16" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="O58" s="34">
         <v>22</v>
@@ -7263,7 +7271,7 @@
         <v>https://www.wiwi.ruhr-uni-bochum.de/statoek/index.html.de</v>
       </c>
       <c r="Q58" s="16" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="R58" s="16" t="s">
         <v>68</v>
@@ -7272,22 +7280,22 @@
         <v>10</v>
       </c>
       <c r="T58" s="16" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="U58" s="16" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="59" spans="1:21" ht="65.099999999999994" customHeight="1">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="59" spans="1:21" ht="65" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="23" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B59" s="18" t="str">
         <f>VLOOKUP($E59,Liste!$A$2:$C$32,2,FALSE)</f>
         <v>Professur Finance</v>
       </c>
       <c r="C59" s="14" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D59" s="14" t="s">
         <v>99</v>
@@ -7311,26 +7319,26 @@
         <v>0.5</v>
       </c>
       <c r="K59" s="14" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="L59" s="14" t="s">
         <v>66</v>
       </c>
       <c r="M59" s="14" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="N59" s="23" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="O59" s="54" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="P59" s="49" t="str">
         <f>VLOOKUP($B59,Liste!$B$2:$C$32,2,FALSE)</f>
         <v>https://finance.wiwi.tu-dortmund.de/</v>
       </c>
       <c r="Q59" s="14" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="R59" s="14" t="s">
         <v>68</v>
@@ -7339,22 +7347,22 @@
         <v>7.5</v>
       </c>
       <c r="T59" s="14" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="U59" s="14" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="60" spans="1:21" ht="65.099999999999994" customHeight="1">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="60" spans="1:21" ht="65" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="23" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B60" s="18" t="str">
         <f>VLOOKUP($E60,Liste!$A$2:$C$32,2,FALSE)</f>
         <v>Professur Finance</v>
       </c>
       <c r="C60" s="14" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D60" s="14" t="s">
         <v>99</v>
@@ -7378,26 +7386,26 @@
         <v>0.41666666666666702</v>
       </c>
       <c r="K60" s="14" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="L60" s="14" t="s">
         <v>66</v>
       </c>
       <c r="M60" s="14" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="N60" s="23" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="O60" s="14" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="P60" s="49" t="str">
         <f>VLOOKUP($B60,Liste!$B$2:$C$32,2,FALSE)</f>
         <v>https://finance.wiwi.tu-dortmund.de/</v>
       </c>
       <c r="Q60" s="14" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="R60" s="14" t="s">
         <v>68</v>
@@ -7406,15 +7414,15 @@
         <v>7.5</v>
       </c>
       <c r="T60" s="14" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="U60" s="14" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="61" spans="1:21" ht="65.099999999999994" hidden="1" customHeight="1">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="61" spans="1:21" ht="65" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="25" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B61" s="19" t="str">
         <f>VLOOKUP($E61,Liste!$A$2:$C$32,2,FALSE)</f>
@@ -7471,15 +7479,15 @@
         <v>3</v>
       </c>
       <c r="T61" s="30" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="U61" s="30" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="62" spans="1:21" ht="65.099999999999994" hidden="1" customHeight="1">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="62" spans="1:21" ht="65" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="25" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B62" s="19" t="str">
         <f>VLOOKUP($E62,Liste!$A$2:$C$32,2,FALSE)</f>
@@ -7536,13 +7544,13 @@
         <v>3</v>
       </c>
       <c r="T62" s="30" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="U62" s="30" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="63" spans="1:21" ht="65.099999999999994" customHeight="1">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="63" spans="1:21" ht="65" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="25" t="s">
         <v>115</v>
       </c>
@@ -7584,7 +7592,7 @@
         <v>118</v>
       </c>
       <c r="N63" s="15" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="O63" s="29">
         <v>56</v>
@@ -7603,13 +7611,13 @@
         <v>3</v>
       </c>
       <c r="T63" s="30" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="U63" s="30" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="64" spans="1:21" ht="65.099999999999994" customHeight="1">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="64" spans="1:21" ht="65" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="25" t="s">
         <v>115</v>
       </c>
@@ -7649,7 +7657,7 @@
       </c>
       <c r="M64" s="28"/>
       <c r="N64" s="15" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="O64" s="29">
         <v>56</v>
@@ -7668,13 +7676,13 @@
         <v>3</v>
       </c>
       <c r="T64" s="30" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="U64" s="30" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="65" spans="1:21" ht="65.099999999999994" customHeight="1">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="65" spans="1:21" ht="65" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" s="25" t="s">
         <v>121</v>
       </c>
@@ -7716,7 +7724,7 @@
         <v>122</v>
       </c>
       <c r="N65" s="15" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="O65" s="29">
         <v>57</v>
@@ -7735,13 +7743,13 @@
         <v>3</v>
       </c>
       <c r="T65" s="30" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="U65" s="30" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="66" spans="1:21" ht="65.099999999999994" hidden="1" customHeight="1">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="66" spans="1:21" ht="65" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" s="25" t="s">
         <v>155</v>
       </c>
@@ -7781,7 +7789,7 @@
       </c>
       <c r="M66" s="28"/>
       <c r="N66" s="27" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="O66" s="29">
         <v>47</v>
@@ -7800,13 +7808,13 @@
         <v>6</v>
       </c>
       <c r="T66" s="30" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="U66" s="30" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="67" spans="1:21" ht="65.099999999999994" hidden="1" customHeight="1">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="67" spans="1:21" ht="65" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67" s="25" t="s">
         <v>179</v>
       </c>
@@ -7839,14 +7847,14 @@
         <v>0.58333333333333304</v>
       </c>
       <c r="K67" s="27" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="L67" s="27" t="s">
         <v>75</v>
       </c>
       <c r="M67" s="28"/>
       <c r="N67" s="27" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="O67" s="29">
         <v>50</v>
@@ -7865,13 +7873,13 @@
         <v>6</v>
       </c>
       <c r="T67" s="30" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="U67" s="30" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="68" spans="1:21" ht="65.099999999999994" customHeight="1">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="68" spans="1:21" ht="65" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" s="25" t="s">
         <v>121</v>
       </c>
@@ -7911,7 +7919,7 @@
       </c>
       <c r="M68" s="28"/>
       <c r="N68" s="15" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="O68" s="29">
         <v>57</v>
@@ -7930,13 +7938,13 @@
         <v>3</v>
       </c>
       <c r="T68" s="30" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="U68" s="30" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="69" spans="1:21" ht="65.099999999999994" customHeight="1">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="69" spans="1:21" ht="65" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A69" s="25" t="s">
         <v>124</v>
       </c>
@@ -7976,7 +7984,7 @@
       </c>
       <c r="M69" s="28"/>
       <c r="N69" s="15" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="O69" s="29">
         <v>58</v>
@@ -7995,13 +8003,13 @@
         <v>3</v>
       </c>
       <c r="T69" s="30" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="U69" s="30" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="70" spans="1:21" ht="65.099999999999994" customHeight="1">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="70" spans="1:21" ht="65" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A70" s="25" t="s">
         <v>124</v>
       </c>
@@ -8041,7 +8049,7 @@
       </c>
       <c r="M70" s="28"/>
       <c r="N70" s="15" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="O70" s="29">
         <v>58</v>
@@ -8060,31 +8068,31 @@
         <v>3</v>
       </c>
       <c r="T70" s="30" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="U70" s="30" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="71" spans="1:21" ht="65.099999999999994" customHeight="1">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="71" spans="1:21" ht="65" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A71" s="23" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B71" s="18" t="str">
         <f>VLOOKUP($E71,Liste!$A$2:$C$32,2,FALSE)</f>
         <v>Lehrstuhl für Künstliche Intelligenz</v>
       </c>
       <c r="C71" s="14" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D71" s="14" t="s">
         <v>71</v>
       </c>
       <c r="E71" s="14" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F71" s="14" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="G71" s="14" t="s">
         <v>63</v>
@@ -8099,37 +8107,37 @@
         <v>0.5</v>
       </c>
       <c r="K71" s="14" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="L71" s="14" t="s">
         <v>66</v>
       </c>
       <c r="M71" s="14"/>
       <c r="N71" s="23" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="O71" s="14" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="P71" s="23" t="str">
         <f>VLOOKUP($B71,Liste!$B$2:$C$32,2,FALSE)</f>
         <v>https://www-ai.cs.tu-dortmund.de/index.html</v>
       </c>
       <c r="Q71" s="23" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="R71" s="14" t="s">
         <v>92</v>
       </c>
       <c r="S71" s="14"/>
       <c r="T71" s="14" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="U71" s="14" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="72" spans="1:21" ht="65.099999999999994" hidden="1" customHeight="1">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="72" spans="1:21" ht="65" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="23" t="s">
         <v>184</v>
       </c>
@@ -8162,7 +8170,7 @@
         <v>190</v>
       </c>
       <c r="K72" s="14" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="L72" s="14" t="s">
         <v>75</v>
@@ -8172,14 +8180,14 @@
         <v>191</v>
       </c>
       <c r="O72" s="14" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="P72" s="49" t="str">
         <f>VLOOKUP($B72,Liste!$B$2:$C$32,2,FALSE)</f>
         <v>https://www.wiwi2.tu-dortmund.de/wiwi/ae/de/lehrstuhl/</v>
       </c>
       <c r="Q72" s="49" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="R72" s="14" t="s">
         <v>68</v>
@@ -8188,13 +8196,13 @@
         <v>7.5</v>
       </c>
       <c r="T72" s="14" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="U72" s="14" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="73" spans="1:21" ht="65.099999999999994" hidden="1" customHeight="1">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="73" spans="1:21" ht="65" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" s="23" t="s">
         <v>199</v>
       </c>
@@ -8227,7 +8235,7 @@
         <v>203</v>
       </c>
       <c r="K73" s="14" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="L73" s="14" t="s">
         <v>75</v>
@@ -8237,7 +8245,7 @@
         <v>204</v>
       </c>
       <c r="O73" s="14" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="P73" s="49" t="str">
         <f>VLOOKUP($B73,Liste!$B$2:$C$32,2,FALSE)</f>
@@ -8253,13 +8261,13 @@
         <v>7.5</v>
       </c>
       <c r="T73" s="14" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="U73" s="14" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="74" spans="1:21" ht="65.099999999999994" hidden="1" customHeight="1">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="74" spans="1:21" ht="65" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A74" s="23" t="s">
         <v>199</v>
       </c>
@@ -8292,7 +8300,7 @@
         <v>189</v>
       </c>
       <c r="K74" s="14" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="L74" s="14" t="s">
         <v>75</v>
@@ -8302,7 +8310,7 @@
         <v>204</v>
       </c>
       <c r="O74" s="14" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="P74" s="49" t="str">
         <f>VLOOKUP($B74,Liste!$B$2:$C$32,2,FALSE)</f>
@@ -8318,31 +8326,31 @@
         <v>7.5</v>
       </c>
       <c r="T74" s="14" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="U74" s="14" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="75" spans="1:21" ht="65.099999999999994" customHeight="1">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="75" spans="1:21" ht="65" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" s="23" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B75" s="18" t="str">
         <f>VLOOKUP($E75,Liste!$A$2:$C$32,2,FALSE)</f>
         <v>Lehrstuhl für Künstliche Intelligenz</v>
       </c>
       <c r="C75" s="14" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D75" s="14" t="s">
         <v>77</v>
       </c>
       <c r="E75" s="14" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F75" s="14" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="G75" s="14" t="s">
         <v>107</v>
@@ -8357,37 +8365,37 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="K75" s="14" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="L75" s="14" t="s">
         <v>66</v>
       </c>
       <c r="M75" s="14"/>
       <c r="N75" s="23" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="O75" s="14" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="P75" s="49" t="str">
         <f>VLOOKUP($B75,Liste!$B$2:$C$32,2,FALSE)</f>
         <v>https://www-ai.cs.tu-dortmund.de/index.html</v>
       </c>
       <c r="Q75" s="23" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="R75" s="14" t="s">
         <v>92</v>
       </c>
       <c r="S75" s="14"/>
       <c r="T75" s="14" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="U75" s="14" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="76" spans="1:21" ht="65.099999999999994" hidden="1" customHeight="1">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="76" spans="1:21" ht="65" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A76" s="25" t="s">
         <v>94</v>
       </c>
@@ -8402,19 +8410,19 @@
         <v>71</v>
       </c>
       <c r="E76" s="15" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F76" s="15" t="s">
         <v>29</v>
       </c>
       <c r="G76" s="15"/>
       <c r="H76" s="15" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="I76" s="26"/>
       <c r="J76" s="26"/>
       <c r="K76" s="27" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="L76" s="27" t="s">
         <v>75</v>
@@ -8424,7 +8432,7 @@
         <v>96</v>
       </c>
       <c r="O76" s="29" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="P76" s="27" t="str">
         <f>VLOOKUP($B76,Liste!$B$2:$C$32,2,FALSE)</f>
@@ -8440,13 +8448,13 @@
         <v>3</v>
       </c>
       <c r="T76" s="30" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="U76" s="30" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="77" spans="1:21" ht="65.099999999999994" hidden="1" customHeight="1">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="77" spans="1:21" ht="65" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A77" s="25" t="s">
         <v>94</v>
       </c>
@@ -8461,19 +8469,19 @@
         <v>77</v>
       </c>
       <c r="E77" s="15" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F77" s="15" t="s">
         <v>97</v>
       </c>
       <c r="G77" s="15"/>
       <c r="H77" s="15" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="I77" s="26"/>
       <c r="J77" s="26"/>
       <c r="K77" s="27" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="L77" s="27" t="s">
         <v>75</v>
@@ -8483,7 +8491,7 @@
         <v>96</v>
       </c>
       <c r="O77" s="29" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="P77" s="27" t="str">
         <f>VLOOKUP($B77,Liste!$B$2:$C$32,2,FALSE)</f>
@@ -8499,13 +8507,13 @@
         <v>3</v>
       </c>
       <c r="T77" s="30" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="U77" s="30" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="78" spans="1:21" ht="65.099999999999994" hidden="1" customHeight="1">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="78" spans="1:21" ht="65" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A78" s="25" t="s">
         <v>79</v>
       </c>
@@ -8545,7 +8553,7 @@
       </c>
       <c r="M78" s="28"/>
       <c r="N78" s="27" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="O78" s="29">
         <v>66</v>
@@ -8564,13 +8572,13 @@
         <v>3</v>
       </c>
       <c r="T78" s="30" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="U78" s="30" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="79" spans="1:21" ht="65.099999999999994" hidden="1" customHeight="1">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="79" spans="1:21" ht="65" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A79" s="25" t="s">
         <v>79</v>
       </c>
@@ -8610,7 +8618,7 @@
       </c>
       <c r="M79" s="28"/>
       <c r="N79" s="27" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="O79" s="29">
         <v>66</v>
@@ -8629,31 +8637,31 @@
         <v>3</v>
       </c>
       <c r="T79" s="30" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="U79" s="30" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="80" spans="1:21" ht="65.099999999999994" customHeight="1">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="80" spans="1:21" ht="65" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" s="23" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B80" s="18" t="str">
         <f>VLOOKUP($E80,Liste!$A$2:$C$32,2,FALSE)</f>
         <v> Lehrstuhl für Wirtschaftspolitik </v>
       </c>
       <c r="C80" s="14" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D80" s="14" t="s">
         <v>71</v>
       </c>
       <c r="E80" s="14" t="s">
+        <v>257</v>
+      </c>
+      <c r="F80" s="14" t="s">
         <v>258</v>
-      </c>
-      <c r="F80" s="14" t="s">
-        <v>259</v>
       </c>
       <c r="G80" s="14" t="s">
         <v>63</v>
@@ -8668,24 +8676,24 @@
         <v>0.75</v>
       </c>
       <c r="K80" s="14" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="L80" s="14" t="s">
         <v>66</v>
       </c>
       <c r="M80" s="14"/>
       <c r="N80" s="23" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="O80" s="14" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="P80" s="49" t="str">
         <f>VLOOKUP($B80,Liste!$B$2:$C$32,2,FALSE)</f>
         <v>https://www.wiwi2.tu-dortmund.de/wiwi/wp/de/lehrstuhl/index.html</v>
       </c>
       <c r="Q80" s="14" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="R80" s="14" t="s">
         <v>145</v>
@@ -8694,31 +8702,31 @@
         <v>7.5</v>
       </c>
       <c r="T80" s="14" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="U80" s="14" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="81" spans="1:21" ht="65.099999999999994" customHeight="1">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="81" spans="1:21" ht="65" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A81" s="23" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B81" s="18" t="str">
         <f>VLOOKUP($E81,Liste!$A$2:$C$32,2,FALSE)</f>
         <v> Lehrstuhl für Wirtschaftspolitik </v>
       </c>
       <c r="C81" s="14" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D81" s="14" t="s">
         <v>77</v>
       </c>
       <c r="E81" s="14" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F81" s="14" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G81" s="14" t="s">
         <v>120</v>
@@ -8733,24 +8741,24 @@
         <v>0.75</v>
       </c>
       <c r="K81" s="14" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="L81" s="14" t="s">
         <v>66</v>
       </c>
       <c r="M81" s="14"/>
       <c r="N81" s="23" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="O81" s="14" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="P81" s="49" t="str">
         <f>VLOOKUP($B81,Liste!$B$2:$C$32,2,FALSE)</f>
         <v>https://www.wiwi2.tu-dortmund.de/wiwi/wp/de/lehrstuhl/index.html</v>
       </c>
       <c r="Q81" s="14" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="R81" s="14" t="s">
         <v>145</v>
@@ -8759,63 +8767,63 @@
         <v>7.5</v>
       </c>
       <c r="T81" s="14" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="U81" s="14" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="82" spans="1:21" ht="65.099999999999994" hidden="1" customHeight="1">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="82" spans="1:21" ht="65" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A82" s="23" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B82" s="18" t="str">
         <f>VLOOKUP($E82,Liste!$A$2:$C$32,2,FALSE)</f>
         <v>Ökonometrie und Statistik</v>
       </c>
       <c r="C82" s="14" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D82" s="14" t="s">
         <v>71</v>
       </c>
       <c r="E82" s="14" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="F82" s="14" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="G82" s="14"/>
       <c r="H82" s="14" t="s">
         <v>188</v>
       </c>
       <c r="I82" s="14" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="J82" s="14" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="K82" s="14" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="L82" s="14" t="s">
         <v>75</v>
       </c>
       <c r="M82" s="14" t="s">
+        <v>284</v>
+      </c>
+      <c r="N82" s="49" t="s">
         <v>285</v>
       </c>
-      <c r="N82" s="49" t="s">
-        <v>286</v>
-      </c>
       <c r="O82" s="14" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="P82" s="49" t="str">
         <f>VLOOKUP($B82,Liste!$B$2:$C$32,2,FALSE)</f>
         <v>https://www.statistik.tu-dortmund.de/oekonometrie.html</v>
       </c>
       <c r="Q82" s="49" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="R82" s="14" t="s">
         <v>68</v>
@@ -8824,28 +8832,28 @@
         <v>9</v>
       </c>
       <c r="T82" s="14" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="U82" s="14" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="83" spans="1:21" ht="65.099999999999994" customHeight="1">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="83" spans="1:21" ht="65" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A83" s="31" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B83" s="20" t="str">
         <f>VLOOKUP($E83,Liste!$A$2:$C$32,2,FALSE)</f>
         <v> Quantitative Analyse (Statistik/Ökonometrie)</v>
       </c>
       <c r="C83" s="16" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D83" s="16" t="s">
         <v>71</v>
       </c>
       <c r="E83" s="16" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F83" s="16" t="s">
         <v>5</v>
@@ -8854,7 +8862,7 @@
         <v>120</v>
       </c>
       <c r="H83" s="16" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="I83" s="32">
         <v>0.33333333333333298</v>
@@ -8863,16 +8871,16 @@
         <v>0.41666666666666702</v>
       </c>
       <c r="K83" s="16" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="L83" s="16" t="s">
         <v>66</v>
       </c>
       <c r="M83" s="33" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="N83" s="16" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="O83" s="34">
         <v>24</v>
@@ -8882,7 +8890,7 @@
         <v>https://www.wiwi.ruhr-uni-bochum.de/statoek/index.html.de</v>
       </c>
       <c r="Q83" s="16" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="R83" s="16" t="s">
         <v>68</v>
@@ -8891,28 +8899,28 @@
         <v>10</v>
       </c>
       <c r="T83" s="16" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="U83" s="16" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="84" spans="1:21" ht="65.099999999999994" customHeight="1">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="84" spans="1:21" ht="65" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A84" s="31" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B84" s="20" t="str">
         <f>VLOOKUP($E84,Liste!$A$2:$C$32,2,FALSE)</f>
         <v> Quantitative Analyse (Statistik/Ökonometrie)</v>
       </c>
       <c r="C84" s="16" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D84" s="16" t="s">
         <v>77</v>
       </c>
       <c r="E84" s="16" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F84" s="16" t="s">
         <v>7</v>
@@ -8921,21 +8929,21 @@
         <v>120</v>
       </c>
       <c r="H84" s="16" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="I84" s="32"/>
       <c r="J84" s="32"/>
       <c r="K84" s="16" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="L84" s="16" t="s">
         <v>66</v>
       </c>
       <c r="M84" s="33" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="N84" s="16" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="O84" s="34">
         <v>24</v>
@@ -8945,7 +8953,7 @@
         <v>https://www.wiwi.ruhr-uni-bochum.de/statoek/index.html.de</v>
       </c>
       <c r="Q84" s="16" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="R84" s="16" t="s">
         <v>68</v>
@@ -8953,12 +8961,12 @@
       <c r="S84" s="34"/>
       <c r="T84" s="16"/>
       <c r="U84" s="16" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="85" spans="1:21" ht="65.099999999999994" hidden="1" customHeight="1">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="85" spans="1:21" ht="65" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A85" s="23" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B85" s="18" t="str">
         <f>VLOOKUP($E85,Liste!$A$2:$C$32,2,FALSE)</f>
@@ -8974,7 +8982,7 @@
         <v>213</v>
       </c>
       <c r="F85" s="14" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G85" s="14" t="s">
         <v>63</v>
@@ -8989,24 +8997,24 @@
         <v>203</v>
       </c>
       <c r="K85" s="14" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="L85" s="14" t="s">
         <v>75</v>
       </c>
       <c r="M85" s="14"/>
       <c r="N85" s="49" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="O85" s="14" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="P85" s="49" t="str">
         <f>VLOOKUP($B85,Liste!$B$2:$C$32,2,FALSE)</f>
         <v>https://finance.wiwi.tu-dortmund.de/</v>
       </c>
       <c r="Q85" s="49" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="R85" s="14" t="s">
         <v>68</v>
@@ -9015,15 +9023,15 @@
         <v>4</v>
       </c>
       <c r="T85" s="14" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="U85" s="14" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="86" spans="1:21" ht="65.099999999999994" hidden="1" customHeight="1">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="86" spans="1:21" ht="65" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A86" s="23" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B86" s="18" t="str">
         <f>VLOOKUP($E86,Liste!$A$2:$C$32,2,FALSE)</f>
@@ -9054,19 +9062,19 @@
         <v>203</v>
       </c>
       <c r="K86" s="14" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="L86" s="14" t="s">
         <v>75</v>
       </c>
       <c r="M86" s="14" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="N86" s="49" t="s">
         <v>216</v>
       </c>
       <c r="O86" s="14" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="P86" s="49" t="str">
         <f>VLOOKUP($B86,Liste!$B$2:$C$32,2,FALSE)</f>
@@ -9082,22 +9090,22 @@
         <v>3.5</v>
       </c>
       <c r="T86" s="14" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="U86" s="14" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="87" spans="1:21" ht="65.099999999999994" hidden="1" customHeight="1">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="87" spans="1:21" ht="65" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A87" s="23" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B87" s="18" t="str">
         <f>VLOOKUP($E87,Liste!$A$2:$C$32,2,FALSE)</f>
         <v>Professur Finance</v>
       </c>
       <c r="C87" s="14" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D87" s="14" t="s">
         <v>180</v>
@@ -9106,7 +9114,7 @@
         <v>213</v>
       </c>
       <c r="F87" s="14" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="G87" s="14" t="s">
         <v>82</v>
@@ -9124,23 +9132,23 @@
         <v>83</v>
       </c>
       <c r="L87" s="14" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="M87" s="14" t="s">
+        <v>263</v>
+      </c>
+      <c r="N87" s="49" t="s">
         <v>264</v>
       </c>
-      <c r="N87" s="49" t="s">
-        <v>265</v>
-      </c>
       <c r="O87" s="14" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="P87" s="49" t="str">
         <f>VLOOKUP($B87,Liste!$B$2:$C$32,2,FALSE)</f>
         <v>https://finance.wiwi.tu-dortmund.de/</v>
       </c>
       <c r="Q87" s="49" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="R87" s="14" t="s">
         <v>68</v>
@@ -9149,15 +9157,15 @@
         <v>4</v>
       </c>
       <c r="T87" s="14" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="U87" s="14" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="88" spans="1:21" ht="65.099999999999994" customHeight="1">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="88" spans="1:21" ht="65" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A88" s="25" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B88" s="19" t="str">
         <f>VLOOKUP($E88,Liste!$A$2:$C$32,2,FALSE)</f>
@@ -9173,7 +9181,7 @@
         <v>72</v>
       </c>
       <c r="F88" s="15" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="G88" s="15" t="s">
         <v>82</v>
@@ -9188,16 +9196,16 @@
         <v>0.5</v>
       </c>
       <c r="K88" s="27" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="L88" s="27" t="s">
         <v>66</v>
       </c>
       <c r="M88" s="28" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="N88" s="15" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="O88" s="29">
         <v>6</v>
@@ -9207,7 +9215,7 @@
         <v>https://www.oek.wiwi.uni-due.de/</v>
       </c>
       <c r="Q88" s="15" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="R88" s="28" t="s">
         <v>68</v>
@@ -9216,15 +9224,15 @@
         <v>10</v>
       </c>
       <c r="T88" s="30" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="U88" s="30" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="89" spans="1:21" ht="65.099999999999994" customHeight="1">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="89" spans="1:21" ht="65" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A89" s="25" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B89" s="19" t="str">
         <f>VLOOKUP($E89,Liste!$A$2:$C$32,2,FALSE)</f>
@@ -9240,7 +9248,7 @@
         <v>72</v>
       </c>
       <c r="F89" s="15" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="G89" s="15" t="s">
         <v>82</v>
@@ -9255,14 +9263,14 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="K89" s="27" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="L89" s="27" t="s">
         <v>66</v>
       </c>
       <c r="M89" s="28"/>
       <c r="N89" s="15" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="O89" s="29">
         <v>6</v>
@@ -9272,7 +9280,7 @@
         <v>https://www.oek.wiwi.uni-due.de/</v>
       </c>
       <c r="Q89" s="15" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="R89" s="28" t="s">
         <v>68</v>
@@ -9281,13 +9289,13 @@
         <v>10</v>
       </c>
       <c r="T89" s="30" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="U89" s="30" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="90" spans="1:21" ht="65.099999999999994" hidden="1" customHeight="1">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="90" spans="1:21" ht="65" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A90" s="25" t="s">
         <v>169</v>
       </c>
@@ -9323,7 +9331,7 @@
         <v>171</v>
       </c>
       <c r="N90" s="27" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="O90" s="29">
         <v>48</v>
@@ -9342,22 +9350,22 @@
         <v>6</v>
       </c>
       <c r="T90" s="30" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="U90" s="30" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="91" spans="1:21" ht="65.099999999999994" hidden="1" customHeight="1">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="91" spans="1:21" ht="65" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A91" s="25" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B91" s="19" t="str">
         <f>VLOOKUP($E91,Liste!$A$2:$C$32,2,FALSE)</f>
         <v>Lehrstuhl für VWL, insb. Finanzwissenschaften</v>
       </c>
       <c r="C91" s="15" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D91" s="15" t="s">
         <v>71</v>
@@ -9381,14 +9389,14 @@
         <v>0.75</v>
       </c>
       <c r="K91" s="27" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="L91" s="27" t="s">
         <v>75</v>
       </c>
       <c r="M91" s="28"/>
       <c r="N91" s="27" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="O91" s="29">
         <v>59</v>
@@ -9407,22 +9415,22 @@
         <v>3</v>
       </c>
       <c r="T91" s="30" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="U91" s="30" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="92" spans="1:21" ht="65.099999999999994" hidden="1" customHeight="1">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="92" spans="1:21" ht="65" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A92" s="25" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B92" s="19" t="str">
         <f>VLOOKUP($E92,Liste!$A$2:$C$32,2,FALSE)</f>
         <v>Lehrstuhl für VWL, insb. Finanzwissenschaften</v>
       </c>
       <c r="C92" s="15" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D92" s="15" t="s">
         <v>77</v>
@@ -9446,14 +9454,14 @@
         <v>0.5</v>
       </c>
       <c r="K92" s="27" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="L92" s="27" t="s">
         <v>75</v>
       </c>
       <c r="M92" s="28"/>
       <c r="N92" s="27" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="O92" s="29">
         <v>59</v>
@@ -9472,31 +9480,31 @@
         <v>3</v>
       </c>
       <c r="T92" s="30" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="U92" s="30" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="93" spans="1:21" ht="65.099999999999994" hidden="1" customHeight="1">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="93" spans="1:21" ht="65" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A93" s="23" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B93" s="18" t="str">
         <f>VLOOKUP($E93,Liste!$A$2:$C$32,2,FALSE)</f>
         <v>Statistik in den Biowissenschaften</v>
       </c>
       <c r="C93" s="14" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D93" s="14" t="s">
         <v>71</v>
       </c>
       <c r="E93" s="14" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F93" s="14" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="G93" s="14" t="s">
         <v>63</v>
@@ -9511,17 +9519,17 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="K93" s="14" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="L93" s="14" t="s">
         <v>66</v>
       </c>
       <c r="M93" s="14"/>
       <c r="N93" s="49" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="O93" s="14" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="P93" s="49" t="str">
         <f>VLOOKUP($B93,Liste!$B$2:$C$32,2,FALSE)</f>
@@ -9535,31 +9543,31 @@
         <v>9</v>
       </c>
       <c r="T93" s="14" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="U93" s="14" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="94" spans="1:21" ht="65.099999999999994" hidden="1" customHeight="1">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="94" spans="1:21" ht="65" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A94" s="23" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B94" s="18" t="str">
         <f>VLOOKUP($E94,Liste!$A$2:$C$32,2,FALSE)</f>
         <v>Statistik in den Biowissenschaften</v>
       </c>
       <c r="C94" s="14" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D94" s="14" t="s">
         <v>77</v>
       </c>
       <c r="E94" s="14" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F94" s="14" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="G94" s="14" t="s">
         <v>63</v>
@@ -9574,17 +9582,17 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="K94" s="14" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="L94" s="14" t="s">
         <v>66</v>
       </c>
       <c r="M94" s="14"/>
       <c r="N94" s="49" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="O94" s="14" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="P94" s="49" t="str">
         <f>VLOOKUP($B94,Liste!$B$2:$C$32,2,FALSE)</f>
@@ -9598,31 +9606,31 @@
         <v>9</v>
       </c>
       <c r="T94" s="14" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="U94" s="14" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="95" spans="1:21" ht="65.099999999999994" hidden="1" customHeight="1">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="95" spans="1:21" ht="65" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A95" s="23" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B95" s="18" t="str">
         <f>VLOOKUP($E95,Liste!$A$2:$C$32,2,FALSE)</f>
         <v>Statistik in den Biowissenschaften</v>
       </c>
       <c r="C95" s="14" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D95" s="14" t="s">
         <v>71</v>
       </c>
       <c r="E95" s="14" t="s">
+        <v>274</v>
+      </c>
+      <c r="F95" s="14" t="s">
         <v>275</v>
-      </c>
-      <c r="F95" s="14" t="s">
-        <v>276</v>
       </c>
       <c r="G95" s="14" t="s">
         <v>82</v>
@@ -9637,24 +9645,24 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="K95" s="14" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="L95" s="14" t="s">
         <v>158</v>
       </c>
       <c r="M95" s="14"/>
       <c r="N95" s="49" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="O95" s="14" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="P95" s="49" t="str">
         <f>VLOOKUP($B95,Liste!$B$2:$C$32,2,FALSE)</f>
         <v>https://www.statistik.tu-dortmund.de/biowissenschaften.html</v>
       </c>
       <c r="Q95" s="49" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="R95" s="14" t="s">
         <v>92</v>
@@ -9663,31 +9671,31 @@
         <v>9</v>
       </c>
       <c r="T95" s="14" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="U95" s="14" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="96" spans="1:21" ht="65.099999999999994" hidden="1" customHeight="1">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="96" spans="1:21" ht="65" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A96" s="23" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B96" s="18" t="str">
         <f>VLOOKUP($E96,Liste!$A$2:$C$32,2,FALSE)</f>
         <v>Statistik in den Biowissenschaften</v>
       </c>
       <c r="C96" s="14" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D96" s="14" t="s">
         <v>77</v>
       </c>
       <c r="E96" s="14" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F96" s="14" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="G96" s="14" t="s">
         <v>95</v>
@@ -9702,24 +9710,24 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="K96" s="14" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="L96" s="14" t="s">
         <v>158</v>
       </c>
       <c r="M96" s="14"/>
       <c r="N96" s="49" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="O96" s="14" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="P96" s="49" t="str">
         <f>VLOOKUP($B96,Liste!$B$2:$C$32,2,FALSE)</f>
         <v>https://www.statistik.tu-dortmund.de/biowissenschaften.html</v>
       </c>
       <c r="Q96" s="49" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="R96" s="14" t="s">
         <v>92</v>
@@ -9728,22 +9736,22 @@
         <v>9</v>
       </c>
       <c r="T96" s="14" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="U96" s="14" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="97" spans="1:1028" ht="65.099999999999994" customHeight="1">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1028" ht="65" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A97" s="25" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B97" s="19" t="str">
         <f>VLOOKUP($E97,Liste!$A$2:$C$32,2,FALSE)</f>
         <v>Ökonometrie</v>
       </c>
       <c r="C97" s="15" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D97" s="15" t="s">
         <v>61</v>
@@ -9752,7 +9760,7 @@
         <v>72</v>
       </c>
       <c r="F97" s="15" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="G97" s="15"/>
       <c r="H97" s="15" t="s">
@@ -9761,26 +9769,26 @@
       <c r="I97" s="26"/>
       <c r="J97" s="26"/>
       <c r="K97" s="27" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="L97" s="27" t="s">
         <v>66</v>
       </c>
       <c r="M97" s="28" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="N97" s="15" t="s">
-        <v>457</v>
-      </c>
-      <c r="O97" s="29" t="s">
-        <v>238</v>
+        <v>456</v>
+      </c>
+      <c r="O97" s="29">
+        <v>1</v>
       </c>
       <c r="P97" s="19" t="str">
         <f>VLOOKUP($B97,Liste!$B$2:$C$32,2,FALSE)</f>
         <v>https://www.oek.wiwi.uni-due.de/</v>
       </c>
       <c r="Q97" s="15" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="R97" s="28" t="s">
         <v>68</v>
@@ -9789,13 +9797,13 @@
         <v>6</v>
       </c>
       <c r="T97" s="30" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="U97" s="30" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="98" spans="1:1028" ht="65.099999999999994" customHeight="1">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1028" ht="65" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A98" s="25" t="s">
         <v>147</v>
       </c>
@@ -9835,7 +9843,7 @@
       </c>
       <c r="M98" s="28"/>
       <c r="N98" s="28" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="O98" s="29">
         <v>62</v>
@@ -9854,13 +9862,13 @@
         <v>3</v>
       </c>
       <c r="T98" s="30" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="U98" s="30" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="99" spans="1:1028" ht="65.099999999999994" customHeight="1">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1028" ht="65" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A99" s="25" t="s">
         <v>147</v>
       </c>
@@ -9900,7 +9908,7 @@
       </c>
       <c r="M99" s="28"/>
       <c r="N99" s="28" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="O99" s="29">
         <v>62</v>
@@ -9919,49 +9927,49 @@
         <v>3</v>
       </c>
       <c r="T99" s="30" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="U99" s="30" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="100" spans="1:1028" ht="65.099999999999994" customHeight="1">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1028" ht="65" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A100" s="31" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B100" s="20" t="str">
         <f>VLOOKUP($E100,Liste!$A$2:$C$32,2,FALSE)</f>
         <v>Lehrstuhl für Wirtschaftspolitik und angewandte Ökonometrie</v>
       </c>
       <c r="C100" s="16" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D100" s="16" t="s">
         <v>61</v>
       </c>
       <c r="E100" s="16" t="s">
+        <v>304</v>
+      </c>
+      <c r="F100" s="16" t="s">
         <v>305</v>
-      </c>
-      <c r="F100" s="16" t="s">
-        <v>306</v>
       </c>
       <c r="G100" s="16"/>
       <c r="H100" s="16" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="I100" s="32"/>
       <c r="J100" s="32"/>
       <c r="K100" s="16" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="L100" s="16" t="s">
         <v>158</v>
       </c>
       <c r="M100" s="33" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="N100" s="16" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="O100" s="34">
         <v>26</v>
@@ -9971,7 +9979,7 @@
         <v>https://www.wiwi.ruhr-uni-bochum.de/wipooek/index.html.de</v>
       </c>
       <c r="Q100" s="16" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="R100" s="16" t="s">
         <v>68</v>
@@ -9980,13 +9988,13 @@
         <v>5</v>
       </c>
       <c r="T100" s="16" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="U100" s="16" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="101" spans="1:1028" ht="65.099999999999994" hidden="1" customHeight="1">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1028" ht="65" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A101" s="25" t="s">
         <v>150</v>
       </c>
@@ -10028,7 +10036,7 @@
         <v>152</v>
       </c>
       <c r="N101" s="27" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="O101" s="29">
         <v>63</v>
@@ -10047,13 +10055,13 @@
         <v>3</v>
       </c>
       <c r="T101" s="30" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="U101" s="30" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="102" spans="1:1028" ht="65.099999999999994" hidden="1" customHeight="1">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1028" ht="65" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A102" s="25" t="s">
         <v>150</v>
       </c>
@@ -10095,7 +10103,7 @@
         <v>154</v>
       </c>
       <c r="N102" s="27" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="O102" s="29">
         <v>63</v>
@@ -10114,28 +10122,28 @@
         <v>3</v>
       </c>
       <c r="T102" s="30" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="U102" s="30" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="103" spans="1:1028" s="43" customFormat="1" ht="65.099999999999994" hidden="1" customHeight="1">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1028" s="43" customFormat="1" ht="65" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A103" s="40" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B103" s="41" t="str">
         <f>VLOOKUP($E103,Liste!$A$2:$C$32,2,FALSE)</f>
         <v>Empirical Economics</v>
       </c>
       <c r="C103" s="40" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D103" s="40" t="s">
         <v>61</v>
       </c>
       <c r="E103" s="40" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F103" s="40" t="s">
         <v>15</v>
@@ -10144,7 +10152,7 @@
         <v>63</v>
       </c>
       <c r="H103" s="40" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="I103" s="44">
         <v>0.58333333333333304</v>
@@ -10153,16 +10161,16 @@
         <v>0.66666666666666696</v>
       </c>
       <c r="K103" s="40" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="L103" s="40" t="s">
         <v>66</v>
       </c>
       <c r="M103" s="45" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="N103" s="40" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="O103" s="46">
         <v>19</v>
@@ -10172,7 +10180,7 @@
         <v>https://www.wiwi.ruhr-uni-bochum.de/empwifo/index.html.en</v>
       </c>
       <c r="Q103" s="40" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="R103" s="40" t="s">
         <v>68</v>
@@ -10181,10 +10189,10 @@
         <v>5</v>
       </c>
       <c r="T103" s="40" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="U103" s="40" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="V103" s="42"/>
       <c r="W103" s="42"/>
@@ -11194,22 +11202,22 @@
       <c r="AMM103" s="42"/>
       <c r="AMN103" s="42"/>
     </row>
-    <row r="104" spans="1:1028" ht="65.099999999999994" hidden="1" customHeight="1">
+    <row r="104" spans="1:1028" ht="65" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A104" s="31" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B104" s="20" t="str">
         <f>VLOOKUP($E104,Liste!$A$2:$C$32,2,FALSE)</f>
         <v>Empirical Economics</v>
       </c>
       <c r="C104" s="16" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D104" s="16" t="s">
         <v>71</v>
       </c>
       <c r="E104" s="16" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F104" s="16" t="s">
         <v>14</v>
@@ -11218,7 +11226,7 @@
         <v>95</v>
       </c>
       <c r="H104" s="16" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="I104" s="32" t="s">
         <v>189</v>
@@ -11227,16 +11235,16 @@
         <v>198</v>
       </c>
       <c r="K104" s="16" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="L104" s="16" t="s">
         <v>75</v>
       </c>
       <c r="M104" s="33" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="N104" s="16" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="O104" s="34">
         <v>20</v>
@@ -11246,7 +11254,7 @@
         <v>https://www.wiwi.ruhr-uni-bochum.de/empwifo/index.html.en</v>
       </c>
       <c r="Q104" s="16" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="R104" s="16" t="s">
         <v>68</v>
@@ -11255,13 +11263,13 @@
         <v>5</v>
       </c>
       <c r="T104" s="16" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="U104" s="16" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="105" spans="1:1028" ht="65.099999999999994" hidden="1" customHeight="1">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1028" ht="65" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A105" s="31" t="s">
         <v>133</v>
       </c>
@@ -11276,7 +11284,7 @@
         <v>71</v>
       </c>
       <c r="E105" s="16" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F105" s="16" t="s">
         <v>35</v>
@@ -11285,7 +11293,7 @@
         <v>107</v>
       </c>
       <c r="H105" s="16" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="I105" s="32">
         <v>0.58333333333333304</v>
@@ -11294,14 +11302,14 @@
         <v>0.75</v>
       </c>
       <c r="K105" s="16" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="L105" s="16" t="s">
         <v>75</v>
       </c>
       <c r="M105" s="33"/>
       <c r="N105" s="16" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="O105" s="34">
         <v>23</v>
@@ -11311,7 +11319,7 @@
         <v>https://www.wiwi.ruhr-uni-bochum.de/empwifo/index.html.en</v>
       </c>
       <c r="Q105" s="16" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="R105" s="16" t="s">
         <v>68</v>
@@ -11320,13 +11328,13 @@
         <v>10</v>
       </c>
       <c r="T105" s="16" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="U105" s="16" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="106" spans="1:1028" ht="65.099999999999994" hidden="1" customHeight="1">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1028" ht="65" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A106" s="31" t="s">
         <v>133</v>
       </c>
@@ -11341,7 +11349,7 @@
         <v>77</v>
       </c>
       <c r="E106" s="16" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F106" s="16" t="s">
         <v>34</v>
@@ -11350,7 +11358,7 @@
         <v>82</v>
       </c>
       <c r="H106" s="16" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="I106" s="32">
         <v>0.33333333333333331</v>
@@ -11359,14 +11367,14 @@
         <v>0.5</v>
       </c>
       <c r="K106" s="16" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="L106" s="16" t="s">
         <v>75</v>
       </c>
       <c r="M106" s="33"/>
       <c r="N106" s="16" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="O106" s="34">
         <v>23</v>
@@ -11376,7 +11384,7 @@
         <v>https://www.wiwi.ruhr-uni-bochum.de/empwifo/index.html.en</v>
       </c>
       <c r="Q106" s="16" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="R106" s="16" t="s">
         <v>68</v>
@@ -11385,28 +11393,28 @@
         <v>10</v>
       </c>
       <c r="T106" s="16" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="U106" s="16" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="107" spans="1:1028" ht="65.099999999999994" hidden="1" customHeight="1">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1028" ht="65" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A107" s="31" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B107" s="20" t="str">
         <f>VLOOKUP($E107,Liste!$A$2:$C$32,2,FALSE)</f>
         <v>Empirical Economics</v>
       </c>
       <c r="C107" s="16" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D107" s="16" t="s">
         <v>61</v>
       </c>
       <c r="E107" s="16" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F107" s="16" t="s">
         <v>16</v>
@@ -11415,7 +11423,7 @@
         <v>107</v>
       </c>
       <c r="H107" s="16" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="I107" s="32">
         <v>0.58333333333333304</v>
@@ -11424,14 +11432,14 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="K107" s="16" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="L107" s="16" t="s">
         <v>66</v>
       </c>
       <c r="M107" s="33"/>
       <c r="N107" s="16" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="O107" s="34">
         <v>21</v>
@@ -11441,7 +11449,7 @@
         <v>https://www.wiwi.ruhr-uni-bochum.de/empwifo/index.html.en</v>
       </c>
       <c r="Q107" s="16" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="R107" s="16" t="s">
         <v>68</v>
@@ -11450,28 +11458,28 @@
         <v>10</v>
       </c>
       <c r="T107" s="16" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="U107" s="16" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="108" spans="1:1028" ht="65.099999999999994" hidden="1" customHeight="1">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1028" ht="65" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A108" s="31" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B108" s="20" t="str">
         <f>VLOOKUP($E108,Liste!$A$2:$C$32,2,FALSE)</f>
         <v> Quantitative Analyse (Statistik/Ökonometrie)</v>
       </c>
       <c r="C108" s="16" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D108" s="16" t="s">
         <v>71</v>
       </c>
       <c r="E108" s="16" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F108" s="16" t="s">
         <v>27</v>
@@ -11480,7 +11488,7 @@
         <v>63</v>
       </c>
       <c r="H108" s="16" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="I108" s="32" t="s">
         <v>202</v>
@@ -11489,16 +11497,16 @@
         <v>203</v>
       </c>
       <c r="K108" s="16" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="L108" s="16" t="s">
         <v>75</v>
       </c>
       <c r="M108" s="33" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="N108" s="16" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="O108" s="34">
         <v>18</v>
@@ -11508,7 +11516,7 @@
         <v>https://www.wiwi.ruhr-uni-bochum.de/statoek/index.html.de</v>
       </c>
       <c r="Q108" s="16" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="R108" s="16" t="s">
         <v>68</v>
@@ -11517,28 +11525,28 @@
         <v>10</v>
       </c>
       <c r="T108" s="16" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="U108" s="16" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="109" spans="1:1028" ht="65.099999999999994" hidden="1" customHeight="1">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1028" ht="65" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A109" s="31" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B109" s="20" t="str">
         <f>VLOOKUP($E109,Liste!$A$2:$C$32,2,FALSE)</f>
         <v> Quantitative Analyse (Statistik/Ökonometrie)</v>
       </c>
       <c r="C109" s="16" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D109" s="16" t="s">
         <v>77</v>
       </c>
       <c r="E109" s="16" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F109" s="16" t="s">
         <v>23</v>
@@ -11547,7 +11555,7 @@
         <v>63</v>
       </c>
       <c r="H109" s="16" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="I109" s="32" t="s">
         <v>227</v>
@@ -11556,14 +11564,14 @@
         <v>202</v>
       </c>
       <c r="K109" s="16" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="L109" s="16" t="s">
         <v>75</v>
       </c>
       <c r="M109" s="33"/>
       <c r="N109" s="16" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="O109" s="34">
         <v>18</v>
@@ -11573,7 +11581,7 @@
         <v>https://www.wiwi.ruhr-uni-bochum.de/statoek/index.html.de</v>
       </c>
       <c r="Q109" s="16" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="R109" s="16" t="s">
         <v>68</v>
@@ -11582,37 +11590,37 @@
         <v>10</v>
       </c>
       <c r="T109" s="16" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="U109" s="16" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="110" spans="1:1028" ht="65.099999999999994" customHeight="1">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1028" ht="65" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A110" s="31" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B110" s="20" t="str">
         <f>VLOOKUP($E110,Liste!$A$2:$C$32,2,FALSE)</f>
         <v> Quantitative Analyse (Statistik/Ökonometrie)</v>
       </c>
       <c r="C110" s="16" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D110" s="16" t="s">
         <v>61</v>
       </c>
       <c r="E110" s="16" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F110" s="16" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="G110" s="16" t="s">
         <v>82</v>
       </c>
       <c r="H110" s="16" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="I110" s="32" t="s">
         <v>198</v>
@@ -11621,16 +11629,16 @@
         <v>190</v>
       </c>
       <c r="K110" s="16" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="L110" s="16" t="s">
         <v>158</v>
       </c>
       <c r="M110" s="33" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="N110" s="16" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="O110" s="34">
         <v>25</v>
@@ -11640,7 +11648,7 @@
         <v>https://www.wiwi.ruhr-uni-bochum.de/statoek/index.html.de</v>
       </c>
       <c r="Q110" s="16" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="R110" s="16" t="s">
         <v>68</v>
@@ -11649,49 +11657,49 @@
         <v>5</v>
       </c>
       <c r="T110" s="16" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="U110" s="16" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="111" spans="1:1028" ht="65.099999999999994" customHeight="1">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1028" ht="65" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A111" s="31" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B111" s="20" t="str">
         <f>VLOOKUP($E111,Liste!$A$2:$C$32,2,FALSE)</f>
         <v>Apl.-Professur für Health Economics</v>
       </c>
       <c r="C111" s="16" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D111" s="16" t="s">
         <v>61</v>
       </c>
       <c r="E111" s="16" t="s">
+        <v>310</v>
+      </c>
+      <c r="F111" s="16" t="s">
         <v>311</v>
-      </c>
-      <c r="F111" s="16" t="s">
-        <v>312</v>
       </c>
       <c r="G111" s="16"/>
       <c r="H111" s="16" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="I111" s="32"/>
       <c r="J111" s="32"/>
       <c r="K111" s="16" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="L111" s="16" t="s">
         <v>66</v>
       </c>
       <c r="M111" s="33" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="N111" s="16" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="O111" s="34">
         <v>17</v>
@@ -11701,7 +11709,7 @@
         <v>https://www.wiwi.ruhr-uni-bochum.de/health/index.html.de</v>
       </c>
       <c r="Q111" s="16" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="R111" s="16" t="s">
         <v>68</v>
@@ -11710,13 +11718,13 @@
         <v>5</v>
       </c>
       <c r="T111" s="16" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="U111" s="16" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="112" spans="1:1028" ht="65.099999999999994" customHeight="1">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1028" ht="65" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A112" s="25" t="s">
         <v>173</v>
       </c>
@@ -11749,10 +11757,10 @@
         <v>75</v>
       </c>
       <c r="M112" s="28" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="N112" s="15" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="O112" s="29">
         <v>64</v>
@@ -11771,13 +11779,13 @@
         <v>3</v>
       </c>
       <c r="T112" s="30" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="U112" s="30" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="113" spans="1:21" ht="65.099999999999994" customHeight="1">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="113" spans="1:21" ht="65" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A113" s="25" t="s">
         <v>173</v>
       </c>
@@ -11810,10 +11818,10 @@
         <v>75</v>
       </c>
       <c r="M113" s="28" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="N113" s="15" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="O113" s="29">
         <v>64</v>
@@ -11832,31 +11840,31 @@
         <v>3</v>
       </c>
       <c r="T113" s="30" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="U113" s="30" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="114" spans="1:21" ht="65.099999999999994" customHeight="1">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="114" spans="1:21" ht="65" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A114" s="23" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B114" s="18" t="str">
         <f>VLOOKUP($E114,Liste!$A$2:$C$32,2,FALSE)</f>
         <v>Wirtschafts- und Sozialstatistik</v>
       </c>
       <c r="C114" s="14" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D114" s="14" t="s">
         <v>71</v>
       </c>
       <c r="E114" s="14" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="F114" s="14" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="G114" s="14" t="s">
         <v>95</v>
@@ -11871,26 +11879,26 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="K114" s="14" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="L114" s="14" t="s">
         <v>66</v>
       </c>
       <c r="M114" s="14" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="N114" s="23" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="O114" s="14" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="P114" s="49" t="str">
         <f>VLOOKUP($B114,Liste!$B$2:$C$32,2,FALSE)</f>
         <v>https://www.statistik.tu-dortmund.de/iwus.html</v>
       </c>
       <c r="Q114" s="23" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="R114" s="14" t="s">
         <v>68</v>
@@ -11899,13 +11907,13 @@
         <v>5</v>
       </c>
       <c r="T114" s="14" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="U114" s="14" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="115" spans="1:21" ht="65.099999999999994" hidden="1" customHeight="1">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="115" spans="1:21" ht="65" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A115" s="25" t="s">
         <v>128</v>
       </c>
@@ -11938,14 +11946,14 @@
         <v>0.5</v>
       </c>
       <c r="K115" s="27" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="L115" s="27" t="s">
         <v>75</v>
       </c>
       <c r="M115" s="28"/>
       <c r="N115" s="28" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="O115" s="29">
         <v>46</v>
@@ -11964,13 +11972,13 @@
         <v>3</v>
       </c>
       <c r="T115" s="30" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="U115" s="30" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="116" spans="1:21" ht="65.099999999999994" hidden="1" customHeight="1">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="116" spans="1:21" ht="65" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A116" s="25" t="s">
         <v>128</v>
       </c>
@@ -12003,14 +12011,14 @@
         <v>0.58333333333333304</v>
       </c>
       <c r="K116" s="27" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="L116" s="27" t="s">
         <v>75</v>
       </c>
       <c r="M116" s="28"/>
       <c r="N116" s="28" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="O116" s="29">
         <v>46</v>
@@ -12029,31 +12037,31 @@
         <v>3</v>
       </c>
       <c r="T116" s="30" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="U116" s="30" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="117" spans="1:21" ht="65.099999999999994" customHeight="1">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="117" spans="1:21" ht="65" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A117" s="23" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B117" s="18" t="str">
         <f>VLOOKUP($E117,Liste!$A$2:$C$32,2,FALSE)</f>
         <v>Wirtschafts- und Sozialstatistik</v>
       </c>
       <c r="C117" s="14" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D117" s="14" t="s">
         <v>71</v>
       </c>
       <c r="E117" s="14" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="F117" s="14" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G117" s="14" t="s">
         <v>63</v>
@@ -12068,26 +12076,26 @@
         <v>0.5</v>
       </c>
       <c r="K117" s="14" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="L117" s="14" t="s">
         <v>66</v>
       </c>
       <c r="M117" s="14" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="N117" s="23" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="O117" s="14" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="P117" s="49" t="str">
         <f>VLOOKUP($B117,Liste!$B$2:$C$32,2,FALSE)</f>
         <v>https://www.statistik.tu-dortmund.de/iwus.html</v>
       </c>
       <c r="Q117" s="23" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="R117" s="14" t="s">
         <v>68</v>
@@ -12096,31 +12104,31 @@
         <v>5</v>
       </c>
       <c r="T117" s="14" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="U117" s="14" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="118" spans="1:21" ht="65.099999999999994" customHeight="1">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="118" spans="1:21" ht="65" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A118" s="23" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B118" s="18" t="str">
         <f>VLOOKUP($E118,Liste!$A$2:$C$32,2,FALSE)</f>
         <v>Wirtschafts- und Sozialstatistik</v>
       </c>
       <c r="C118" s="14" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D118" s="14" t="s">
         <v>71</v>
       </c>
       <c r="E118" s="14" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="F118" s="14" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="G118" s="14" t="s">
         <v>107</v>
@@ -12135,26 +12143,26 @@
         <v>0.5</v>
       </c>
       <c r="K118" s="14" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="L118" s="14" t="s">
         <v>66</v>
       </c>
       <c r="M118" s="14" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="N118" s="14" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="O118" s="14" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="P118" s="49" t="str">
         <f>VLOOKUP($B118,Liste!$B$2:$C$32,2,FALSE)</f>
         <v>https://www.statistik.tu-dortmund.de/iwus.html</v>
       </c>
       <c r="Q118" s="23" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="R118" s="14" t="s">
         <v>68</v>
@@ -12163,13 +12171,13 @@
         <v>5</v>
       </c>
       <c r="T118" s="14" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="U118" s="14" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="119" spans="1:21" ht="65.099999999999994" hidden="1" customHeight="1">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="119" spans="1:21" ht="65" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A119" s="23" t="s">
         <v>218</v>
       </c>
@@ -12202,7 +12210,7 @@
         <v>189</v>
       </c>
       <c r="K119" s="14" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="L119" s="14" t="s">
         <v>75</v>
@@ -12211,10 +12219,10 @@
         <v>221</v>
       </c>
       <c r="N119" s="14" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="O119" s="14" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="P119" s="18" t="str">
         <f>VLOOKUP($B119,Liste!$B$2:$C$32,2,FALSE)</f>
@@ -12228,22 +12236,22 @@
         <v>4</v>
       </c>
       <c r="T119" s="14" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="U119" s="14" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="120" spans="1:21" ht="65.099999999999994" hidden="1" customHeight="1">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="120" spans="1:21" ht="65" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A120" s="23" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B120" s="18" t="str">
         <f>VLOOKUP($E120,Liste!$A$2:$C$32,2,FALSE)</f>
         <v>VWL (Mikroökonomie)</v>
       </c>
       <c r="C120" s="14" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D120" s="14" t="s">
         <v>71</v>
@@ -12267,17 +12275,17 @@
         <v>0.5</v>
       </c>
       <c r="K120" s="14" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="L120" s="14" t="s">
         <v>66</v>
       </c>
       <c r="M120" s="14"/>
       <c r="N120" s="14" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="O120" s="14" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="P120" s="18" t="str">
         <f>VLOOKUP($B120,Liste!$B$2:$C$32,2,FALSE)</f>
@@ -12291,22 +12299,22 @@
         <v>7.5</v>
       </c>
       <c r="T120" s="14" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="U120" s="14" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="121" spans="1:21" ht="65.099999999999994" hidden="1" customHeight="1">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="121" spans="1:21" ht="65" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A121" s="23" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B121" s="18" t="str">
         <f>VLOOKUP($E121,Liste!$A$2:$C$32,2,FALSE)</f>
         <v>VWL (Mikroökonomie)</v>
       </c>
       <c r="C121" s="14" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D121" s="14" t="s">
         <v>77</v>
@@ -12330,17 +12338,17 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="K121" s="14" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="L121" s="14" t="s">
         <v>66</v>
       </c>
       <c r="M121" s="14"/>
       <c r="N121" s="14" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="O121" s="14" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="P121" s="18" t="str">
         <f>VLOOKUP($B121,Liste!$B$2:$C$32,2,FALSE)</f>
@@ -12354,15 +12362,15 @@
         <v>7.5</v>
       </c>
       <c r="T121" s="14" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="U121" s="14" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="122" spans="1:21" ht="65.099999999999994" hidden="1" customHeight="1">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="122" spans="1:21" ht="65" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A122" s="23" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B122" s="18" t="str">
         <f>VLOOKUP($E122,Liste!$A$2:$C$32,2,FALSE)</f>
@@ -12378,7 +12386,7 @@
         <v>220</v>
       </c>
       <c r="F122" s="14" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G122" s="14" t="s">
         <v>95</v>
@@ -12393,19 +12401,19 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="K122" s="14" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="L122" s="14" t="s">
         <v>66</v>
       </c>
       <c r="M122" s="14" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="N122" s="14" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="O122" s="14" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="P122" s="18" t="str">
         <f>VLOOKUP($B122,Liste!$B$2:$C$32,2,FALSE)</f>
@@ -12419,188 +12427,183 @@
         <v>4</v>
       </c>
       <c r="T122" s="14" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="U122" s="14" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
-  <autoFilter ref="A1:U122">
-    <filterColumn colId="20">
-      <filters>
-        <filter val="yes"/>
-      </filters>
-    </filterColumn>
-    <sortState ref="A23:U118">
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <autoFilter ref="A1:U122" xr:uid="{00000000-0009-0000-0000-000001000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A23:U118">
       <sortCondition ref="A1:A122"/>
     </sortState>
   </autoFilter>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select a day from the list. Select CANCEL, and then press ALT+DOWN ARROW to select from the drop-down list" sqref="AE64 G3:G65 G67:G90 G106:G122">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select a day from the list. Select CANCEL, and then press ALT+DOWN ARROW to select from the drop-down list" sqref="AE64 G3:G65 G67:G90 G106:G122" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"SONNTAG,MONTAG,DIENSTAG,MITTWOCH,DONNERSTAG,FREITAG,SAMSTAG"</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="N51" r:id="rId1"/>
-    <hyperlink ref="Q51" r:id="rId2"/>
-    <hyperlink ref="Q78" r:id="rId3"/>
-    <hyperlink ref="Q79" r:id="rId4"/>
-    <hyperlink ref="Q47" r:id="rId5"/>
-    <hyperlink ref="Q53" r:id="rId6"/>
-    <hyperlink ref="N76" r:id="rId7"/>
-    <hyperlink ref="Q76" r:id="rId8"/>
-    <hyperlink ref="N77" r:id="rId9"/>
-    <hyperlink ref="Q77" r:id="rId10"/>
-    <hyperlink ref="Q11" r:id="rId11"/>
-    <hyperlink ref="Q12" r:id="rId12"/>
-    <hyperlink ref="N21" r:id="rId13"/>
-    <hyperlink ref="Q21" r:id="rId14"/>
-    <hyperlink ref="N22" r:id="rId15"/>
-    <hyperlink ref="Q22" r:id="rId16"/>
-    <hyperlink ref="N61" r:id="rId17"/>
-    <hyperlink ref="Q61" r:id="rId18"/>
-    <hyperlink ref="N62" r:id="rId19"/>
-    <hyperlink ref="Q62" r:id="rId20"/>
-    <hyperlink ref="Q63" r:id="rId21"/>
-    <hyperlink ref="Q64" r:id="rId22"/>
-    <hyperlink ref="Q65" r:id="rId23"/>
-    <hyperlink ref="Q68" r:id="rId24"/>
-    <hyperlink ref="Q69" r:id="rId25"/>
-    <hyperlink ref="Q70" r:id="rId26"/>
-    <hyperlink ref="N115" r:id="rId27"/>
-    <hyperlink ref="Q115" r:id="rId28"/>
-    <hyperlink ref="N116" r:id="rId29"/>
-    <hyperlink ref="Q116" r:id="rId30"/>
-    <hyperlink ref="Q91" r:id="rId31"/>
-    <hyperlink ref="Q92" r:id="rId32"/>
-    <hyperlink ref="N56" r:id="rId33"/>
-    <hyperlink ref="Q56" r:id="rId34"/>
-    <hyperlink ref="N57" r:id="rId35"/>
-    <hyperlink ref="Q57" r:id="rId36"/>
-    <hyperlink ref="Q13" r:id="rId37"/>
-    <hyperlink ref="Q14" r:id="rId38"/>
-    <hyperlink ref="Q98" r:id="rId39"/>
-    <hyperlink ref="Q99" r:id="rId40"/>
-    <hyperlink ref="Q101" r:id="rId41"/>
-    <hyperlink ref="Q102" r:id="rId42"/>
-    <hyperlink ref="Q66" r:id="rId43"/>
-    <hyperlink ref="N26" r:id="rId44"/>
-    <hyperlink ref="Q26" r:id="rId45"/>
-    <hyperlink ref="N27" r:id="rId46"/>
-    <hyperlink ref="Q27" r:id="rId47"/>
-    <hyperlink ref="Q54" r:id="rId48"/>
-    <hyperlink ref="Q90" r:id="rId49"/>
-    <hyperlink ref="Q112" r:id="rId50"/>
-    <hyperlink ref="Q113" r:id="rId51"/>
-    <hyperlink ref="Q25" r:id="rId52"/>
-    <hyperlink ref="Q67" r:id="rId53"/>
-    <hyperlink ref="N86" r:id="rId54"/>
-    <hyperlink ref="N17" r:id="rId55"/>
-    <hyperlink ref="N18" r:id="rId56"/>
-    <hyperlink ref="N19" r:id="rId57"/>
-    <hyperlink ref="N20" r:id="rId58"/>
-    <hyperlink ref="N34" r:id="rId59"/>
-    <hyperlink ref="N85" r:id="rId60"/>
-    <hyperlink ref="N87" r:id="rId61"/>
-    <hyperlink ref="N46" r:id="rId62"/>
-    <hyperlink ref="N45" r:id="rId63"/>
-    <hyperlink ref="M82" r:id="rId64"/>
-    <hyperlink ref="N78" r:id="rId65"/>
-    <hyperlink ref="N52" r:id="rId66"/>
-    <hyperlink ref="N79" r:id="rId67"/>
-    <hyperlink ref="N92" r:id="rId68"/>
-    <hyperlink ref="N91" r:id="rId69"/>
-    <hyperlink ref="N101" r:id="rId70"/>
-    <hyperlink ref="N102" r:id="rId71"/>
-    <hyperlink ref="N25" r:id="rId72"/>
-    <hyperlink ref="N67" r:id="rId73"/>
-    <hyperlink ref="N50" r:id="rId74"/>
-    <hyperlink ref="N66" r:id="rId75"/>
-    <hyperlink ref="N90" r:id="rId76"/>
-    <hyperlink ref="N73" r:id="rId77"/>
-    <hyperlink ref="N74" r:id="rId78"/>
-    <hyperlink ref="N29" r:id="rId79"/>
-    <hyperlink ref="N38" r:id="rId80"/>
-    <hyperlink ref="N35" r:id="rId81"/>
-    <hyperlink ref="N15" r:id="rId82" location="basicdata" display="https://www.lsf.tu-dortmund.de/qisserver/rds?state=verpublish&amp;status=init&amp;vmfile=no&amp;publishid=214260&amp;moduleCall=webInfo&amp;publishConfFile=webInfo&amp;publishSubDir=veranstaltung - basicdata"/>
-    <hyperlink ref="N121" r:id="rId83"/>
-    <hyperlink ref="N48" r:id="rId84"/>
-    <hyperlink ref="N49" r:id="rId85"/>
-    <hyperlink ref="N122" r:id="rId86"/>
-    <hyperlink ref="N96" r:id="rId87"/>
-    <hyperlink ref="N95" r:id="rId88"/>
-    <hyperlink ref="N44" r:id="rId89"/>
-    <hyperlink ref="N42" r:id="rId90"/>
-    <hyperlink ref="N43" r:id="rId91"/>
-    <hyperlink ref="N41" r:id="rId92"/>
-    <hyperlink ref="N109" r:id="rId93"/>
-    <hyperlink ref="Q103" r:id="rId94" location="page=77" display="http://www.wiwi.ruhr-uni-bochum.de/mam/content/dekanat/modulhandbuch__master_-wise_2018_19_21.08.2018.pdf - page=77"/>
-    <hyperlink ref="Q88" r:id="rId95"/>
-    <hyperlink ref="Q89" r:id="rId96"/>
-    <hyperlink ref="N31" r:id="rId97"/>
-    <hyperlink ref="N32" r:id="rId98"/>
-    <hyperlink ref="N33" r:id="rId99"/>
-    <hyperlink ref="N24" r:id="rId100"/>
-    <hyperlink ref="N28" r:id="rId101"/>
-    <hyperlink ref="N36" r:id="rId102"/>
-    <hyperlink ref="N37" r:id="rId103"/>
-    <hyperlink ref="N93" r:id="rId104"/>
-    <hyperlink ref="N94" r:id="rId105"/>
-    <hyperlink ref="N47" r:id="rId106"/>
-    <hyperlink ref="N53" r:id="rId107"/>
-    <hyperlink ref="N60" r:id="rId108"/>
-    <hyperlink ref="N63" r:id="rId109"/>
-    <hyperlink ref="N120" r:id="rId110"/>
-    <hyperlink ref="N4" r:id="rId111"/>
-    <hyperlink ref="N5" r:id="rId112"/>
-    <hyperlink ref="N72" r:id="rId113"/>
-    <hyperlink ref="N108" r:id="rId114"/>
-    <hyperlink ref="Q10" r:id="rId115"/>
-    <hyperlink ref="N12" r:id="rId116"/>
-    <hyperlink ref="Q2" r:id="rId117" location="page=139"/>
-    <hyperlink ref="Q3" r:id="rId118" location="page=139"/>
-    <hyperlink ref="Q16" r:id="rId119" location="page=141"/>
-    <hyperlink ref="Q111" r:id="rId120" location="page=143"/>
-    <hyperlink ref="Q100" r:id="rId121" location="page=110"/>
-    <hyperlink ref="Q104" r:id="rId122" location="page=112"/>
-    <hyperlink ref="Q52" r:id="rId123"/>
-    <hyperlink ref="Q4" r:id="rId124"/>
-    <hyperlink ref="Q72" r:id="rId125" location="page=27"/>
-    <hyperlink ref="Q82" r:id="rId126"/>
-    <hyperlink ref="Q42" r:id="rId127"/>
-    <hyperlink ref="Q44" r:id="rId128"/>
-    <hyperlink ref="Q96" r:id="rId129"/>
-    <hyperlink ref="Q95" r:id="rId130" location="page=8"/>
-    <hyperlink ref="Q49" r:id="rId131"/>
-    <hyperlink ref="Q48" r:id="rId132"/>
-    <hyperlink ref="Q87" r:id="rId133" location="page=12"/>
-    <hyperlink ref="Q85" r:id="rId134" location="page=8"/>
-    <hyperlink ref="Q15" r:id="rId135" location="page=82"/>
-    <hyperlink ref="Q20" r:id="rId136"/>
-    <hyperlink ref="Q19" r:id="rId137"/>
-    <hyperlink ref="Q18" r:id="rId138"/>
-    <hyperlink ref="Q17" r:id="rId139"/>
-    <hyperlink ref="Q86" r:id="rId140"/>
-    <hyperlink ref="Q74" r:id="rId141" location="page=77"/>
-    <hyperlink ref="Q73" r:id="rId142" location="page=75"/>
-    <hyperlink ref="Q5" r:id="rId143"/>
-    <hyperlink ref="N107" r:id="rId144"/>
-    <hyperlink ref="N106" r:id="rId145"/>
-    <hyperlink ref="N105" r:id="rId146"/>
-    <hyperlink ref="N103" r:id="rId147"/>
-    <hyperlink ref="N104" r:id="rId148"/>
-    <hyperlink ref="N84" r:id="rId149"/>
-    <hyperlink ref="N58" r:id="rId150"/>
-    <hyperlink ref="N82" r:id="rId151"/>
-    <hyperlink ref="Q80" r:id="rId152" location="page=102"/>
-    <hyperlink ref="Q28" r:id="rId153" location="page=8"/>
-    <hyperlink ref="Q30" r:id="rId154" location="page=11"/>
-    <hyperlink ref="N23" r:id="rId155"/>
-    <hyperlink ref="N118" r:id="rId156"/>
-    <hyperlink ref="Q97" r:id="rId157"/>
+    <hyperlink ref="N51" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="Q51" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="Q78" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="Q79" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
+    <hyperlink ref="Q47" r:id="rId5" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
+    <hyperlink ref="Q53" r:id="rId6" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
+    <hyperlink ref="N76" r:id="rId7" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
+    <hyperlink ref="Q76" r:id="rId8" xr:uid="{00000000-0004-0000-0100-000007000000}"/>
+    <hyperlink ref="N77" r:id="rId9" xr:uid="{00000000-0004-0000-0100-000008000000}"/>
+    <hyperlink ref="Q77" r:id="rId10" xr:uid="{00000000-0004-0000-0100-000009000000}"/>
+    <hyperlink ref="Q11" r:id="rId11" xr:uid="{00000000-0004-0000-0100-00000A000000}"/>
+    <hyperlink ref="Q12" r:id="rId12" xr:uid="{00000000-0004-0000-0100-00000B000000}"/>
+    <hyperlink ref="N21" r:id="rId13" xr:uid="{00000000-0004-0000-0100-00000C000000}"/>
+    <hyperlink ref="Q21" r:id="rId14" xr:uid="{00000000-0004-0000-0100-00000D000000}"/>
+    <hyperlink ref="N22" r:id="rId15" xr:uid="{00000000-0004-0000-0100-00000E000000}"/>
+    <hyperlink ref="Q22" r:id="rId16" xr:uid="{00000000-0004-0000-0100-00000F000000}"/>
+    <hyperlink ref="N61" r:id="rId17" xr:uid="{00000000-0004-0000-0100-000010000000}"/>
+    <hyperlink ref="Q61" r:id="rId18" xr:uid="{00000000-0004-0000-0100-000011000000}"/>
+    <hyperlink ref="N62" r:id="rId19" xr:uid="{00000000-0004-0000-0100-000012000000}"/>
+    <hyperlink ref="Q62" r:id="rId20" xr:uid="{00000000-0004-0000-0100-000013000000}"/>
+    <hyperlink ref="Q63" r:id="rId21" xr:uid="{00000000-0004-0000-0100-000014000000}"/>
+    <hyperlink ref="Q64" r:id="rId22" xr:uid="{00000000-0004-0000-0100-000015000000}"/>
+    <hyperlink ref="Q65" r:id="rId23" xr:uid="{00000000-0004-0000-0100-000016000000}"/>
+    <hyperlink ref="Q68" r:id="rId24" xr:uid="{00000000-0004-0000-0100-000017000000}"/>
+    <hyperlink ref="Q69" r:id="rId25" xr:uid="{00000000-0004-0000-0100-000018000000}"/>
+    <hyperlink ref="Q70" r:id="rId26" xr:uid="{00000000-0004-0000-0100-000019000000}"/>
+    <hyperlink ref="N115" r:id="rId27" xr:uid="{00000000-0004-0000-0100-00001A000000}"/>
+    <hyperlink ref="Q115" r:id="rId28" xr:uid="{00000000-0004-0000-0100-00001B000000}"/>
+    <hyperlink ref="N116" r:id="rId29" xr:uid="{00000000-0004-0000-0100-00001C000000}"/>
+    <hyperlink ref="Q116" r:id="rId30" xr:uid="{00000000-0004-0000-0100-00001D000000}"/>
+    <hyperlink ref="Q91" r:id="rId31" xr:uid="{00000000-0004-0000-0100-00001E000000}"/>
+    <hyperlink ref="Q92" r:id="rId32" xr:uid="{00000000-0004-0000-0100-00001F000000}"/>
+    <hyperlink ref="N56" r:id="rId33" xr:uid="{00000000-0004-0000-0100-000020000000}"/>
+    <hyperlink ref="Q56" r:id="rId34" xr:uid="{00000000-0004-0000-0100-000021000000}"/>
+    <hyperlink ref="N57" r:id="rId35" xr:uid="{00000000-0004-0000-0100-000022000000}"/>
+    <hyperlink ref="Q57" r:id="rId36" xr:uid="{00000000-0004-0000-0100-000023000000}"/>
+    <hyperlink ref="Q13" r:id="rId37" xr:uid="{00000000-0004-0000-0100-000024000000}"/>
+    <hyperlink ref="Q14" r:id="rId38" xr:uid="{00000000-0004-0000-0100-000025000000}"/>
+    <hyperlink ref="Q98" r:id="rId39" xr:uid="{00000000-0004-0000-0100-000026000000}"/>
+    <hyperlink ref="Q99" r:id="rId40" xr:uid="{00000000-0004-0000-0100-000027000000}"/>
+    <hyperlink ref="Q101" r:id="rId41" xr:uid="{00000000-0004-0000-0100-000028000000}"/>
+    <hyperlink ref="Q102" r:id="rId42" xr:uid="{00000000-0004-0000-0100-000029000000}"/>
+    <hyperlink ref="Q66" r:id="rId43" xr:uid="{00000000-0004-0000-0100-00002A000000}"/>
+    <hyperlink ref="N26" r:id="rId44" xr:uid="{00000000-0004-0000-0100-00002B000000}"/>
+    <hyperlink ref="Q26" r:id="rId45" xr:uid="{00000000-0004-0000-0100-00002C000000}"/>
+    <hyperlink ref="N27" r:id="rId46" xr:uid="{00000000-0004-0000-0100-00002D000000}"/>
+    <hyperlink ref="Q27" r:id="rId47" xr:uid="{00000000-0004-0000-0100-00002E000000}"/>
+    <hyperlink ref="Q54" r:id="rId48" xr:uid="{00000000-0004-0000-0100-00002F000000}"/>
+    <hyperlink ref="Q90" r:id="rId49" xr:uid="{00000000-0004-0000-0100-000030000000}"/>
+    <hyperlink ref="Q112" r:id="rId50" xr:uid="{00000000-0004-0000-0100-000031000000}"/>
+    <hyperlink ref="Q113" r:id="rId51" xr:uid="{00000000-0004-0000-0100-000032000000}"/>
+    <hyperlink ref="Q25" r:id="rId52" xr:uid="{00000000-0004-0000-0100-000033000000}"/>
+    <hyperlink ref="Q67" r:id="rId53" xr:uid="{00000000-0004-0000-0100-000034000000}"/>
+    <hyperlink ref="N86" r:id="rId54" xr:uid="{00000000-0004-0000-0100-000035000000}"/>
+    <hyperlink ref="N17" r:id="rId55" xr:uid="{00000000-0004-0000-0100-000036000000}"/>
+    <hyperlink ref="N18" r:id="rId56" xr:uid="{00000000-0004-0000-0100-000037000000}"/>
+    <hyperlink ref="N19" r:id="rId57" xr:uid="{00000000-0004-0000-0100-000038000000}"/>
+    <hyperlink ref="N20" r:id="rId58" xr:uid="{00000000-0004-0000-0100-000039000000}"/>
+    <hyperlink ref="N34" r:id="rId59" xr:uid="{00000000-0004-0000-0100-00003A000000}"/>
+    <hyperlink ref="N85" r:id="rId60" xr:uid="{00000000-0004-0000-0100-00003B000000}"/>
+    <hyperlink ref="N87" r:id="rId61" xr:uid="{00000000-0004-0000-0100-00003C000000}"/>
+    <hyperlink ref="N46" r:id="rId62" xr:uid="{00000000-0004-0000-0100-00003D000000}"/>
+    <hyperlink ref="N45" r:id="rId63" xr:uid="{00000000-0004-0000-0100-00003E000000}"/>
+    <hyperlink ref="M82" r:id="rId64" xr:uid="{00000000-0004-0000-0100-00003F000000}"/>
+    <hyperlink ref="N78" r:id="rId65" xr:uid="{00000000-0004-0000-0100-000040000000}"/>
+    <hyperlink ref="N52" r:id="rId66" xr:uid="{00000000-0004-0000-0100-000041000000}"/>
+    <hyperlink ref="N79" r:id="rId67" xr:uid="{00000000-0004-0000-0100-000042000000}"/>
+    <hyperlink ref="N92" r:id="rId68" xr:uid="{00000000-0004-0000-0100-000043000000}"/>
+    <hyperlink ref="N91" r:id="rId69" xr:uid="{00000000-0004-0000-0100-000044000000}"/>
+    <hyperlink ref="N101" r:id="rId70" xr:uid="{00000000-0004-0000-0100-000045000000}"/>
+    <hyperlink ref="N102" r:id="rId71" xr:uid="{00000000-0004-0000-0100-000046000000}"/>
+    <hyperlink ref="N25" r:id="rId72" xr:uid="{00000000-0004-0000-0100-000047000000}"/>
+    <hyperlink ref="N67" r:id="rId73" xr:uid="{00000000-0004-0000-0100-000048000000}"/>
+    <hyperlink ref="N50" r:id="rId74" xr:uid="{00000000-0004-0000-0100-000049000000}"/>
+    <hyperlink ref="N66" r:id="rId75" xr:uid="{00000000-0004-0000-0100-00004A000000}"/>
+    <hyperlink ref="N90" r:id="rId76" xr:uid="{00000000-0004-0000-0100-00004B000000}"/>
+    <hyperlink ref="N73" r:id="rId77" xr:uid="{00000000-0004-0000-0100-00004C000000}"/>
+    <hyperlink ref="N74" r:id="rId78" xr:uid="{00000000-0004-0000-0100-00004D000000}"/>
+    <hyperlink ref="N29" r:id="rId79" xr:uid="{00000000-0004-0000-0100-00004E000000}"/>
+    <hyperlink ref="N38" r:id="rId80" xr:uid="{00000000-0004-0000-0100-00004F000000}"/>
+    <hyperlink ref="N35" r:id="rId81" xr:uid="{00000000-0004-0000-0100-000050000000}"/>
+    <hyperlink ref="N15" r:id="rId82" location="basicdata" display="https://www.lsf.tu-dortmund.de/qisserver/rds?state=verpublish&amp;status=init&amp;vmfile=no&amp;publishid=214260&amp;moduleCall=webInfo&amp;publishConfFile=webInfo&amp;publishSubDir=veranstaltung - basicdata" xr:uid="{00000000-0004-0000-0100-000051000000}"/>
+    <hyperlink ref="N121" r:id="rId83" xr:uid="{00000000-0004-0000-0100-000052000000}"/>
+    <hyperlink ref="N48" r:id="rId84" xr:uid="{00000000-0004-0000-0100-000053000000}"/>
+    <hyperlink ref="N49" r:id="rId85" xr:uid="{00000000-0004-0000-0100-000054000000}"/>
+    <hyperlink ref="N122" r:id="rId86" xr:uid="{00000000-0004-0000-0100-000055000000}"/>
+    <hyperlink ref="N96" r:id="rId87" xr:uid="{00000000-0004-0000-0100-000056000000}"/>
+    <hyperlink ref="N95" r:id="rId88" xr:uid="{00000000-0004-0000-0100-000057000000}"/>
+    <hyperlink ref="N44" r:id="rId89" xr:uid="{00000000-0004-0000-0100-000058000000}"/>
+    <hyperlink ref="N42" r:id="rId90" xr:uid="{00000000-0004-0000-0100-000059000000}"/>
+    <hyperlink ref="N43" r:id="rId91" xr:uid="{00000000-0004-0000-0100-00005A000000}"/>
+    <hyperlink ref="N41" r:id="rId92" xr:uid="{00000000-0004-0000-0100-00005B000000}"/>
+    <hyperlink ref="N109" r:id="rId93" xr:uid="{00000000-0004-0000-0100-00005C000000}"/>
+    <hyperlink ref="Q103" r:id="rId94" location="page=77" display="http://www.wiwi.ruhr-uni-bochum.de/mam/content/dekanat/modulhandbuch__master_-wise_2018_19_21.08.2018.pdf - page=77" xr:uid="{00000000-0004-0000-0100-00005D000000}"/>
+    <hyperlink ref="Q88" r:id="rId95" xr:uid="{00000000-0004-0000-0100-00005E000000}"/>
+    <hyperlink ref="Q89" r:id="rId96" xr:uid="{00000000-0004-0000-0100-00005F000000}"/>
+    <hyperlink ref="N31" r:id="rId97" xr:uid="{00000000-0004-0000-0100-000060000000}"/>
+    <hyperlink ref="N32" r:id="rId98" xr:uid="{00000000-0004-0000-0100-000061000000}"/>
+    <hyperlink ref="N33" r:id="rId99" xr:uid="{00000000-0004-0000-0100-000062000000}"/>
+    <hyperlink ref="N24" r:id="rId100" xr:uid="{00000000-0004-0000-0100-000063000000}"/>
+    <hyperlink ref="N28" r:id="rId101" xr:uid="{00000000-0004-0000-0100-000064000000}"/>
+    <hyperlink ref="N36" r:id="rId102" xr:uid="{00000000-0004-0000-0100-000065000000}"/>
+    <hyperlink ref="N37" r:id="rId103" xr:uid="{00000000-0004-0000-0100-000066000000}"/>
+    <hyperlink ref="N93" r:id="rId104" xr:uid="{00000000-0004-0000-0100-000067000000}"/>
+    <hyperlink ref="N94" r:id="rId105" xr:uid="{00000000-0004-0000-0100-000068000000}"/>
+    <hyperlink ref="N47" r:id="rId106" xr:uid="{00000000-0004-0000-0100-000069000000}"/>
+    <hyperlink ref="N53" r:id="rId107" xr:uid="{00000000-0004-0000-0100-00006A000000}"/>
+    <hyperlink ref="N60" r:id="rId108" xr:uid="{00000000-0004-0000-0100-00006B000000}"/>
+    <hyperlink ref="N63" r:id="rId109" xr:uid="{00000000-0004-0000-0100-00006C000000}"/>
+    <hyperlink ref="N120" r:id="rId110" xr:uid="{00000000-0004-0000-0100-00006D000000}"/>
+    <hyperlink ref="N4" r:id="rId111" xr:uid="{00000000-0004-0000-0100-00006E000000}"/>
+    <hyperlink ref="N5" r:id="rId112" xr:uid="{00000000-0004-0000-0100-00006F000000}"/>
+    <hyperlink ref="N72" r:id="rId113" xr:uid="{00000000-0004-0000-0100-000070000000}"/>
+    <hyperlink ref="N108" r:id="rId114" xr:uid="{00000000-0004-0000-0100-000071000000}"/>
+    <hyperlink ref="Q10" r:id="rId115" xr:uid="{00000000-0004-0000-0100-000072000000}"/>
+    <hyperlink ref="N12" r:id="rId116" xr:uid="{00000000-0004-0000-0100-000073000000}"/>
+    <hyperlink ref="Q2" r:id="rId117" location="page=139" xr:uid="{00000000-0004-0000-0100-000074000000}"/>
+    <hyperlink ref="Q3" r:id="rId118" location="page=139" xr:uid="{00000000-0004-0000-0100-000075000000}"/>
+    <hyperlink ref="Q16" r:id="rId119" location="page=141" xr:uid="{00000000-0004-0000-0100-000076000000}"/>
+    <hyperlink ref="Q111" r:id="rId120" location="page=143" xr:uid="{00000000-0004-0000-0100-000077000000}"/>
+    <hyperlink ref="Q100" r:id="rId121" location="page=110" xr:uid="{00000000-0004-0000-0100-000078000000}"/>
+    <hyperlink ref="Q104" r:id="rId122" location="page=112" xr:uid="{00000000-0004-0000-0100-000079000000}"/>
+    <hyperlink ref="Q52" r:id="rId123" xr:uid="{00000000-0004-0000-0100-00007A000000}"/>
+    <hyperlink ref="Q4" r:id="rId124" xr:uid="{00000000-0004-0000-0100-00007B000000}"/>
+    <hyperlink ref="Q72" r:id="rId125" location="page=27" xr:uid="{00000000-0004-0000-0100-00007C000000}"/>
+    <hyperlink ref="Q82" r:id="rId126" xr:uid="{00000000-0004-0000-0100-00007D000000}"/>
+    <hyperlink ref="Q42" r:id="rId127" xr:uid="{00000000-0004-0000-0100-00007E000000}"/>
+    <hyperlink ref="Q44" r:id="rId128" xr:uid="{00000000-0004-0000-0100-00007F000000}"/>
+    <hyperlink ref="Q96" r:id="rId129" xr:uid="{00000000-0004-0000-0100-000080000000}"/>
+    <hyperlink ref="Q95" r:id="rId130" location="page=8" xr:uid="{00000000-0004-0000-0100-000081000000}"/>
+    <hyperlink ref="Q49" r:id="rId131" xr:uid="{00000000-0004-0000-0100-000082000000}"/>
+    <hyperlink ref="Q48" r:id="rId132" xr:uid="{00000000-0004-0000-0100-000083000000}"/>
+    <hyperlink ref="Q87" r:id="rId133" location="page=12" xr:uid="{00000000-0004-0000-0100-000084000000}"/>
+    <hyperlink ref="Q85" r:id="rId134" location="page=8" xr:uid="{00000000-0004-0000-0100-000085000000}"/>
+    <hyperlink ref="Q15" r:id="rId135" location="page=82" xr:uid="{00000000-0004-0000-0100-000086000000}"/>
+    <hyperlink ref="Q20" r:id="rId136" xr:uid="{00000000-0004-0000-0100-000087000000}"/>
+    <hyperlink ref="Q19" r:id="rId137" xr:uid="{00000000-0004-0000-0100-000088000000}"/>
+    <hyperlink ref="Q18" r:id="rId138" xr:uid="{00000000-0004-0000-0100-000089000000}"/>
+    <hyperlink ref="Q17" r:id="rId139" xr:uid="{00000000-0004-0000-0100-00008A000000}"/>
+    <hyperlink ref="Q86" r:id="rId140" xr:uid="{00000000-0004-0000-0100-00008B000000}"/>
+    <hyperlink ref="Q74" r:id="rId141" location="page=77" xr:uid="{00000000-0004-0000-0100-00008C000000}"/>
+    <hyperlink ref="Q73" r:id="rId142" location="page=75" xr:uid="{00000000-0004-0000-0100-00008D000000}"/>
+    <hyperlink ref="Q5" r:id="rId143" xr:uid="{00000000-0004-0000-0100-00008E000000}"/>
+    <hyperlink ref="N107" r:id="rId144" xr:uid="{00000000-0004-0000-0100-00008F000000}"/>
+    <hyperlink ref="N106" r:id="rId145" xr:uid="{00000000-0004-0000-0100-000090000000}"/>
+    <hyperlink ref="N105" r:id="rId146" xr:uid="{00000000-0004-0000-0100-000091000000}"/>
+    <hyperlink ref="N103" r:id="rId147" xr:uid="{00000000-0004-0000-0100-000092000000}"/>
+    <hyperlink ref="N104" r:id="rId148" xr:uid="{00000000-0004-0000-0100-000093000000}"/>
+    <hyperlink ref="N84" r:id="rId149" xr:uid="{00000000-0004-0000-0100-000094000000}"/>
+    <hyperlink ref="N58" r:id="rId150" xr:uid="{00000000-0004-0000-0100-000095000000}"/>
+    <hyperlink ref="N82" r:id="rId151" xr:uid="{00000000-0004-0000-0100-000096000000}"/>
+    <hyperlink ref="Q80" r:id="rId152" location="page=102" xr:uid="{00000000-0004-0000-0100-000097000000}"/>
+    <hyperlink ref="Q28" r:id="rId153" location="page=8" xr:uid="{00000000-0004-0000-0100-000098000000}"/>
+    <hyperlink ref="Q30" r:id="rId154" location="page=11" xr:uid="{00000000-0004-0000-0100-000099000000}"/>
+    <hyperlink ref="N23" r:id="rId155" xr:uid="{00000000-0004-0000-0100-00009A000000}"/>
+    <hyperlink ref="N118" r:id="rId156" xr:uid="{00000000-0004-0000-0100-00009B000000}"/>
+    <hyperlink ref="Q97" r:id="rId157" xr:uid="{00000000-0004-0000-0100-00009C000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78749999999999998" bottom="0.78749999999999998" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId158"/>
@@ -12608,46 +12611,46 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:F73"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" zoomScale="142" workbookViewId="0">
+    <sheetView zoomScale="142" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="2" width="45.875" customWidth="1"/>
+    <col min="1" max="2" width="45.83203125" customWidth="1"/>
     <col min="3" max="3" width="17" customWidth="1"/>
-    <col min="4" max="4" width="5.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="31.375" customWidth="1"/>
-    <col min="6" max="6" width="19.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.33203125" customWidth="1"/>
+    <col min="6" max="6" width="19.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A2" s="6" t="s">
+        <v>398</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>399</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="C2" s="7" t="s">
         <v>400</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>401</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>44</v>
       </c>
       <c r="E2" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="F2" s="7" t="s">
         <v>402</v>
       </c>
-      <c r="F2" s="7" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+    </row>
+    <row r="3" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
         <v>184</v>
       </c>
@@ -12661,13 +12664,13 @@
         <v>7.5</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A4" s="8" t="s">
         <v>192</v>
       </c>
@@ -12681,13 +12684,13 @@
         <v>9</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A5" s="8" t="s">
         <v>60</v>
       </c>
@@ -12701,18 +12704,18 @@
         <v>6</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A6" s="8" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C6" s="9" t="s">
         <v>68</v>
@@ -12721,18 +12724,18 @@
         <v>6</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A7" s="8" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C7" s="9" t="s">
         <v>68</v>
@@ -12741,13 +12744,13 @@
         <v>9</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A8" s="8" t="s">
         <v>199</v>
       </c>
@@ -12761,13 +12764,13 @@
         <v>7.5</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A9" s="8" t="s">
         <v>207</v>
       </c>
@@ -12781,18 +12784,18 @@
         <v>3.5</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A10" s="8" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C10" s="9" t="s">
         <v>68</v>
@@ -12801,13 +12804,13 @@
         <v>10</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="28" x14ac:dyDescent="0.15">
       <c r="A11" s="8" t="s">
         <v>218</v>
       </c>
@@ -12821,13 +12824,13 @@
         <v>4</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A12" s="8" t="s">
         <v>223</v>
       </c>
@@ -12841,13 +12844,13 @@
         <v>9</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A13" s="8" t="s">
         <v>69</v>
       </c>
@@ -12861,18 +12864,18 @@
         <v>6</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A14" s="8" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C14" s="9" t="s">
         <v>92</v>
@@ -12881,13 +12884,13 @@
         <v>8</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A15" s="8" t="s">
         <v>79</v>
       </c>
@@ -12901,18 +12904,18 @@
         <v>6</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A16" s="8" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C16" s="9" t="s">
         <v>68</v>
@@ -12921,18 +12924,18 @@
         <v>5</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A17" s="8" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C17" s="9" t="s">
         <v>68</v>
@@ -12941,13 +12944,13 @@
         <v>5</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A18" s="8" t="s">
         <v>229</v>
       </c>
@@ -12961,18 +12964,18 @@
         <v>7.5</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A19" s="8" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C19" s="9" t="s">
         <v>68</v>
@@ -12981,13 +12984,13 @@
         <v>5</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="F19" s="9" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A20" s="8" t="s">
         <v>235</v>
       </c>
@@ -13001,13 +13004,13 @@
         <v>10</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="F20" s="9" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A21" s="8" t="s">
         <v>94</v>
       </c>
@@ -13021,13 +13024,13 @@
         <v>6</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="F21" s="9" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A22" s="8" t="s">
         <v>98</v>
       </c>
@@ -13041,15 +13044,15 @@
         <v>6</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="F22" s="9" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A23" s="8" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B23" s="8" t="s">
         <v>219</v>
@@ -13061,13 +13064,13 @@
         <v>3.5</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="F23" s="9" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A24" s="8" t="s">
         <v>101</v>
       </c>
@@ -13081,13 +13084,13 @@
         <v>6</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="F24" s="9" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A25" s="8" t="s">
         <v>109</v>
       </c>
@@ -13101,13 +13104,13 @@
         <v>6</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="F25" s="9" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A26" s="8" t="s">
         <v>87</v>
       </c>
@@ -13121,13 +13124,13 @@
         <v>6</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="F26" s="9" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A27" s="8" t="s">
         <v>165</v>
       </c>
@@ -13141,13 +13144,13 @@
         <v>6</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="F27" s="9" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="38.25">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="42" x14ac:dyDescent="0.15">
       <c r="A28" s="8" t="s">
         <v>169</v>
       </c>
@@ -13161,18 +13164,18 @@
         <v>6</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="F28" s="9" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A29" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="B29" s="8" t="s">
         <v>244</v>
-      </c>
-      <c r="B29" s="8" t="s">
-        <v>245</v>
       </c>
       <c r="C29" s="9" t="s">
         <v>68</v>
@@ -13181,18 +13184,18 @@
         <v>7.5</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="F29" s="9" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A30" s="8" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C30" s="9" t="s">
         <v>68</v>
@@ -13201,13 +13204,13 @@
         <v>10</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="F30" s="9" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A31" s="8" t="s">
         <v>115</v>
       </c>
@@ -13221,13 +13224,13 @@
         <v>6</v>
       </c>
       <c r="E31" s="9" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="F31" s="9" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A32" s="8" t="s">
         <v>121</v>
       </c>
@@ -13241,18 +13244,18 @@
         <v>6</v>
       </c>
       <c r="E32" s="9" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="F32" s="9" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A33" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="B33" s="8" t="s">
         <v>250</v>
-      </c>
-      <c r="B33" s="8" t="s">
-        <v>251</v>
       </c>
       <c r="C33" s="9" t="s">
         <v>68</v>
@@ -13261,18 +13264,18 @@
         <v>7.5</v>
       </c>
       <c r="E33" s="9" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="F33" s="9" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A34" s="8" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C34" s="8" t="s">
         <v>92</v>
@@ -13281,13 +13284,13 @@
         <v>9</v>
       </c>
       <c r="E34" s="9" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="F34" s="8" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A35" s="8" t="s">
         <v>124</v>
       </c>
@@ -13301,13 +13304,13 @@
         <v>6</v>
       </c>
       <c r="E35" s="9" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="F35" s="9" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A36" s="8" t="s">
         <v>128</v>
       </c>
@@ -13321,31 +13324,31 @@
         <v>6</v>
       </c>
       <c r="E36" s="9" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="F36" s="9" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A37" s="8" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C37" s="9" t="s">
         <v>92</v>
       </c>
       <c r="D37" s="9"/>
       <c r="E37" s="9" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="F37" s="9" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A38" s="8" t="s">
         <v>133</v>
       </c>
@@ -13359,18 +13362,18 @@
         <v>10</v>
       </c>
       <c r="E38" s="9" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="F38" s="9" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A39" s="8" t="s">
+        <v>255</v>
+      </c>
+      <c r="B39" s="8" t="s">
         <v>256</v>
-      </c>
-      <c r="B39" s="8" t="s">
-        <v>257</v>
       </c>
       <c r="C39" s="9" t="s">
         <v>145</v>
@@ -13379,18 +13382,18 @@
         <v>7.5</v>
       </c>
       <c r="E39" s="9" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="F39" s="9" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A40" s="8" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C40" s="9" t="s">
         <v>68</v>
@@ -13399,18 +13402,18 @@
         <v>6</v>
       </c>
       <c r="E40" s="9" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="F40" s="9" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A41" s="8" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C41" s="9" t="s">
         <v>68</v>
@@ -13419,18 +13422,18 @@
         <v>10</v>
       </c>
       <c r="E41" s="9" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="F41" s="9" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A42" s="8" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C42" s="9" t="s">
         <v>92</v>
@@ -13439,13 +13442,13 @@
         <v>9</v>
       </c>
       <c r="E42" s="9" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="F42" s="8" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A43" s="8" t="s">
         <v>155</v>
       </c>
@@ -13459,13 +13462,13 @@
         <v>6</v>
       </c>
       <c r="E43" s="9" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="F43" s="9" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A44" s="8" t="s">
         <v>137</v>
       </c>
@@ -13479,13 +13482,13 @@
         <v>6</v>
       </c>
       <c r="E44" s="9" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="F44" s="9" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A45" s="8" t="s">
         <v>141</v>
       </c>
@@ -13499,18 +13502,18 @@
         <v>6</v>
       </c>
       <c r="E45" s="9" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="F45" s="9" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A46" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C46" s="9" t="s">
         <v>68</v>
@@ -13519,18 +13522,18 @@
         <v>6</v>
       </c>
       <c r="E46" s="9" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="F46" s="9" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A47" s="8" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C47" s="9" t="s">
         <v>68</v>
@@ -13539,13 +13542,13 @@
         <v>10</v>
       </c>
       <c r="E47" s="9" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="F47" s="9" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A48" s="8" t="s">
         <v>150</v>
       </c>
@@ -13559,15 +13562,15 @@
         <v>6</v>
       </c>
       <c r="E48" s="9" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="F48" s="9" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A49" s="8" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B49" s="8" t="s">
         <v>212</v>
@@ -13579,15 +13582,15 @@
         <v>4</v>
       </c>
       <c r="E49" s="9" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="F49" s="9" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A50" s="8" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B50" s="8" t="s">
         <v>212</v>
@@ -13599,13 +13602,13 @@
         <v>3.5</v>
       </c>
       <c r="E50" s="9" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="F50" s="9" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" ht="25.5">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="28" x14ac:dyDescent="0.15">
       <c r="A51" s="8" t="s">
         <v>147</v>
       </c>
@@ -13619,18 +13622,18 @@
         <v>6</v>
       </c>
       <c r="E51" s="9" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="F51" s="9" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" ht="25.5">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="28" x14ac:dyDescent="0.15">
       <c r="A52" s="8" t="s">
+        <v>260</v>
+      </c>
+      <c r="B52" s="8" t="s">
         <v>261</v>
-      </c>
-      <c r="B52" s="8" t="s">
-        <v>262</v>
       </c>
       <c r="C52" s="9" t="s">
         <v>68</v>
@@ -13639,18 +13642,18 @@
         <v>4</v>
       </c>
       <c r="E52" s="9" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="F52" s="9" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A53" s="8" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C53" s="9" t="s">
         <v>92</v>
@@ -13659,18 +13662,18 @@
         <v>9</v>
       </c>
       <c r="E53" s="9" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="F53" s="9" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A54" s="8" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C54" s="9" t="s">
         <v>68</v>
@@ -13679,18 +13682,18 @@
         <v>5</v>
       </c>
       <c r="E54" s="9" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="F54" s="9" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A55" s="8" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C55" s="9" t="s">
         <v>68</v>
@@ -13699,18 +13702,18 @@
         <v>5</v>
       </c>
       <c r="E55" s="9" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="F55" s="9" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" ht="25.5">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="28" x14ac:dyDescent="0.15">
       <c r="A56" s="8" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C56" s="9" t="s">
         <v>92</v>
@@ -13719,15 +13722,15 @@
         <v>4</v>
       </c>
       <c r="E56" s="9" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="F56" s="9" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A57" s="8" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B57" s="8" t="s">
         <v>219</v>
@@ -13739,18 +13742,18 @@
         <v>4</v>
       </c>
       <c r="E57" s="9" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="F57" s="9" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A58" s="8" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B58" s="8" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C58" s="9" t="s">
         <v>68</v>
@@ -13759,18 +13762,18 @@
         <v>10</v>
       </c>
       <c r="E58" s="9" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="F58" s="9" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" ht="38.25">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="42" x14ac:dyDescent="0.15">
       <c r="A59" s="8" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C59" s="9" t="s">
         <v>68</v>
@@ -13779,18 +13782,18 @@
         <v>5</v>
       </c>
       <c r="E59" s="9" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="F59" s="9" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A60" s="8" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C60" s="9" t="s">
         <v>92</v>
@@ -13799,13 +13802,13 @@
         <v>9</v>
       </c>
       <c r="E60" s="9" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="F60" s="9" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A61" s="8" t="s">
         <v>173</v>
       </c>
@@ -13819,15 +13822,15 @@
         <v>6</v>
       </c>
       <c r="E61" s="9" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="F61" s="9" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A62" s="8" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B62" s="8" t="s">
         <v>70</v>
@@ -13839,18 +13842,18 @@
         <v>6</v>
       </c>
       <c r="E62" s="9" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="F62" s="9" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" ht="25.5">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="28" x14ac:dyDescent="0.15">
       <c r="A63" s="8" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C63" s="9" t="s">
         <v>68</v>
@@ -13859,18 +13862,18 @@
         <v>5</v>
       </c>
       <c r="E63" s="9" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="F63" s="9" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A64" s="8" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B64" s="8" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C64" s="9" t="s">
         <v>68</v>
@@ -13879,18 +13882,18 @@
         <v>5</v>
       </c>
       <c r="E64" s="9" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="F64" s="9" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A65" s="8" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C65" s="9" t="s">
         <v>68</v>
@@ -13899,18 +13902,18 @@
         <v>5</v>
       </c>
       <c r="E65" s="9" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="F65" s="9" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A66" s="8" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B66" s="8" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C66" s="9" t="s">
         <v>92</v>
@@ -13919,13 +13922,13 @@
         <v>9</v>
       </c>
       <c r="E66" s="9" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="F66" s="8" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A67" s="8" t="s">
         <v>175</v>
       </c>
@@ -13939,13 +13942,13 @@
         <v>6</v>
       </c>
       <c r="E67" s="9" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="F67" s="9" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A68" s="8" t="s">
         <v>160</v>
       </c>
@@ -13959,18 +13962,18 @@
         <v>6</v>
       </c>
       <c r="E68" s="9" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="F68" s="9" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A69" s="8" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B69" s="8" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C69" s="9" t="s">
         <v>92</v>
@@ -13979,13 +13982,13 @@
         <v>9</v>
       </c>
       <c r="E69" s="9" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="F69" s="9" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" ht="25.5">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" ht="28" x14ac:dyDescent="0.15">
       <c r="A70" s="8" t="s">
         <v>179</v>
       </c>
@@ -13999,18 +14002,18 @@
         <v>6</v>
       </c>
       <c r="E70" s="9" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="F70" s="9" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A71" s="8" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B71" s="8" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C71" s="9" t="s">
         <v>92</v>
@@ -14019,18 +14022,18 @@
         <v>10</v>
       </c>
       <c r="E71" s="9" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F71" s="9" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A72" s="8" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B72" s="8" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C72" s="9" t="s">
         <v>68</v>
@@ -14039,18 +14042,18 @@
         <v>9</v>
       </c>
       <c r="E72" s="9" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="F72" s="9" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A73" s="8" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B73" s="8" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C73" s="9" t="s">
         <v>92</v>
@@ -14059,19 +14062,19 @@
         <v>8</v>
       </c>
       <c r="E73" s="9" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="F73" s="9" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:F73">
-    <sortState ref="A3:F73">
+  <autoFilter ref="A2:F73" xr:uid="{00000000-0009-0000-0000-000002000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:F73">
       <sortCondition ref="A2:A73"/>
     </sortState>
   </autoFilter>
-  <sortState ref="A3:F69">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:F69">
     <sortCondition ref="B3:B69"/>
   </sortState>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/KurseMscECMX.xlsx
+++ b/KurseMscECMX.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/martin/Git projects/ECMTX_course_overview/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4511989D-9024-0C4E-B57A-5A5492F63226}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{714D6C2F-571C-5142-8E86-27957E9EA167}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,7 +19,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Kursliste!$A$1:$U$122</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Liste!$A$1:$C$33</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Liste!$A$1:$C$34</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Übersicht Winter 19'!$A$2:$F$73</definedName>
     <definedName name="Anfangszeit" localSheetId="0">#REF!</definedName>
     <definedName name="Anfangszeit">#REF!</definedName>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2297" uniqueCount="589">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2298" uniqueCount="590">
   <si>
     <t>FECMX-D</t>
   </si>
@@ -774,9 +774,6 @@
     <t>ECMX</t>
   </si>
   <si>
-    <t>NA</t>
-  </si>
-  <si>
     <t>Economics of Information</t>
   </si>
   <si>
@@ -1228,9 +1225,6 @@
   </si>
   <si>
     <t>EX-WDB</t>
-  </si>
-  <si>
-    <t>Dr. Uwe Ligges, Dr. Thomas Liebig</t>
   </si>
   <si>
     <t>https://www.lsf.tu-dortmund.de/qisserver/rds?state=verpublish&amp;status=init&amp;vmfile=no&amp;publishid=216376&amp;moduleCall=webInfo&amp;publishConfFile=webInfo&amp;publishSubDir=veranstaltung</t>
@@ -1866,6 +1860,15 @@
   </si>
   <si>
     <t>https://www.statistik.tu-dortmund.de/fileadmin/user_upload/Studium/Studiengaenge-Infos/ModHb_MSc_DaSc_2020.pdf#page=9</t>
+  </si>
+  <si>
+    <t>Lecturers from Faculty of Statistics</t>
+  </si>
+  <si>
+    <t>Faculty of Statistics</t>
+  </si>
+  <si>
+    <t>https://www.statistik.tu-dortmund.de/lectureoverviewandtimetable.html</t>
   </si>
 </sst>
 </file>
@@ -2344,7 +2347,15 @@
     <cellStyle name="Table_Details" xfId="2" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
     <cellStyle name="Uhrzeit" xfId="3" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF538C0E"/>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -2741,11 +2752,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:ALV106"/>
+  <dimension ref="A1:ALV107"/>
   <sheetViews>
-    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A34" sqref="A34"/>
+    <sheetView zoomScaleNormal="60" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -2761,10 +2772,10 @@
         <v>48</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="2" spans="1:3" s="4" customFormat="1" ht="65" customHeight="1" x14ac:dyDescent="0.15">
@@ -2772,32 +2783,32 @@
         <v>186</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="C2" s="52" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
     </row>
     <row r="3" spans="1:3" s="4" customFormat="1" ht="65" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="10" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="C3" s="52" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="4" spans="1:3" s="4" customFormat="1" ht="65" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="10" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="C4" s="52" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
     </row>
     <row r="5" spans="1:3" s="4" customFormat="1" ht="65" customHeight="1" x14ac:dyDescent="0.15">
@@ -2805,10 +2816,10 @@
         <v>220</v>
       </c>
       <c r="B5" s="23" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="C5" s="23" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
     </row>
     <row r="6" spans="1:3" s="4" customFormat="1" ht="65" customHeight="1" x14ac:dyDescent="0.15">
@@ -2816,21 +2827,21 @@
         <v>224</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="C6" s="52" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
     </row>
     <row r="7" spans="1:3" s="4" customFormat="1" ht="65" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="10" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="C7" s="52" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
     </row>
     <row r="8" spans="1:3" s="4" customFormat="1" ht="65" customHeight="1" x14ac:dyDescent="0.15">
@@ -2838,32 +2849,32 @@
         <v>231</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="C8" s="52" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="9" spans="1:3" s="4" customFormat="1" ht="65" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="10" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="C9" s="52" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
     </row>
     <row r="10" spans="1:3" s="4" customFormat="1" ht="65" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="10" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="C10" s="52" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
     </row>
     <row r="11" spans="1:3" s="4" customFormat="1" ht="65" customHeight="1" x14ac:dyDescent="0.15">
@@ -2871,249 +2882,255 @@
         <v>213</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="C11" s="52" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="12" spans="1:3" s="4" customFormat="1" ht="65" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="10" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="C12" s="52" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="13" spans="1:3" s="4" customFormat="1" ht="65" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="10" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="C13" s="52" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
     </row>
     <row r="14" spans="1:3" s="4" customFormat="1" ht="65" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="10" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="C14" s="52" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
     </row>
     <row r="15" spans="1:3" s="4" customFormat="1" ht="65" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="10" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
     </row>
     <row r="16" spans="1:3" s="4" customFormat="1" ht="65" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="10" t="s">
-        <v>386</v>
+        <v>526</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>508</v>
+        <v>588</v>
       </c>
       <c r="C16" s="52" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="17" spans="1:3" s="4" customFormat="1" ht="65" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="11" t="s">
-        <v>397</v>
-      </c>
-      <c r="B17" s="11" t="s">
-        <v>470</v>
-      </c>
-      <c r="C17" s="51" t="s">
-        <v>465</v>
+      <c r="A17" s="10" t="s">
+        <v>587</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>588</v>
+      </c>
+      <c r="C17" s="52" t="s">
+        <v>589</v>
       </c>
     </row>
     <row r="18" spans="1:3" s="4" customFormat="1" ht="65" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="12" t="s">
-        <v>290</v>
-      </c>
-      <c r="B18" s="12" t="s">
-        <v>476</v>
-      </c>
-      <c r="C18" s="53" t="s">
-        <v>477</v>
+      <c r="A18" s="11" t="s">
+        <v>395</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>468</v>
+      </c>
+      <c r="C18" s="51" t="s">
+        <v>463</v>
       </c>
     </row>
     <row r="19" spans="1:3" s="4" customFormat="1" ht="65" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="B19" s="11" t="s">
-        <v>472</v>
-      </c>
-      <c r="C19" s="51" t="s">
-        <v>471</v>
+      <c r="A19" s="12" t="s">
+        <v>289</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>474</v>
+      </c>
+      <c r="C19" s="53" t="s">
+        <v>475</v>
       </c>
     </row>
     <row r="20" spans="1:3" s="4" customFormat="1" ht="65" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>470</v>
+      </c>
+      <c r="C20" s="51" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" s="4" customFormat="1" ht="65" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="B20" s="11" t="s">
-        <v>483</v>
-      </c>
-      <c r="C20" s="51" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" s="4" customFormat="1" ht="65" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="12" t="s">
-        <v>294</v>
-      </c>
-      <c r="B21" s="12" t="s">
-        <v>484</v>
-      </c>
-      <c r="C21" s="53" t="s">
-        <v>485</v>
+      <c r="B21" s="11" t="s">
+        <v>481</v>
+      </c>
+      <c r="C21" s="51" t="s">
+        <v>480</v>
       </c>
     </row>
     <row r="22" spans="1:3" s="4" customFormat="1" ht="65" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="12" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>513</v>
+        <v>482</v>
       </c>
       <c r="C22" s="53" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
     </row>
     <row r="23" spans="1:3" s="4" customFormat="1" ht="65" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="11" t="s">
-        <v>324</v>
-      </c>
-      <c r="B23" s="11" t="s">
-        <v>491</v>
-      </c>
-      <c r="C23" s="51" t="s">
-        <v>492</v>
+      <c r="A23" s="12" t="s">
+        <v>296</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>511</v>
+      </c>
+      <c r="C23" s="53" t="s">
+        <v>486</v>
       </c>
     </row>
     <row r="24" spans="1:3" s="4" customFormat="1" ht="65" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="11" t="s">
-        <v>102</v>
+        <v>323</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="C24" s="51" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
     </row>
     <row r="25" spans="1:3" s="4" customFormat="1" ht="65" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="11" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="C25" s="51" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
     </row>
     <row r="26" spans="1:3" s="4" customFormat="1" ht="65" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="11" t="s">
-        <v>134</v>
+        <v>88</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="C26" s="51" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
     </row>
     <row r="27" spans="1:3" s="4" customFormat="1" ht="65" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="11" t="s">
-        <v>116</v>
+        <v>134</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
       <c r="C27" s="51" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
     </row>
     <row r="28" spans="1:3" s="4" customFormat="1" ht="65" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>501</v>
+      </c>
+      <c r="C28" s="51" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" s="4" customFormat="1" ht="65" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="11" t="s">
         <v>129</v>
       </c>
-      <c r="B28" s="11" t="s">
-        <v>505</v>
-      </c>
-      <c r="C28" s="51" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" s="4" customFormat="1" ht="65" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="12" t="s">
-        <v>523</v>
-      </c>
-      <c r="B29" s="12" t="s">
-        <v>524</v>
-      </c>
-      <c r="C29" s="53" t="s">
-        <v>525</v>
+      <c r="B29" s="11" t="s">
+        <v>503</v>
+      </c>
+      <c r="C29" s="51" t="s">
+        <v>504</v>
       </c>
     </row>
     <row r="30" spans="1:3" s="4" customFormat="1" ht="65" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="12" t="s">
-        <v>304</v>
+        <v>521</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>511</v>
+        <v>522</v>
       </c>
       <c r="C30" s="53" t="s">
-        <v>512</v>
+        <v>523</v>
       </c>
     </row>
     <row r="31" spans="1:3" s="4" customFormat="1" ht="65" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="12" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>484</v>
+        <v>509</v>
       </c>
       <c r="C31" s="53" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" s="1" customFormat="1" ht="65" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="11" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" s="4" customFormat="1" ht="65" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="12" t="s">
+        <v>309</v>
+      </c>
+      <c r="B32" s="12" t="s">
+        <v>482</v>
+      </c>
+      <c r="C32" s="53" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" s="1" customFormat="1" ht="65" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="11" t="s">
         <v>181</v>
       </c>
-      <c r="B32" s="11" t="s">
-        <v>516</v>
-      </c>
-      <c r="C32" s="11" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" s="1" customFormat="1" ht="65" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="34" spans="1:3" s="1" customFormat="1" ht="65" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34"/>
-      <c r="B34"/>
-      <c r="C34"/>
-    </row>
+      <c r="B33" s="11" t="s">
+        <v>514</v>
+      </c>
+      <c r="C33" s="11" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" s="1" customFormat="1" ht="65" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="35" spans="1:3" s="1" customFormat="1" ht="65" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35"/>
       <c r="B35"/>
@@ -3444,7 +3461,7 @@
       <c r="B100"/>
       <c r="C100"/>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:3" s="1" customFormat="1" ht="65" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A101"/>
       <c r="B101"/>
       <c r="C101"/>
@@ -3474,14 +3491,19 @@
       <c r="B106"/>
       <c r="C106"/>
     </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A107"/>
+      <c r="B107"/>
+      <c r="C107"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:C33" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C34">
-      <sortCondition sortBy="cellColor" ref="A1:A34" dxfId="0"/>
+  <autoFilter ref="A1:C34" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C35">
+      <sortCondition sortBy="cellColor" ref="A1:A35" dxfId="1"/>
     </sortState>
   </autoFilter>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select a day from the list. Select CANCEL, and then press ALT+DOWN ARROW to select from the drop-down list" sqref="M42" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Select a day from the list. Select CANCEL, and then press ALT+DOWN ARROW to select from the drop-down list" sqref="M43" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"SONNTAG,MONTAG,DIENSTAG,MITTWOCH,DONNERSTAG,FREITAG,SAMSTAG"</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -3496,10 +3518,10 @@
   <dimension ref="A1:AMN122"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="J95" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="K72" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="O98" sqref="O98"/>
+      <selection pane="bottomRight" activeCell="O77" sqref="O77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -3534,7 +3556,7 @@
         <v>45</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="C1" s="13" t="s">
         <v>46</v>
@@ -3570,13 +3592,13 @@
         <v>56</v>
       </c>
       <c r="N1" s="13" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="O1" s="21" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="P1" s="21" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="Q1" s="13" t="s">
         <v>57</v>
@@ -3591,25 +3613,25 @@
         <v>59</v>
       </c>
       <c r="U1" s="13" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="2" spans="1:21" s="24" customFormat="1" ht="65" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="31" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B2" s="38" t="str">
-        <f>VLOOKUP($E2,Liste!$A$2:$C$32,2,FALSE)</f>
+        <f>VLOOKUP($E2,Liste!$A$2:$C$33,2,FALSE)</f>
         <v>Finanzwissenschaft und Wirtschaftspolitik</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D2" s="16" t="s">
         <v>71</v>
       </c>
       <c r="E2" s="16" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="F2" s="16" t="s">
         <v>25</v>
@@ -3618,7 +3640,7 @@
         <v>107</v>
       </c>
       <c r="H2" s="16" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="I2" s="32">
         <v>0.33333333333333298</v>
@@ -3627,24 +3649,24 @@
         <v>0.5</v>
       </c>
       <c r="K2" s="16" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="L2" s="16" t="s">
         <v>75</v>
       </c>
       <c r="M2" s="33"/>
       <c r="N2" s="16" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="O2" s="34">
         <v>16</v>
       </c>
       <c r="P2" s="20" t="str">
-        <f>VLOOKUP($B2,Liste!$B$2:$C$32,2,FALSE)</f>
+        <f>VLOOKUP($B2,Liste!$B$2:$C$33,2,FALSE)</f>
         <v>https://www.wiwi.ruhr-uni-bochum.de/fiwipo/index.html.de</v>
       </c>
       <c r="Q2" s="16" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="R2" s="16" t="s">
         <v>68</v>
@@ -3653,28 +3675,28 @@
         <v>10</v>
       </c>
       <c r="T2" s="16" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="U2" s="16" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="3" spans="1:21" s="24" customFormat="1" ht="65" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="31" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B3" s="20" t="str">
-        <f>VLOOKUP($E3,Liste!$A$2:$C$32,2,FALSE)</f>
+        <f>VLOOKUP($E3,Liste!$A$2:$C$33,2,FALSE)</f>
         <v>Finanzwissenschaft und Wirtschaftspolitik</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D3" s="16" t="s">
         <v>77</v>
       </c>
       <c r="E3" s="16" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="F3" s="16" t="s">
         <v>26</v>
@@ -3683,7 +3705,7 @@
         <v>107</v>
       </c>
       <c r="H3" s="16" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="I3" s="32">
         <v>0.5</v>
@@ -3692,26 +3714,26 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="K3" s="16" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="L3" s="16" t="s">
         <v>75</v>
       </c>
       <c r="M3" s="33" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="N3" s="16" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="O3" s="34">
         <v>16</v>
       </c>
       <c r="P3" s="20" t="str">
-        <f>VLOOKUP($B3,Liste!$B$2:$C$32,2,FALSE)</f>
+        <f>VLOOKUP($B3,Liste!$B$2:$C$33,2,FALSE)</f>
         <v>https://www.wiwi.ruhr-uni-bochum.de/fiwipo/index.html.de</v>
       </c>
       <c r="Q3" s="16" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="R3" s="16" t="s">
         <v>68</v>
@@ -3720,10 +3742,10 @@
         <v>10</v>
       </c>
       <c r="T3" s="16" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="U3" s="16" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="4" spans="1:21" s="50" customFormat="1" ht="65" customHeight="1" x14ac:dyDescent="0.15">
@@ -3731,7 +3753,7 @@
         <v>192</v>
       </c>
       <c r="B4" s="49" t="str">
-        <f>VLOOKUP($E4,Liste!$A$2:$C$32,2,FALSE)</f>
+        <f>VLOOKUP($E4,Liste!$A$2:$C$33,2,FALSE)</f>
         <v>Ökonometrie und Statistik</v>
       </c>
       <c r="C4" s="23" t="s">
@@ -3741,7 +3763,7 @@
         <v>71</v>
       </c>
       <c r="E4" s="23" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="F4" s="14" t="s">
         <v>193</v>
@@ -3766,13 +3788,13 @@
       </c>
       <c r="M4" s="47"/>
       <c r="N4" s="49" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="O4" s="23" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="P4" s="49" t="str">
-        <f>VLOOKUP($B4,Liste!$B$2:$C$32,2,FALSE)</f>
+        <f>VLOOKUP($B4,Liste!$B$2:$C$33,2,FALSE)</f>
         <v>https://www.statistik.tu-dortmund.de/oekonometrie.html</v>
       </c>
       <c r="Q4" s="49" t="s">
@@ -3785,10 +3807,10 @@
         <v>9</v>
       </c>
       <c r="T4" s="23" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="U4" s="23" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="5" spans="1:21" s="50" customFormat="1" ht="65" customHeight="1" x14ac:dyDescent="0.15">
@@ -3796,7 +3818,7 @@
         <v>192</v>
       </c>
       <c r="B5" s="49" t="str">
-        <f>VLOOKUP($E5,Liste!$A$2:$C$32,2,FALSE)</f>
+        <f>VLOOKUP($E5,Liste!$A$2:$C$33,2,FALSE)</f>
         <v>Ökonometrie und Statistik</v>
       </c>
       <c r="C5" s="23" t="s">
@@ -3806,7 +3828,7 @@
         <v>77</v>
       </c>
       <c r="E5" s="23" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="F5" s="14" t="s">
         <v>20</v>
@@ -3821,7 +3843,7 @@
         <v>189</v>
       </c>
       <c r="J5" s="23" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="K5" s="23" t="s">
         <v>65</v>
@@ -3831,13 +3853,13 @@
       </c>
       <c r="M5" s="23"/>
       <c r="N5" s="49" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="O5" s="23" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="P5" s="49" t="str">
-        <f>VLOOKUP($B5,Liste!$B$2:$C$32,2,FALSE)</f>
+        <f>VLOOKUP($B5,Liste!$B$2:$C$33,2,FALSE)</f>
         <v>https://www.statistik.tu-dortmund.de/oekonometrie.html</v>
       </c>
       <c r="Q5" s="49" t="s">
@@ -3850,31 +3872,31 @@
         <v>9</v>
       </c>
       <c r="T5" s="23" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="U5" s="23" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="6" spans="1:21" s="42" customFormat="1" ht="65" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="47" t="s">
-        <v>287</v>
-      </c>
-      <c r="B6" s="48" t="e">
-        <f>VLOOKUP($E6,Liste!$A$2:$C$32,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>286</v>
+      </c>
+      <c r="B6" s="48" t="str">
+        <f>VLOOKUP($E6,Liste!$A$2:$C$33,2,FALSE)</f>
+        <v>Faculty of Statistics</v>
       </c>
       <c r="C6" s="47" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D6" s="47" t="s">
         <v>77</v>
       </c>
       <c r="E6" s="47" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="F6" s="47" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="G6" s="47" t="s">
         <v>63</v>
@@ -3889,21 +3911,21 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="K6" s="47" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="L6" s="47" t="s">
         <v>75</v>
       </c>
       <c r="M6" s="47"/>
       <c r="N6" s="48" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="O6" s="47" t="s">
-        <v>564</v>
-      </c>
-      <c r="P6" s="48" t="e">
-        <f>VLOOKUP($B6,Liste!$B$2:$C$32,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>562</v>
+      </c>
+      <c r="P6" s="48" t="str">
+        <f>VLOOKUP($B6,Liste!$B$2:$C$33,2,FALSE)</f>
+        <v>https://www-ai.cs.tu-dortmund.de/index.html</v>
       </c>
       <c r="Q6" s="48"/>
       <c r="R6" s="47" t="s">
@@ -3913,31 +3935,31 @@
         <v>8</v>
       </c>
       <c r="T6" s="47" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="U6" s="47" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="7" spans="1:21" s="42" customFormat="1" ht="65" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="47" t="s">
-        <v>287</v>
-      </c>
-      <c r="B7" s="48" t="e">
-        <f>VLOOKUP($E7,Liste!$A$2:$C$32,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>286</v>
+      </c>
+      <c r="B7" s="48" t="str">
+        <f>VLOOKUP($E7,Liste!$A$2:$C$33,2,FALSE)</f>
+        <v>Faculty of Statistics</v>
       </c>
       <c r="C7" s="47" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D7" s="47" t="s">
         <v>77</v>
       </c>
       <c r="E7" s="47" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="F7" s="47" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="G7" s="47" t="s">
         <v>86</v>
@@ -3952,21 +3974,21 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="K7" s="47" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="L7" s="47" t="s">
         <v>75</v>
       </c>
       <c r="M7" s="47"/>
       <c r="N7" s="48" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="O7" s="47" t="s">
-        <v>564</v>
-      </c>
-      <c r="P7" s="48" t="e">
-        <f>VLOOKUP($B7,Liste!$B$2:$C$32,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>562</v>
+      </c>
+      <c r="P7" s="48" t="str">
+        <f>VLOOKUP($B7,Liste!$B$2:$C$33,2,FALSE)</f>
+        <v>https://www-ai.cs.tu-dortmund.de/index.html</v>
       </c>
       <c r="Q7" s="48"/>
       <c r="R7" s="47" t="s">
@@ -3976,31 +3998,31 @@
         <v>8</v>
       </c>
       <c r="T7" s="47" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="U7" s="47" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="8" spans="1:21" s="42" customFormat="1" ht="65" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="47" t="s">
-        <v>287</v>
-      </c>
-      <c r="B8" s="48" t="e">
-        <f>VLOOKUP($E8,Liste!$A$2:$C$32,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>286</v>
+      </c>
+      <c r="B8" s="48" t="str">
+        <f>VLOOKUP($E8,Liste!$A$2:$C$33,2,FALSE)</f>
+        <v>Faculty of Statistics</v>
       </c>
       <c r="C8" s="47" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D8" s="47" t="s">
         <v>71</v>
       </c>
       <c r="E8" s="47" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="F8" s="47" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="G8" s="47" t="s">
         <v>63</v>
@@ -4015,21 +4037,21 @@
         <v>0.5</v>
       </c>
       <c r="K8" s="47" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="L8" s="47" t="s">
         <v>75</v>
       </c>
       <c r="M8" s="47"/>
       <c r="N8" s="48" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="O8" s="47" t="s">
-        <v>564</v>
-      </c>
-      <c r="P8" s="48" t="e">
-        <f>VLOOKUP($B8,Liste!$B$2:$C$32,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>562</v>
+      </c>
+      <c r="P8" s="48" t="str">
+        <f>VLOOKUP($B8,Liste!$B$2:$C$33,2,FALSE)</f>
+        <v>https://www-ai.cs.tu-dortmund.de/index.html</v>
       </c>
       <c r="Q8" s="48"/>
       <c r="R8" s="47" t="s">
@@ -4039,31 +4061,31 @@
         <v>8</v>
       </c>
       <c r="T8" s="47" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="U8" s="47" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="9" spans="1:21" s="42" customFormat="1" ht="65" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="47" t="s">
-        <v>287</v>
-      </c>
-      <c r="B9" s="48" t="e">
-        <f>VLOOKUP($E9,Liste!$A$2:$C$32,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>286</v>
+      </c>
+      <c r="B9" s="48" t="str">
+        <f>VLOOKUP($E9,Liste!$A$2:$C$33,2,FALSE)</f>
+        <v>Faculty of Statistics</v>
       </c>
       <c r="C9" s="47" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D9" s="47" t="s">
         <v>71</v>
       </c>
       <c r="E9" s="47" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="F9" s="47" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="G9" s="47" t="s">
         <v>120</v>
@@ -4078,21 +4100,21 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="K9" s="47" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="L9" s="47" t="s">
         <v>75</v>
       </c>
       <c r="M9" s="47"/>
       <c r="N9" s="48" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="O9" s="47" t="s">
-        <v>564</v>
-      </c>
-      <c r="P9" s="48" t="e">
-        <f>VLOOKUP($B9,Liste!$B$2:$C$32,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>562</v>
+      </c>
+      <c r="P9" s="48" t="str">
+        <f>VLOOKUP($B9,Liste!$B$2:$C$33,2,FALSE)</f>
+        <v>https://www-ai.cs.tu-dortmund.de/index.html</v>
       </c>
       <c r="Q9" s="48"/>
       <c r="R9" s="47" t="s">
@@ -4102,10 +4124,10 @@
         <v>8</v>
       </c>
       <c r="T9" s="47" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="U9" s="47" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="10" spans="1:21" s="24" customFormat="1" ht="65" customHeight="1" x14ac:dyDescent="0.15">
@@ -4113,7 +4135,7 @@
         <v>60</v>
       </c>
       <c r="B10" s="19" t="str">
-        <f>VLOOKUP($E10,Liste!$A$2:$C$32,2,FALSE)</f>
+        <f>VLOOKUP($E10,Liste!$A$2:$C$33,2,FALSE)</f>
         <v>Chair of Environmental Economics,
  esp. Economics of Renewable Energy</v>
       </c>
@@ -4124,7 +4146,7 @@
         <v>61</v>
       </c>
       <c r="E10" s="15" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="F10" s="15" t="s">
         <v>62</v>
@@ -4142,20 +4164,20 @@
         <v>0.66666666666666696</v>
       </c>
       <c r="K10" s="15" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="L10" s="15" t="s">
         <v>75</v>
       </c>
       <c r="M10" s="15"/>
       <c r="N10" s="27" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="O10" s="15" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="P10" s="27" t="str">
-        <f>VLOOKUP($B10,Liste!$B$2:$C$32,2,FALSE)</f>
+        <f>VLOOKUP($B10,Liste!$B$2:$C$33,2,FALSE)</f>
         <v>https://www.uee.wiwi.uni-due.de/en/</v>
       </c>
       <c r="Q10" s="27" t="s">
@@ -4168,10 +4190,10 @@
         <v>6</v>
       </c>
       <c r="T10" s="15" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="U10" s="15" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="11" spans="1:21" s="24" customFormat="1" ht="65" customHeight="1" x14ac:dyDescent="0.15">
@@ -4179,7 +4201,7 @@
         <v>98</v>
       </c>
       <c r="B11" s="19" t="str">
-        <f>VLOOKUP($E11,Liste!$A$2:$C$32,2,FALSE)</f>
+        <f>VLOOKUP($E11,Liste!$A$2:$C$33,2,FALSE)</f>
         <v>Chair of Environmental Economics,
  esp. Economics of Renewable Energy</v>
       </c>
@@ -4190,7 +4212,7 @@
         <v>71</v>
       </c>
       <c r="E11" s="15" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="F11" s="15" t="s">
         <v>24</v>
@@ -4208,20 +4230,20 @@
         <v>0.5</v>
       </c>
       <c r="K11" s="27" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="L11" s="27" t="s">
         <v>75</v>
       </c>
       <c r="M11" s="28"/>
       <c r="N11" s="27" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="O11" s="29">
         <v>53</v>
       </c>
       <c r="P11" s="27" t="str">
-        <f>VLOOKUP($B11,Liste!$B$2:$C$32,2,FALSE)</f>
+        <f>VLOOKUP($B11,Liste!$B$2:$C$33,2,FALSE)</f>
         <v>https://www.uee.wiwi.uni-due.de/en/</v>
       </c>
       <c r="Q11" s="27" t="s">
@@ -4234,10 +4256,10 @@
         <v>6</v>
       </c>
       <c r="T11" s="30" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="U11" s="30" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="12" spans="1:21" s="24" customFormat="1" ht="65" customHeight="1" x14ac:dyDescent="0.15">
@@ -4245,7 +4267,7 @@
         <v>98</v>
       </c>
       <c r="B12" s="19" t="str">
-        <f>VLOOKUP($E12,Liste!$A$2:$C$32,2,FALSE)</f>
+        <f>VLOOKUP($E12,Liste!$A$2:$C$33,2,FALSE)</f>
         <v>Chair of Environmental Economics,
  esp. Economics of Renewable Energy</v>
       </c>
@@ -4256,7 +4278,7 @@
         <v>77</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="F12" s="15" t="s">
         <v>24</v>
@@ -4274,20 +4296,20 @@
         <v>0.41666666666666702</v>
       </c>
       <c r="K12" s="27" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="L12" s="27" t="s">
         <v>75</v>
       </c>
       <c r="M12" s="28"/>
       <c r="N12" s="27" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="O12" s="29">
         <v>53</v>
       </c>
       <c r="P12" s="27" t="str">
-        <f>VLOOKUP($B12,Liste!$B$2:$C$32,2,FALSE)</f>
+        <f>VLOOKUP($B12,Liste!$B$2:$C$33,2,FALSE)</f>
         <v>https://www.uee.wiwi.uni-due.de/en/</v>
       </c>
       <c r="Q12" s="27" t="s">
@@ -4300,10 +4322,10 @@
         <v>6</v>
       </c>
       <c r="T12" s="30" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="U12" s="30" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="13" spans="1:21" s="24" customFormat="1" ht="65" customHeight="1" x14ac:dyDescent="0.15">
@@ -4311,7 +4333,7 @@
         <v>141</v>
       </c>
       <c r="B13" s="19" t="str">
-        <f>VLOOKUP($E13,Liste!$A$2:$C$32,2,FALSE)</f>
+        <f>VLOOKUP($E13,Liste!$A$2:$C$33,2,FALSE)</f>
         <v>Chair of Environmental Economics,
  esp. Economics of Renewable Energy</v>
       </c>
@@ -4322,7 +4344,7 @@
         <v>71</v>
       </c>
       <c r="E13" s="15" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="F13" s="15" t="s">
         <v>142</v>
@@ -4340,7 +4362,7 @@
         <v>0.58333333333333304</v>
       </c>
       <c r="K13" s="27" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="L13" s="27" t="s">
         <v>75</v>
@@ -4349,13 +4371,13 @@
         <v>143</v>
       </c>
       <c r="N13" s="27" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="O13" s="29">
         <v>61</v>
       </c>
       <c r="P13" s="27" t="str">
-        <f>VLOOKUP($B13,Liste!$B$2:$C$32,2,FALSE)</f>
+        <f>VLOOKUP($B13,Liste!$B$2:$C$33,2,FALSE)</f>
         <v>https://www.uee.wiwi.uni-due.de/en/</v>
       </c>
       <c r="Q13" s="27" t="s">
@@ -4368,10 +4390,10 @@
         <v>3</v>
       </c>
       <c r="T13" s="30" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="U13" s="30" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="14" spans="1:21" s="24" customFormat="1" ht="65" customHeight="1" x14ac:dyDescent="0.15">
@@ -4379,7 +4401,7 @@
         <v>141</v>
       </c>
       <c r="B14" s="19" t="str">
-        <f>VLOOKUP($E14,Liste!$A$2:$C$32,2,FALSE)</f>
+        <f>VLOOKUP($E14,Liste!$A$2:$C$33,2,FALSE)</f>
         <v>Chair of Environmental Economics,
  esp. Economics of Renewable Energy</v>
       </c>
@@ -4390,7 +4412,7 @@
         <v>77</v>
       </c>
       <c r="E14" s="15" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="F14" s="15" t="s">
         <v>146</v>
@@ -4408,7 +4430,7 @@
         <v>0.41666666666666702</v>
       </c>
       <c r="K14" s="27" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="L14" s="27" t="s">
         <v>75</v>
@@ -4417,13 +4439,13 @@
         <v>143</v>
       </c>
       <c r="N14" s="27" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="O14" s="29">
         <v>61</v>
       </c>
       <c r="P14" s="27" t="str">
-        <f>VLOOKUP($B14,Liste!$B$2:$C$32,2,FALSE)</f>
+        <f>VLOOKUP($B14,Liste!$B$2:$C$33,2,FALSE)</f>
         <v>https://www.uee.wiwi.uni-due.de/en/</v>
       </c>
       <c r="Q14" s="27" t="s">
@@ -4436,18 +4458,18 @@
         <v>3</v>
       </c>
       <c r="T14" s="30" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="U14" s="30" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="15" spans="1:21" s="50" customFormat="1" ht="65" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="23" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B15" s="49" t="str">
-        <f>VLOOKUP($E15,Liste!$A$2:$C$32,2,FALSE)</f>
+        <f>VLOOKUP($E15,Liste!$A$2:$C$33,2,FALSE)</f>
         <v>Juniorprofessur Volkswirtschaftslehre 1</v>
       </c>
       <c r="C15" s="23" t="s">
@@ -4457,10 +4479,10 @@
         <v>71</v>
       </c>
       <c r="E15" s="23" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="F15" s="14" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G15" s="14" t="s">
         <v>63</v>
@@ -4475,22 +4497,22 @@
         <v>203</v>
       </c>
       <c r="K15" s="23" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="L15" s="23" t="s">
         <v>66</v>
       </c>
       <c r="M15" s="23" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="N15" s="49" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="O15" s="23" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="P15" s="49" t="str">
-        <f>VLOOKUP($B15,Liste!$B$2:$C$32,2,FALSE)</f>
+        <f>VLOOKUP($B15,Liste!$B$2:$C$33,2,FALSE)</f>
         <v>https://www.wiwi2.tu-dortmund.de/wiwi/vwl/de/juniorprofessur/index.html</v>
       </c>
       <c r="Q15" s="49" t="s">
@@ -4503,59 +4525,59 @@
         <v>3.5</v>
       </c>
       <c r="T15" s="23" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="U15" s="23" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="16" spans="1:21" s="24" customFormat="1" ht="65" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="31" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B16" s="20" t="str">
-        <f>VLOOKUP($E16,Liste!$A$2:$C$32,2,FALSE)</f>
+        <f>VLOOKUP($E16,Liste!$A$2:$C$33,2,FALSE)</f>
         <v>Apl.-Professur für Health Economics</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D16" s="16" t="s">
         <v>61</v>
       </c>
       <c r="E16" s="16" t="s">
+        <v>293</v>
+      </c>
+      <c r="F16" s="16" t="s">
         <v>294</v>
-      </c>
-      <c r="F16" s="16" t="s">
-        <v>295</v>
       </c>
       <c r="G16" s="16"/>
       <c r="H16" s="16" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="I16" s="32"/>
       <c r="J16" s="32"/>
       <c r="K16" s="16" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="L16" s="16" t="s">
         <v>75</v>
       </c>
       <c r="M16" s="33" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="N16" s="16" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="O16" s="34">
         <v>15</v>
       </c>
       <c r="P16" s="16" t="str">
-        <f>VLOOKUP($B16,Liste!$B$2:$C$32,2,FALSE)</f>
+        <f>VLOOKUP($B16,Liste!$B$2:$C$33,2,FALSE)</f>
         <v>https://www.wiwi.ruhr-uni-bochum.de/health/index.html.de</v>
       </c>
       <c r="Q16" s="16" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="R16" s="16" t="s">
         <v>68</v>
@@ -4564,10 +4586,10 @@
         <v>5</v>
       </c>
       <c r="T16" s="16" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="U16" s="16" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="17" spans="1:21" s="24" customFormat="1" ht="65" customHeight="1" x14ac:dyDescent="0.15">
@@ -4575,7 +4597,7 @@
         <v>223</v>
       </c>
       <c r="B17" s="18" t="str">
-        <f>VLOOKUP($E17,Liste!$A$2:$C$32,2,FALSE)</f>
+        <f>VLOOKUP($E17,Liste!$A$2:$C$33,2,FALSE)</f>
         <v>Mathematische Statistik und biometrische Anwendungen</v>
       </c>
       <c r="C17" s="14" t="s">
@@ -4613,10 +4635,10 @@
         <v>225</v>
       </c>
       <c r="O17" s="14" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="P17" s="49" t="str">
-        <f>VLOOKUP($B17,Liste!$B$2:$C$32,2,FALSE)</f>
+        <f>VLOOKUP($B17,Liste!$B$2:$C$33,2,FALSE)</f>
         <v>https://www.statistik.tu-dortmund.de/biometrie.html</v>
       </c>
       <c r="Q17" s="49" t="s">
@@ -4629,10 +4651,10 @@
         <v>9</v>
       </c>
       <c r="T17" s="14" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="U17" s="14" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="18" spans="1:21" s="24" customFormat="1" ht="65" customHeight="1" x14ac:dyDescent="0.15">
@@ -4640,7 +4662,7 @@
         <v>223</v>
       </c>
       <c r="B18" s="18" t="str">
-        <f>VLOOKUP($E18,Liste!$A$2:$C$32,2,FALSE)</f>
+        <f>VLOOKUP($E18,Liste!$A$2:$C$33,2,FALSE)</f>
         <v>Mathematische Statistik und biometrische Anwendungen</v>
       </c>
       <c r="C18" s="14" t="s">
@@ -4678,10 +4700,10 @@
         <v>225</v>
       </c>
       <c r="O18" s="14" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="P18" s="49" t="str">
-        <f>VLOOKUP($B18,Liste!$B$2:$C$32,2,FALSE)</f>
+        <f>VLOOKUP($B18,Liste!$B$2:$C$33,2,FALSE)</f>
         <v>https://www.statistik.tu-dortmund.de/biometrie.html</v>
       </c>
       <c r="Q18" s="49" t="s">
@@ -4694,10 +4716,10 @@
         <v>9</v>
       </c>
       <c r="T18" s="14" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="U18" s="14" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="19" spans="1:21" s="24" customFormat="1" ht="65" customHeight="1" x14ac:dyDescent="0.15">
@@ -4705,7 +4727,7 @@
         <v>223</v>
       </c>
       <c r="B19" s="18" t="str">
-        <f>VLOOKUP($E19,Liste!$A$2:$C$32,2,FALSE)</f>
+        <f>VLOOKUP($E19,Liste!$A$2:$C$33,2,FALSE)</f>
         <v>Mathematische Statistik und biometrische Anwendungen</v>
       </c>
       <c r="C19" s="14" t="s">
@@ -4745,10 +4767,10 @@
         <v>225</v>
       </c>
       <c r="O19" s="14" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="P19" s="49" t="str">
-        <f>VLOOKUP($B19,Liste!$B$2:$C$32,2,FALSE)</f>
+        <f>VLOOKUP($B19,Liste!$B$2:$C$33,2,FALSE)</f>
         <v>https://www.statistik.tu-dortmund.de/biometrie.html</v>
       </c>
       <c r="Q19" s="49" t="s">
@@ -4761,10 +4783,10 @@
         <v>9</v>
       </c>
       <c r="T19" s="14" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="U19" s="14" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="20" spans="1:21" s="24" customFormat="1" ht="65" customHeight="1" x14ac:dyDescent="0.15">
@@ -4772,7 +4794,7 @@
         <v>223</v>
       </c>
       <c r="B20" s="18" t="str">
-        <f>VLOOKUP($E20,Liste!$A$2:$C$32,2,FALSE)</f>
+        <f>VLOOKUP($E20,Liste!$A$2:$C$33,2,FALSE)</f>
         <v>Mathematische Statistik und biometrische Anwendungen</v>
       </c>
       <c r="C20" s="14" t="s">
@@ -4812,10 +4834,10 @@
         <v>225</v>
       </c>
       <c r="O20" s="14" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="P20" s="49" t="str">
-        <f>VLOOKUP($B20,Liste!$B$2:$C$32,2,FALSE)</f>
+        <f>VLOOKUP($B20,Liste!$B$2:$C$33,2,FALSE)</f>
         <v>https://www.statistik.tu-dortmund.de/biometrie.html</v>
       </c>
       <c r="Q20" s="49" t="s">
@@ -4828,10 +4850,10 @@
         <v>9</v>
       </c>
       <c r="T20" s="14" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="U20" s="14" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="21" spans="1:21" s="24" customFormat="1" ht="65" customHeight="1" x14ac:dyDescent="0.15">
@@ -4839,7 +4861,7 @@
         <v>101</v>
       </c>
       <c r="B21" s="19" t="str">
-        <f>VLOOKUP($E21,Liste!$A$2:$C$32,2,FALSE)</f>
+        <f>VLOOKUP($E21,Liste!$A$2:$C$33,2,FALSE)</f>
         <v>Statistik</v>
       </c>
       <c r="C21" s="15" t="s">
@@ -4882,7 +4904,7 @@
         <v>54</v>
       </c>
       <c r="P21" s="27" t="str">
-        <f>VLOOKUP($B21,Liste!$B$2:$C$32,2,FALSE)</f>
+        <f>VLOOKUP($B21,Liste!$B$2:$C$33,2,FALSE)</f>
         <v>https://www.stat.wiwi.uni-due.de/</v>
       </c>
       <c r="Q21" s="27" t="s">
@@ -4895,10 +4917,10 @@
         <v>3</v>
       </c>
       <c r="T21" s="30" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="U21" s="30" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="22" spans="1:21" s="24" customFormat="1" ht="65" customHeight="1" x14ac:dyDescent="0.15">
@@ -4906,7 +4928,7 @@
         <v>101</v>
       </c>
       <c r="B22" s="19" t="str">
-        <f>VLOOKUP($E22,Liste!$A$2:$C$32,2,FALSE)</f>
+        <f>VLOOKUP($E22,Liste!$A$2:$C$33,2,FALSE)</f>
         <v>Statistik</v>
       </c>
       <c r="C22" s="15" t="s">
@@ -4949,7 +4971,7 @@
         <v>54</v>
       </c>
       <c r="P22" s="27" t="str">
-        <f>VLOOKUP($B22,Liste!$B$2:$C$32,2,FALSE)</f>
+        <f>VLOOKUP($B22,Liste!$B$2:$C$33,2,FALSE)</f>
         <v>https://www.stat.wiwi.uni-due.de/</v>
       </c>
       <c r="Q22" s="27" t="s">
@@ -4962,31 +4984,31 @@
         <v>3</v>
       </c>
       <c r="T22" s="30" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="U22" s="30" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="23" spans="1:21" s="24" customFormat="1" ht="65" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="23" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B23" s="18" t="str">
-        <f>VLOOKUP($E23,Liste!$A$2:$C$32,2,FALSE)</f>
+        <f>VLOOKUP($E23,Liste!$A$2:$C$33,2,FALSE)</f>
         <v>Statistical Methods for Big Data</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D23" s="14" t="s">
         <v>71</v>
       </c>
       <c r="E23" s="14" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="F23" s="14" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="G23" s="14" t="s">
         <v>63</v>
@@ -5001,24 +5023,24 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="K23" s="14" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="L23" s="14" t="s">
         <v>66</v>
       </c>
       <c r="M23" s="14"/>
       <c r="N23" s="23" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="O23" s="23" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="P23" s="49" t="str">
-        <f>VLOOKUP($B23,Liste!$B$2:$C$32,2,FALSE)</f>
+        <f>VLOOKUP($B23,Liste!$B$2:$C$33,2,FALSE)</f>
         <v>https://www.statistik.tu-dortmund.de/bigdata.html</v>
       </c>
       <c r="Q23" s="23" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="R23" s="14" t="s">
         <v>68</v>
@@ -5027,31 +5049,31 @@
         <v>9</v>
       </c>
       <c r="T23" s="14" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="U23" s="14" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="24" spans="1:21" s="24" customFormat="1" ht="65" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="23" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B24" s="18" t="str">
-        <f>VLOOKUP($E24,Liste!$A$2:$C$32,2,FALSE)</f>
+        <f>VLOOKUP($E24,Liste!$A$2:$C$33,2,FALSE)</f>
         <v>Statistical Methods for Big Data</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D24" s="14" t="s">
         <v>71</v>
       </c>
       <c r="E24" s="14" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="F24" s="14" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="G24" s="14" t="s">
         <v>120</v>
@@ -5066,24 +5088,24 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="K24" s="14" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="L24" s="14" t="s">
         <v>66</v>
       </c>
       <c r="M24" s="14"/>
       <c r="N24" s="23" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="O24" s="14" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="P24" s="49" t="str">
-        <f>VLOOKUP($B24,Liste!$B$2:$C$32,2,FALSE)</f>
+        <f>VLOOKUP($B24,Liste!$B$2:$C$33,2,FALSE)</f>
         <v>https://www.statistik.tu-dortmund.de/bigdata.html</v>
       </c>
       <c r="Q24" s="23" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="R24" s="14" t="s">
         <v>68</v>
@@ -5092,10 +5114,10 @@
         <v>9</v>
       </c>
       <c r="T24" s="14" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="U24" s="14" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="25" spans="1:21" s="24" customFormat="1" ht="65" customHeight="1" x14ac:dyDescent="0.15">
@@ -5103,7 +5125,7 @@
         <v>175</v>
       </c>
       <c r="B25" s="19" t="str">
-        <f>VLOOKUP($E25,Liste!$A$2:$C$32,2,FALSE)</f>
+        <f>VLOOKUP($E25,Liste!$A$2:$C$33,2,FALSE)</f>
         <v>Statistik</v>
       </c>
       <c r="C25" s="15" t="s">
@@ -5125,7 +5147,7 @@
       <c r="I25" s="26"/>
       <c r="J25" s="26"/>
       <c r="K25" s="27" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="L25" s="27" t="s">
         <v>75</v>
@@ -5134,13 +5156,13 @@
         <v>177</v>
       </c>
       <c r="N25" s="27" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="O25" s="29">
         <v>71</v>
       </c>
       <c r="P25" s="27" t="str">
-        <f>VLOOKUP($B25,Liste!$B$2:$C$32,2,FALSE)</f>
+        <f>VLOOKUP($B25,Liste!$B$2:$C$33,2,FALSE)</f>
         <v>https://www.stat.wiwi.uni-due.de/</v>
       </c>
       <c r="Q25" s="27" t="s">
@@ -5153,10 +5175,10 @@
         <v>6</v>
       </c>
       <c r="T25" s="30" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="U25" s="30" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="26" spans="1:21" s="24" customFormat="1" ht="65" customHeight="1" x14ac:dyDescent="0.15">
@@ -5164,7 +5186,7 @@
         <v>160</v>
       </c>
       <c r="B26" s="19" t="str">
-        <f>VLOOKUP($E26,Liste!$A$2:$C$32,2,FALSE)</f>
+        <f>VLOOKUP($E26,Liste!$A$2:$C$33,2,FALSE)</f>
         <v>Statistik</v>
       </c>
       <c r="C26" s="15" t="s">
@@ -5207,7 +5229,7 @@
         <v>69</v>
       </c>
       <c r="P26" s="27" t="str">
-        <f>VLOOKUP($B26,Liste!$B$2:$C$32,2,FALSE)</f>
+        <f>VLOOKUP($B26,Liste!$B$2:$C$33,2,FALSE)</f>
         <v>https://www.stat.wiwi.uni-due.de/</v>
       </c>
       <c r="Q26" s="27" t="s">
@@ -5220,10 +5242,10 @@
         <v>3</v>
       </c>
       <c r="T26" s="30" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="U26" s="30" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="27" spans="1:21" s="24" customFormat="1" ht="65" customHeight="1" x14ac:dyDescent="0.15">
@@ -5231,7 +5253,7 @@
         <v>160</v>
       </c>
       <c r="B27" s="19" t="str">
-        <f>VLOOKUP($E27,Liste!$A$2:$C$32,2,FALSE)</f>
+        <f>VLOOKUP($E27,Liste!$A$2:$C$33,2,FALSE)</f>
         <v>Statistik</v>
       </c>
       <c r="C27" s="15" t="s">
@@ -5274,7 +5296,7 @@
         <v>69</v>
       </c>
       <c r="P27" s="27" t="str">
-        <f>VLOOKUP($B27,Liste!$B$2:$C$32,2,FALSE)</f>
+        <f>VLOOKUP($B27,Liste!$B$2:$C$33,2,FALSE)</f>
         <v>https://www.stat.wiwi.uni-due.de/</v>
       </c>
       <c r="Q27" s="27" t="s">
@@ -5287,31 +5309,31 @@
         <v>3</v>
       </c>
       <c r="T27" s="30" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="U27" s="30" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="28" spans="1:21" s="24" customFormat="1" ht="65" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="23" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B28" s="18" t="str">
-        <f>VLOOKUP($E28,Liste!$A$2:$C$32,2,FALSE)</f>
+        <f>VLOOKUP($E28,Liste!$A$2:$C$33,2,FALSE)</f>
         <v>Statistical Methods for Big Data</v>
       </c>
       <c r="C28" s="14" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D28" s="14" t="s">
         <v>77</v>
       </c>
       <c r="E28" s="14" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="F28" s="14" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="G28" s="14" t="s">
         <v>82</v>
@@ -5326,24 +5348,24 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="K28" s="14" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="L28" s="14" t="s">
         <v>66</v>
       </c>
       <c r="M28" s="14"/>
       <c r="N28" s="23" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="O28" s="14" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="P28" s="49" t="str">
-        <f>VLOOKUP($B28,Liste!$B$2:$C$32,2,FALSE)</f>
+        <f>VLOOKUP($B28,Liste!$B$2:$C$33,2,FALSE)</f>
         <v>https://www.statistik.tu-dortmund.de/bigdata.html</v>
       </c>
       <c r="Q28" s="23" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="R28" s="14" t="s">
         <v>68</v>
@@ -5352,10 +5374,10 @@
         <v>9</v>
       </c>
       <c r="T28" s="14" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="U28" s="14" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="29" spans="1:21" s="24" customFormat="1" ht="65" customHeight="1" x14ac:dyDescent="0.15">
@@ -5363,7 +5385,7 @@
         <v>207</v>
       </c>
       <c r="B29" s="18" t="str">
-        <f>VLOOKUP($E29,Liste!$A$2:$C$32,2,FALSE)</f>
+        <f>VLOOKUP($E29,Liste!$A$2:$C$33,2,FALSE)</f>
         <v>Applied Economics</v>
       </c>
       <c r="C29" s="14" t="s">
@@ -5388,10 +5410,10 @@
         <v>209</v>
       </c>
       <c r="J29" s="14" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="K29" s="14" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="L29" s="14" t="s">
         <v>66</v>
@@ -5403,14 +5425,14 @@
         <v>211</v>
       </c>
       <c r="O29" s="14" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="P29" s="49" t="str">
-        <f>VLOOKUP($B29,Liste!$B$2:$C$32,2,FALSE)</f>
+        <f>VLOOKUP($B29,Liste!$B$2:$C$33,2,FALSE)</f>
         <v>https://www.wiwi2.tu-dortmund.de/wiwi/ae/de/lehrstuhl/</v>
       </c>
       <c r="Q29" s="14" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="R29" s="14" t="s">
         <v>145</v>
@@ -5419,96 +5441,96 @@
         <v>7.5</v>
       </c>
       <c r="T29" s="14" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="U29" s="14" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="30" spans="1:21" s="42" customFormat="1" ht="65" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="47" t="s">
-        <v>327</v>
-      </c>
-      <c r="B30" s="48" t="str">
-        <f>VLOOKUP($E30,Liste!$A$2:$C$32,2,FALSE)</f>
-        <v>Statistik mit Anwendungen im Bereich der Ingenieurwissenschaften</v>
-      </c>
-      <c r="C30" s="47" t="s">
-        <v>327</v>
-      </c>
-      <c r="D30" s="47" t="s">
+      <c r="A30" s="23" t="s">
+        <v>326</v>
+      </c>
+      <c r="B30" s="49" t="str">
+        <f>VLOOKUP($E30,Liste!$A$2:$C$33,2,FALSE)</f>
+        <v>Faculty of Statistics</v>
+      </c>
+      <c r="C30" s="23" t="s">
+        <v>326</v>
+      </c>
+      <c r="D30" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="E30" s="47" t="s">
-        <v>267</v>
-      </c>
-      <c r="F30" s="47" t="s">
+      <c r="E30" s="10" t="s">
+        <v>587</v>
+      </c>
+      <c r="F30" s="23" t="s">
+        <v>240</v>
+      </c>
+      <c r="G30" s="23" t="s">
+        <v>107</v>
+      </c>
+      <c r="H30" s="23" t="s">
+        <v>188</v>
+      </c>
+      <c r="I30" s="23" t="s">
+        <v>202</v>
+      </c>
+      <c r="J30" s="23" t="s">
+        <v>189</v>
+      </c>
+      <c r="K30" s="23" t="s">
+        <v>343</v>
+      </c>
+      <c r="L30" s="23" t="s">
         <v>241</v>
       </c>
-      <c r="G30" s="47" t="s">
-        <v>107</v>
-      </c>
-      <c r="H30" s="47" t="s">
-        <v>188</v>
-      </c>
-      <c r="I30" s="47" t="s">
-        <v>202</v>
-      </c>
-      <c r="J30" s="47" t="s">
-        <v>189</v>
-      </c>
-      <c r="K30" s="47" t="s">
-        <v>344</v>
-      </c>
-      <c r="L30" s="47" t="s">
-        <v>242</v>
-      </c>
       <c r="M30" s="47"/>
-      <c r="N30" s="47" t="s">
-        <v>437</v>
-      </c>
-      <c r="O30" s="47" t="s">
-        <v>570</v>
-      </c>
-      <c r="P30" s="48" t="str">
-        <f>VLOOKUP($B30,Liste!$B$2:$C$32,2,FALSE)</f>
-        <v>https://www.statistik.tu-dortmund.de/ingenieurswissenschaften.html</v>
-      </c>
-      <c r="Q30" s="47" t="s">
-        <v>587</v>
-      </c>
-      <c r="R30" s="47" t="s">
+      <c r="N30" s="23" t="s">
+        <v>435</v>
+      </c>
+      <c r="O30" s="23" t="s">
+        <v>568</v>
+      </c>
+      <c r="P30" s="49" t="str">
+        <f>VLOOKUP($B30,Liste!$B$2:$C$33,2,FALSE)</f>
+        <v>https://www-ai.cs.tu-dortmund.de/index.html</v>
+      </c>
+      <c r="Q30" s="23" t="s">
+        <v>585</v>
+      </c>
+      <c r="R30" s="23" t="s">
         <v>92</v>
       </c>
       <c r="S30" s="47">
         <v>8</v>
       </c>
-      <c r="T30" s="47" t="s">
-        <v>336</v>
-      </c>
-      <c r="U30" s="47" t="s">
-        <v>353</v>
+      <c r="T30" s="23" t="s">
+        <v>335</v>
+      </c>
+      <c r="U30" s="23" t="s">
+        <v>352</v>
       </c>
     </row>
     <row r="31" spans="1:21" s="24" customFormat="1" ht="65" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="23" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B31" s="18" t="str">
-        <f>VLOOKUP($E31,Liste!$A$2:$C$32,2,FALSE)</f>
+        <f>VLOOKUP($E31,Liste!$A$2:$C$33,2,FALSE)</f>
         <v>Statistical Methods for Big Data</v>
       </c>
       <c r="C31" s="14" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D31" s="14" t="s">
         <v>71</v>
       </c>
       <c r="E31" s="14" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="F31" s="14" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="G31" s="14" t="s">
         <v>63</v>
@@ -5523,20 +5545,20 @@
         <v>0.5</v>
       </c>
       <c r="K31" s="14" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="L31" s="14" t="s">
         <v>66</v>
       </c>
       <c r="M31" s="14"/>
       <c r="N31" s="49" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="O31" s="14" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="P31" s="49" t="str">
-        <f>VLOOKUP($B31,Liste!$B$2:$C$32,2,FALSE)</f>
+        <f>VLOOKUP($B31,Liste!$B$2:$C$33,2,FALSE)</f>
         <v>https://www.statistik.tu-dortmund.de/bigdata.html</v>
       </c>
       <c r="Q31" s="49"/>
@@ -5547,31 +5569,31 @@
         <v>9</v>
       </c>
       <c r="T31" s="14" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="U31" s="14" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="32" spans="1:21" s="24" customFormat="1" ht="65" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="23" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B32" s="18" t="str">
-        <f>VLOOKUP($E32,Liste!$A$2:$C$32,2,FALSE)</f>
+        <f>VLOOKUP($E32,Liste!$A$2:$C$33,2,FALSE)</f>
         <v>Statistical Methods for Big Data</v>
       </c>
       <c r="C32" s="14" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D32" s="14" t="s">
         <v>71</v>
       </c>
       <c r="E32" s="14" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="F32" s="14" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="G32" s="14" t="s">
         <v>120</v>
@@ -5586,20 +5608,20 @@
         <v>0.5</v>
       </c>
       <c r="K32" s="14" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="L32" s="14" t="s">
         <v>66</v>
       </c>
       <c r="M32" s="14"/>
       <c r="N32" s="49" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="O32" s="14" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="P32" s="49" t="str">
-        <f>VLOOKUP($B32,Liste!$B$2:$C$32,2,FALSE)</f>
+        <f>VLOOKUP($B32,Liste!$B$2:$C$33,2,FALSE)</f>
         <v>https://www.statistik.tu-dortmund.de/bigdata.html</v>
       </c>
       <c r="Q32" s="49"/>
@@ -5610,31 +5632,31 @@
         <v>9</v>
       </c>
       <c r="T32" s="14" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="U32" s="14" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="33" spans="1:21" s="24" customFormat="1" ht="65" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="23" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B33" s="18" t="str">
-        <f>VLOOKUP($E33,Liste!$A$2:$C$32,2,FALSE)</f>
+        <f>VLOOKUP($E33,Liste!$A$2:$C$33,2,FALSE)</f>
         <v>Statistical Methods for Big Data</v>
       </c>
       <c r="C33" s="14" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D33" s="14" t="s">
         <v>77</v>
       </c>
       <c r="E33" s="14" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="F33" s="14" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="G33" s="14" t="s">
         <v>86</v>
@@ -5649,20 +5671,20 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="K33" s="14" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="L33" s="14" t="s">
         <v>66</v>
       </c>
       <c r="M33" s="14"/>
       <c r="N33" s="49" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="O33" s="14" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="P33" s="49" t="str">
-        <f>VLOOKUP($B33,Liste!$B$2:$C$32,2,FALSE)</f>
+        <f>VLOOKUP($B33,Liste!$B$2:$C$33,2,FALSE)</f>
         <v>https://www.statistik.tu-dortmund.de/bigdata.html</v>
       </c>
       <c r="Q33" s="49"/>
@@ -5673,10 +5695,10 @@
         <v>9</v>
       </c>
       <c r="T33" s="14" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="U33" s="14" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="34" spans="1:21" s="24" customFormat="1" ht="65" customHeight="1" x14ac:dyDescent="0.15">
@@ -5684,7 +5706,7 @@
         <v>229</v>
       </c>
       <c r="B34" s="18" t="str">
-        <f>VLOOKUP($E34,Liste!$A$2:$C$32,2,FALSE)</f>
+        <f>VLOOKUP($E34,Liste!$A$2:$C$33,2,FALSE)</f>
         <v>Makroökonomie</v>
       </c>
       <c r="C34" s="14" t="s">
@@ -5712,7 +5734,7 @@
         <v>189</v>
       </c>
       <c r="K34" s="14" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="L34" s="14" t="s">
         <v>66</v>
@@ -5721,17 +5743,17 @@
         <v>233</v>
       </c>
       <c r="N34" s="23" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="O34" s="14" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="P34" s="49" t="str">
-        <f>VLOOKUP($B34,Liste!$B$2:$C$32,2,FALSE)</f>
+        <f>VLOOKUP($B34,Liste!$B$2:$C$33,2,FALSE)</f>
         <v>https://www.wiwi2.tu-dortmund.de/wiwi/mak/de/lehrstuhl/index.html</v>
       </c>
       <c r="Q34" s="14" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="R34" s="14" t="s">
         <v>68</v>
@@ -5740,10 +5762,10 @@
         <v>7.5</v>
       </c>
       <c r="T34" s="14" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="U34" s="14" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="35" spans="1:21" s="24" customFormat="1" ht="65" customHeight="1" x14ac:dyDescent="0.15">
@@ -5751,7 +5773,7 @@
         <v>235</v>
       </c>
       <c r="B35" s="18" t="str">
-        <f>VLOOKUP($E35,Liste!$A$2:$C$32,2,FALSE)</f>
+        <f>VLOOKUP($E35,Liste!$A$2:$C$33,2,FALSE)</f>
         <v>Wirtschafts- und Sozialstatistik</v>
       </c>
       <c r="C35" s="14" t="s">
@@ -5761,7 +5783,7 @@
         <v>99</v>
       </c>
       <c r="E35" s="14" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="F35" s="14" t="s">
         <v>236</v>
@@ -5773,22 +5795,22 @@
       <c r="I35" s="14"/>
       <c r="J35" s="14"/>
       <c r="K35" s="14" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="L35" s="14" t="s">
         <v>75</v>
       </c>
       <c r="M35" s="14" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="N35" s="49" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="O35" s="14" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="P35" s="49" t="str">
-        <f>VLOOKUP($B35,Liste!$B$2:$C$32,2,FALSE)</f>
+        <f>VLOOKUP($B35,Liste!$B$2:$C$33,2,FALSE)</f>
         <v>https://www.statistik.tu-dortmund.de/iwus.html</v>
       </c>
       <c r="Q35" s="49"/>
@@ -5799,31 +5821,31 @@
         <v>9</v>
       </c>
       <c r="T35" s="14" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="U35" s="14" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="36" spans="1:21" s="24" customFormat="1" ht="65" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="23" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B36" s="18" t="str">
-        <f>VLOOKUP($E36,Liste!$A$2:$C$32,2,FALSE)</f>
+        <f>VLOOKUP($E36,Liste!$A$2:$C$33,2,FALSE)</f>
         <v>Wirtschafts- und Sozialstatistik</v>
       </c>
       <c r="C36" s="14" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D36" s="14" t="s">
         <v>71</v>
       </c>
       <c r="E36" s="14" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="F36" s="14" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="G36" s="14" t="s">
         <v>82</v>
@@ -5838,20 +5860,20 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="K36" s="14" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="L36" s="14" t="s">
         <v>66</v>
       </c>
       <c r="M36" s="14"/>
       <c r="N36" s="49" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="O36" s="14" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="P36" s="49" t="str">
-        <f>VLOOKUP($B36,Liste!$B$2:$C$32,2,FALSE)</f>
+        <f>VLOOKUP($B36,Liste!$B$2:$C$33,2,FALSE)</f>
         <v>https://www.statistik.tu-dortmund.de/iwus.html</v>
       </c>
       <c r="Q36" s="49"/>
@@ -5862,31 +5884,31 @@
         <v>9</v>
       </c>
       <c r="T36" s="14" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="U36" s="14" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="37" spans="1:21" s="24" customFormat="1" ht="65" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="23" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B37" s="18" t="str">
-        <f>VLOOKUP($E37,Liste!$A$2:$C$32,2,FALSE)</f>
+        <f>VLOOKUP($E37,Liste!$A$2:$C$33,2,FALSE)</f>
         <v>Wirtschafts- und Sozialstatistik</v>
       </c>
       <c r="C37" s="14" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D37" s="14" t="s">
         <v>77</v>
       </c>
       <c r="E37" s="14" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="F37" s="14" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="G37" s="14" t="s">
         <v>107</v>
@@ -5901,20 +5923,20 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="K37" s="14" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="L37" s="14" t="s">
         <v>66</v>
       </c>
       <c r="M37" s="14"/>
       <c r="N37" s="49" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="O37" s="14" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="P37" s="49" t="str">
-        <f>VLOOKUP($B37,Liste!$B$2:$C$32,2,FALSE)</f>
+        <f>VLOOKUP($B37,Liste!$B$2:$C$33,2,FALSE)</f>
         <v>https://www.statistik.tu-dortmund.de/iwus.html</v>
       </c>
       <c r="Q37" s="49"/>
@@ -5925,10 +5947,10 @@
         <v>9</v>
       </c>
       <c r="T37" s="14" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="U37" s="14" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="38" spans="1:21" s="24" customFormat="1" ht="65" customHeight="1" x14ac:dyDescent="0.15">
@@ -5936,7 +5958,7 @@
         <v>229</v>
       </c>
       <c r="B38" s="18" t="str">
-        <f>VLOOKUP($E38,Liste!$A$2:$C$32,2,FALSE)</f>
+        <f>VLOOKUP($E38,Liste!$A$2:$C$33,2,FALSE)</f>
         <v>Makroökonomie</v>
       </c>
       <c r="C38" s="14" t="s">
@@ -5958,13 +5980,13 @@
         <v>188</v>
       </c>
       <c r="I38" s="14" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="J38" s="14" t="s">
         <v>202</v>
       </c>
       <c r="K38" s="14" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="L38" s="14" t="s">
         <v>66</v>
@@ -5973,17 +5995,17 @@
         <v>233</v>
       </c>
       <c r="N38" s="23" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="O38" s="14" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="P38" s="49" t="str">
-        <f>VLOOKUP($B38,Liste!$B$2:$C$32,2,FALSE)</f>
+        <f>VLOOKUP($B38,Liste!$B$2:$C$33,2,FALSE)</f>
         <v>https://www.wiwi2.tu-dortmund.de/wiwi/mak/de/lehrstuhl/index.html</v>
       </c>
       <c r="Q38" s="14" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="R38" s="14" t="s">
         <v>68</v>
@@ -5992,10 +6014,10 @@
         <v>7.5</v>
       </c>
       <c r="T38" s="14" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="U38" s="14" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="39" spans="1:21" s="24" customFormat="1" ht="65" customHeight="1" x14ac:dyDescent="0.15">
@@ -6003,7 +6025,7 @@
         <v>109</v>
       </c>
       <c r="B39" s="19" t="str">
-        <f>VLOOKUP($E39,Liste!$A$2:$C$32,2,FALSE)</f>
+        <f>VLOOKUP($E39,Liste!$A$2:$C$33,2,FALSE)</f>
         <v>Statistik</v>
       </c>
       <c r="C39" s="15" t="s">
@@ -6031,24 +6053,24 @@
         <v>0.58333333333333304</v>
       </c>
       <c r="K39" s="27" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="L39" s="27" t="s">
         <v>66</v>
       </c>
       <c r="M39" s="28"/>
       <c r="N39" s="15" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="O39" s="29">
         <v>55</v>
       </c>
       <c r="P39" s="19" t="str">
-        <f>VLOOKUP($B39,Liste!$B$2:$C$32,2,FALSE)</f>
+        <f>VLOOKUP($B39,Liste!$B$2:$C$33,2,FALSE)</f>
         <v>https://www.stat.wiwi.uni-due.de/</v>
       </c>
       <c r="Q39" s="15" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="R39" s="28" t="s">
         <v>92</v>
@@ -6057,10 +6079,10 @@
         <v>3</v>
       </c>
       <c r="T39" s="30" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="U39" s="30" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="40" spans="1:21" s="24" customFormat="1" ht="65" customHeight="1" x14ac:dyDescent="0.15">
@@ -6068,7 +6090,7 @@
         <v>109</v>
       </c>
       <c r="B40" s="19" t="str">
-        <f>VLOOKUP($E40,Liste!$A$2:$C$32,2,FALSE)</f>
+        <f>VLOOKUP($E40,Liste!$A$2:$C$33,2,FALSE)</f>
         <v>Statistik</v>
       </c>
       <c r="C40" s="15" t="s">
@@ -6096,24 +6118,24 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="K40" s="27" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="L40" s="27" t="s">
         <v>66</v>
       </c>
       <c r="M40" s="28"/>
       <c r="N40" s="15" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="O40" s="29">
         <v>55</v>
       </c>
       <c r="P40" s="19" t="str">
-        <f>VLOOKUP($B40,Liste!$B$2:$C$32,2,FALSE)</f>
+        <f>VLOOKUP($B40,Liste!$B$2:$C$33,2,FALSE)</f>
         <v>https://www.stat.wiwi.uni-due.de/</v>
       </c>
       <c r="Q40" s="15" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="R40" s="28" t="s">
         <v>92</v>
@@ -6122,31 +6144,31 @@
         <v>3</v>
       </c>
       <c r="T40" s="30" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="U40" s="30" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="41" spans="1:21" s="24" customFormat="1" ht="65" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="23" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B41" s="18" t="str">
-        <f>VLOOKUP($E41,Liste!$A$2:$C$32,2,FALSE)</f>
+        <f>VLOOKUP($E41,Liste!$A$2:$C$33,2,FALSE)</f>
         <v>Wirtschafts- und Sozialstatistik</v>
       </c>
       <c r="C41" s="14" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D41" s="14" t="s">
         <v>61</v>
       </c>
       <c r="E41" s="14" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="F41" s="14" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="G41" s="14" t="s">
         <v>157</v>
@@ -6161,20 +6183,20 @@
         <v>157</v>
       </c>
       <c r="K41" s="14" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="L41" s="14" t="s">
         <v>158</v>
       </c>
       <c r="M41" s="14"/>
       <c r="N41" s="49" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="O41" s="14" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="P41" s="49" t="str">
-        <f>VLOOKUP($B41,Liste!$B$2:$C$32,2,FALSE)</f>
+        <f>VLOOKUP($B41,Liste!$B$2:$C$33,2,FALSE)</f>
         <v>https://www.statistik.tu-dortmund.de/iwus.html</v>
       </c>
       <c r="Q41" s="49"/>
@@ -6185,28 +6207,28 @@
         <v>4</v>
       </c>
       <c r="T41" s="14" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="U41" s="14" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="42" spans="1:21" s="24" customFormat="1" ht="65" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="23" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B42" s="18" t="str">
-        <f>VLOOKUP($E42,Liste!$A$2:$C$32,2,FALSE)</f>
+        <f>VLOOKUP($E42,Liste!$A$2:$C$33,2,FALSE)</f>
         <v>Wirtschafts- und Sozialstatistik</v>
       </c>
       <c r="C42" s="14" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D42" s="14" t="s">
         <v>71</v>
       </c>
       <c r="E42" s="14" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="F42" s="14" t="s">
         <v>1</v>
@@ -6224,24 +6246,24 @@
         <v>0.58333333333333304</v>
       </c>
       <c r="K42" s="14" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="L42" s="14" t="s">
         <v>66</v>
       </c>
       <c r="M42" s="14"/>
       <c r="N42" s="49" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="O42" s="14" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="P42" s="49" t="str">
-        <f>VLOOKUP($B42,Liste!$B$2:$C$32,2,FALSE)</f>
+        <f>VLOOKUP($B42,Liste!$B$2:$C$33,2,FALSE)</f>
         <v>https://www.statistik.tu-dortmund.de/iwus.html</v>
       </c>
       <c r="Q42" s="49" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="R42" s="14" t="s">
         <v>92</v>
@@ -6250,28 +6272,28 @@
         <v>10</v>
       </c>
       <c r="T42" s="14" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="U42" s="14" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="43" spans="1:21" s="24" customFormat="1" ht="65" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="23" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B43" s="18" t="str">
-        <f>VLOOKUP($E43,Liste!$A$2:$C$32,2,FALSE)</f>
+        <f>VLOOKUP($E43,Liste!$A$2:$C$33,2,FALSE)</f>
         <v>Wirtschafts- und Sozialstatistik</v>
       </c>
       <c r="C43" s="14" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D43" s="14" t="s">
         <v>77</v>
       </c>
       <c r="E43" s="14" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="F43" s="14" t="s">
         <v>9</v>
@@ -6289,20 +6311,20 @@
         <v>0.75</v>
       </c>
       <c r="K43" s="14" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="L43" s="14" t="s">
         <v>66</v>
       </c>
       <c r="M43" s="14"/>
       <c r="N43" s="49" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="O43" s="14" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="P43" s="49" t="str">
-        <f>VLOOKUP($B43,Liste!$B$2:$C$32,2,FALSE)</f>
+        <f>VLOOKUP($B43,Liste!$B$2:$C$33,2,FALSE)</f>
         <v>https://www.statistik.tu-dortmund.de/iwus.html</v>
       </c>
       <c r="Q43" s="49"/>
@@ -6313,28 +6335,28 @@
         <v>10</v>
       </c>
       <c r="T43" s="14" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="U43" s="14" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="44" spans="1:21" s="24" customFormat="1" ht="65" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="23" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B44" s="18" t="str">
-        <f>VLOOKUP($E44,Liste!$A$2:$C$32,2,FALSE)</f>
+        <f>VLOOKUP($E44,Liste!$A$2:$C$33,2,FALSE)</f>
         <v>Wirtschafts- und Sozialstatistik</v>
       </c>
       <c r="C44" s="14" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D44" s="14" t="s">
         <v>71</v>
       </c>
       <c r="E44" s="14" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="F44" s="14" t="s">
         <v>1</v>
@@ -6352,24 +6374,24 @@
         <v>0.5</v>
       </c>
       <c r="K44" s="14" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="L44" s="14" t="s">
         <v>66</v>
       </c>
       <c r="M44" s="14"/>
       <c r="N44" s="49" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="O44" s="49" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="P44" s="49" t="str">
-        <f>VLOOKUP($B44,Liste!$B$2:$C$32,2,FALSE)</f>
+        <f>VLOOKUP($B44,Liste!$B$2:$C$33,2,FALSE)</f>
         <v>https://www.statistik.tu-dortmund.de/iwus.html</v>
       </c>
       <c r="Q44" s="49" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="R44" s="14" t="s">
         <v>92</v>
@@ -6378,28 +6400,28 @@
         <v>10</v>
       </c>
       <c r="T44" s="14" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="U44" s="14" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="45" spans="1:21" s="24" customFormat="1" ht="65" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="23" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B45" s="39" t="str">
-        <f>VLOOKUP($E45,Liste!$A$2:$C$32,2,FALSE)</f>
+        <f>VLOOKUP($E45,Liste!$A$2:$C$33,2,FALSE)</f>
         <v>Statistik mit Anwendungen im Bereich der Ingenieurwissenschaften</v>
       </c>
       <c r="C45" s="14" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D45" s="14" t="s">
         <v>77</v>
       </c>
       <c r="E45" s="14" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F45" s="14" t="s">
         <v>40</v>
@@ -6417,20 +6439,20 @@
         <v>190</v>
       </c>
       <c r="K45" s="14" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="L45" s="14" t="s">
         <v>75</v>
       </c>
       <c r="M45" s="14"/>
       <c r="N45" s="49" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="O45" s="14" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="P45" s="49" t="str">
-        <f>VLOOKUP($B45,Liste!$B$2:$C$32,2,FALSE)</f>
+        <f>VLOOKUP($B45,Liste!$B$2:$C$33,2,FALSE)</f>
         <v>https://www.statistik.tu-dortmund.de/ingenieurswissenschaften.html</v>
       </c>
       <c r="Q45" s="49"/>
@@ -6441,28 +6463,28 @@
         <v>9</v>
       </c>
       <c r="T45" s="14" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="U45" s="14" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="46" spans="1:21" s="24" customFormat="1" ht="65" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="23" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B46" s="18" t="str">
-        <f>VLOOKUP($E46,Liste!$A$2:$C$32,2,FALSE)</f>
+        <f>VLOOKUP($E46,Liste!$A$2:$C$33,2,FALSE)</f>
         <v>Statistik mit Anwendungen im Bereich der Ingenieurwissenschaften</v>
       </c>
       <c r="C46" s="14" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D46" s="14" t="s">
         <v>71</v>
       </c>
       <c r="E46" s="14" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F46" s="14" t="s">
         <v>37</v>
@@ -6480,20 +6502,20 @@
         <v>0.5</v>
       </c>
       <c r="K46" s="14" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="L46" s="14" t="s">
         <v>75</v>
       </c>
       <c r="M46" s="14"/>
       <c r="N46" s="49" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="O46" s="14" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="P46" s="49" t="str">
-        <f>VLOOKUP($B46,Liste!$B$2:$C$32,2,FALSE)</f>
+        <f>VLOOKUP($B46,Liste!$B$2:$C$33,2,FALSE)</f>
         <v>https://www.statistik.tu-dortmund.de/ingenieurswissenschaften.html</v>
       </c>
       <c r="Q46" s="49"/>
@@ -6504,10 +6526,10 @@
         <v>9</v>
       </c>
       <c r="T46" s="14" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="U46" s="14" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="47" spans="1:21" s="24" customFormat="1" ht="65" customHeight="1" x14ac:dyDescent="0.15">
@@ -6515,7 +6537,7 @@
         <v>87</v>
       </c>
       <c r="B47" s="19" t="str">
-        <f>VLOOKUP($E47,Liste!$A$2:$C$32,2,FALSE)</f>
+        <f>VLOOKUP($E47,Liste!$A$2:$C$33,2,FALSE)</f>
         <v>Mikroökonomik</v>
       </c>
       <c r="C47" s="15" t="s">
@@ -6543,20 +6565,20 @@
         <v>0.5</v>
       </c>
       <c r="K47" s="27" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="L47" s="27" t="s">
         <v>66</v>
       </c>
       <c r="M47" s="28"/>
       <c r="N47" s="15" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="O47" s="29">
         <v>45</v>
       </c>
       <c r="P47" s="19" t="str">
-        <f>VLOOKUP($B47,Liste!$B$2:$C$32,2,FALSE)</f>
+        <f>VLOOKUP($B47,Liste!$B$2:$C$33,2,FALSE)</f>
         <v>https://www.mikro.wiwi.uni-due.de/</v>
       </c>
       <c r="Q47" s="15" t="s">
@@ -6569,31 +6591,31 @@
         <v>3</v>
       </c>
       <c r="T47" s="30" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="U47" s="30" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="48" spans="1:21" s="24" customFormat="1" ht="65" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="23" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B48" s="18" t="str">
-        <f>VLOOKUP($E48,Liste!$A$2:$C$32,2,FALSE)</f>
+        <f>VLOOKUP($E48,Liste!$A$2:$C$33,2,FALSE)</f>
         <v>Statistik mit Anwendungen im Bereich der Ingenieurwissenschaften</v>
       </c>
       <c r="C48" s="14" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D48" s="14" t="s">
         <v>71</v>
       </c>
       <c r="E48" s="14" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F48" s="14" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="G48" s="14" t="s">
         <v>107</v>
@@ -6608,24 +6630,24 @@
         <v>0.5</v>
       </c>
       <c r="K48" s="14" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="L48" s="14" t="s">
         <v>75</v>
       </c>
       <c r="M48" s="14"/>
       <c r="N48" s="49" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="O48" s="14" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="P48" s="49" t="str">
-        <f>VLOOKUP($B48,Liste!$B$2:$C$32,2,FALSE)</f>
+        <f>VLOOKUP($B48,Liste!$B$2:$C$33,2,FALSE)</f>
         <v>https://www.statistik.tu-dortmund.de/ingenieurswissenschaften.html</v>
       </c>
       <c r="Q48" s="49" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="R48" s="14" t="s">
         <v>92</v>
@@ -6634,31 +6656,31 @@
         <v>9</v>
       </c>
       <c r="T48" s="14" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="U48" s="14" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="49" spans="1:21" s="24" customFormat="1" ht="65" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="23" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B49" s="18" t="str">
-        <f>VLOOKUP($E49,Liste!$A$2:$C$32,2,FALSE)</f>
+        <f>VLOOKUP($E49,Liste!$A$2:$C$33,2,FALSE)</f>
         <v>Statistik mit Anwendungen im Bereich der Ingenieurwissenschaften</v>
       </c>
       <c r="C49" s="14" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D49" s="14" t="s">
         <v>77</v>
       </c>
       <c r="E49" s="14" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F49" s="14" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G49" s="14" t="s">
         <v>63</v>
@@ -6673,24 +6695,24 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="K49" s="14" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="L49" s="14" t="s">
         <v>75</v>
       </c>
       <c r="M49" s="14"/>
       <c r="N49" s="49" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="O49" s="14" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="P49" s="49" t="str">
-        <f>VLOOKUP($B49,Liste!$B$2:$C$32,2,FALSE)</f>
+        <f>VLOOKUP($B49,Liste!$B$2:$C$33,2,FALSE)</f>
         <v>https://www.statistik.tu-dortmund.de/ingenieurswissenschaften.html</v>
       </c>
       <c r="Q49" s="49" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="R49" s="14" t="s">
         <v>92</v>
@@ -6699,22 +6721,22 @@
         <v>9</v>
       </c>
       <c r="T49" s="14" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="U49" s="14" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="50" spans="1:21" ht="65" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="25" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B50" s="19" t="str">
-        <f>VLOOKUP($E50,Liste!$A$2:$C$32,2,FALSE)</f>
+        <f>VLOOKUP($E50,Liste!$A$2:$C$33,2,FALSE)</f>
         <v>Ökonometrie</v>
       </c>
       <c r="C50" s="15" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D50" s="15" t="s">
         <v>99</v>
@@ -6723,7 +6745,7 @@
         <v>72</v>
       </c>
       <c r="F50" s="15" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="G50" s="15" t="s">
         <v>82</v>
@@ -6738,24 +6760,24 @@
         <v>0.75</v>
       </c>
       <c r="K50" s="15" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="L50" s="15" t="s">
         <v>66</v>
       </c>
       <c r="M50" s="15"/>
       <c r="N50" s="27" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="O50" s="15" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="P50" s="27" t="str">
-        <f>VLOOKUP($B50,Liste!$B$2:$C$32,2,FALSE)</f>
+        <f>VLOOKUP($B50,Liste!$B$2:$C$33,2,FALSE)</f>
         <v>https://www.oek.wiwi.uni-due.de/</v>
       </c>
       <c r="Q50" s="27" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="R50" s="15" t="s">
         <v>68</v>
@@ -6764,10 +6786,10 @@
         <v>6</v>
       </c>
       <c r="T50" s="15" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="U50" s="15" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="51" spans="1:21" ht="65" customHeight="1" x14ac:dyDescent="0.15">
@@ -6775,7 +6797,7 @@
         <v>69</v>
       </c>
       <c r="B51" s="19" t="str">
-        <f>VLOOKUP($E51,Liste!$A$2:$C$32,2,FALSE)</f>
+        <f>VLOOKUP($E51,Liste!$A$2:$C$33,2,FALSE)</f>
         <v>Ökonometrie</v>
       </c>
       <c r="C51" s="15" t="s">
@@ -6799,22 +6821,22 @@
       <c r="I51" s="26"/>
       <c r="J51" s="26"/>
       <c r="K51" s="27" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="L51" s="27" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="M51" s="28" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="N51" s="27" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="O51" s="29">
         <v>64</v>
       </c>
       <c r="P51" s="27" t="str">
-        <f>VLOOKUP($B51,Liste!$B$2:$C$32,2,FALSE)</f>
+        <f>VLOOKUP($B51,Liste!$B$2:$C$33,2,FALSE)</f>
         <v>https://www.oek.wiwi.uni-due.de/</v>
       </c>
       <c r="Q51" s="27" t="s">
@@ -6827,10 +6849,10 @@
         <v>3</v>
       </c>
       <c r="T51" s="30" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="U51" s="30" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="52" spans="1:21" ht="65" customHeight="1" x14ac:dyDescent="0.15">
@@ -6838,7 +6860,7 @@
         <v>69</v>
       </c>
       <c r="B52" s="19" t="str">
-        <f>VLOOKUP($E52,Liste!$A$2:$C$32,2,FALSE)</f>
+        <f>VLOOKUP($E52,Liste!$A$2:$C$33,2,FALSE)</f>
         <v>Ökonometrie</v>
       </c>
       <c r="C52" s="15" t="s">
@@ -6862,22 +6884,22 @@
       <c r="I52" s="26"/>
       <c r="J52" s="26"/>
       <c r="K52" s="27" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="L52" s="27" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="M52" s="28" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="N52" s="27" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="O52" s="29">
         <v>64</v>
       </c>
       <c r="P52" s="27" t="str">
-        <f>VLOOKUP($B52,Liste!$B$2:$C$32,2,FALSE)</f>
+        <f>VLOOKUP($B52,Liste!$B$2:$C$33,2,FALSE)</f>
         <v>https://www.oek.wiwi.uni-due.de/</v>
       </c>
       <c r="Q52" s="27" t="s">
@@ -6890,10 +6912,10 @@
         <v>3</v>
       </c>
       <c r="T52" s="30" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="U52" s="30" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="53" spans="1:21" ht="65" customHeight="1" x14ac:dyDescent="0.15">
@@ -6901,7 +6923,7 @@
         <v>87</v>
       </c>
       <c r="B53" s="19" t="str">
-        <f>VLOOKUP($E53,Liste!$A$2:$C$32,2,FALSE)</f>
+        <f>VLOOKUP($E53,Liste!$A$2:$C$33,2,FALSE)</f>
         <v>Mikroökonomik</v>
       </c>
       <c r="C53" s="15" t="s">
@@ -6929,20 +6951,20 @@
         <v>0.41666666666666702</v>
       </c>
       <c r="K53" s="27" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="L53" s="27" t="s">
         <v>66</v>
       </c>
       <c r="M53" s="28"/>
       <c r="N53" s="15" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="O53" s="29">
         <v>45</v>
       </c>
       <c r="P53" s="19" t="str">
-        <f>VLOOKUP($B53,Liste!$B$2:$C$32,2,FALSE)</f>
+        <f>VLOOKUP($B53,Liste!$B$2:$C$33,2,FALSE)</f>
         <v>https://www.mikro.wiwi.uni-due.de/</v>
       </c>
       <c r="Q53" s="15" t="s">
@@ -6955,10 +6977,10 @@
         <v>3</v>
       </c>
       <c r="T53" s="30" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="U53" s="30" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="54" spans="1:21" ht="65" customHeight="1" x14ac:dyDescent="0.15">
@@ -6966,7 +6988,7 @@
         <v>165</v>
       </c>
       <c r="B54" s="19" t="str">
-        <f>VLOOKUP($E54,Liste!$A$2:$C$32,2,FALSE)</f>
+        <f>VLOOKUP($E54,Liste!$A$2:$C$33,2,FALSE)</f>
         <v>Ökonometrie</v>
       </c>
       <c r="C54" s="15" t="s">
@@ -6997,13 +7019,13 @@
         <v>167</v>
       </c>
       <c r="N54" s="15" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="O54" s="29">
         <v>68</v>
       </c>
       <c r="P54" s="19" t="str">
-        <f>VLOOKUP($B54,Liste!$B$2:$C$32,2,FALSE)</f>
+        <f>VLOOKUP($B54,Liste!$B$2:$C$33,2,FALSE)</f>
         <v>https://www.oek.wiwi.uni-due.de/</v>
       </c>
       <c r="Q54" s="15" t="s">
@@ -7016,28 +7038,28 @@
         <v>6</v>
       </c>
       <c r="T54" s="30" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="U54" s="30" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="55" spans="1:21" ht="65" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="31" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B55" s="20" t="str">
-        <f>VLOOKUP($E55,Liste!$A$2:$C$32,2,FALSE)</f>
+        <f>VLOOKUP($E55,Liste!$A$2:$C$33,2,FALSE)</f>
         <v> Quantitative Analyse (Statistik/Ökonometrie)</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D55" s="16" t="s">
         <v>71</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F55" s="16" t="s">
         <v>4</v>
@@ -7046,7 +7068,7 @@
         <v>63</v>
       </c>
       <c r="H55" s="16" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="I55" s="32">
         <v>0.41666666666666702</v>
@@ -7055,26 +7077,26 @@
         <v>0.5</v>
       </c>
       <c r="K55" s="16" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="L55" s="16" t="s">
         <v>66</v>
       </c>
       <c r="M55" s="33" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="N55" s="16" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="O55" s="34">
         <v>22</v>
       </c>
       <c r="P55" s="20" t="str">
-        <f>VLOOKUP($B55,Liste!$B$2:$C$32,2,FALSE)</f>
+        <f>VLOOKUP($B55,Liste!$B$2:$C$33,2,FALSE)</f>
         <v>https://www.wiwi.ruhr-uni-bochum.de/statoek/index.html.de</v>
       </c>
       <c r="Q55" s="16" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="R55" s="16" t="s">
         <v>68</v>
@@ -7083,10 +7105,10 @@
         <v>10</v>
       </c>
       <c r="T55" s="16" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="U55" s="16" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="56" spans="1:21" ht="65" customHeight="1" x14ac:dyDescent="0.15">
@@ -7094,7 +7116,7 @@
         <v>137</v>
       </c>
       <c r="B56" s="19" t="str">
-        <f>VLOOKUP($E56,Liste!$A$2:$C$32,2,FALSE)</f>
+        <f>VLOOKUP($E56,Liste!$A$2:$C$33,2,FALSE)</f>
         <v>Ökonometrie</v>
       </c>
       <c r="C56" s="15" t="s">
@@ -7135,7 +7157,7 @@
         <v>64</v>
       </c>
       <c r="P56" s="27" t="str">
-        <f>VLOOKUP($B56,Liste!$B$2:$C$32,2,FALSE)</f>
+        <f>VLOOKUP($B56,Liste!$B$2:$C$33,2,FALSE)</f>
         <v>https://www.oek.wiwi.uni-due.de/</v>
       </c>
       <c r="Q56" s="27" t="s">
@@ -7148,10 +7170,10 @@
         <v>3</v>
       </c>
       <c r="T56" s="30" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="U56" s="30" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="57" spans="1:21" ht="65" customHeight="1" x14ac:dyDescent="0.15">
@@ -7159,7 +7181,7 @@
         <v>137</v>
       </c>
       <c r="B57" s="19" t="str">
-        <f>VLOOKUP($E57,Liste!$A$2:$C$32,2,FALSE)</f>
+        <f>VLOOKUP($E57,Liste!$A$2:$C$33,2,FALSE)</f>
         <v>Ökonometrie</v>
       </c>
       <c r="C57" s="15" t="s">
@@ -7200,7 +7222,7 @@
         <v>64</v>
       </c>
       <c r="P57" s="27" t="str">
-        <f>VLOOKUP($B57,Liste!$B$2:$C$32,2,FALSE)</f>
+        <f>VLOOKUP($B57,Liste!$B$2:$C$33,2,FALSE)</f>
         <v>https://www.oek.wiwi.uni-due.de/</v>
       </c>
       <c r="Q57" s="27" t="s">
@@ -7213,37 +7235,37 @@
         <v>3</v>
       </c>
       <c r="T57" s="30" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="U57" s="30" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="58" spans="1:21" ht="65" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="31" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B58" s="20" t="str">
-        <f>VLOOKUP($E58,Liste!$A$2:$C$32,2,FALSE)</f>
+        <f>VLOOKUP($E58,Liste!$A$2:$C$33,2,FALSE)</f>
         <v> Quantitative Analyse (Statistik/Ökonometrie)</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D58" s="16" t="s">
         <v>77</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F58" s="16" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="G58" s="16" t="s">
         <v>63</v>
       </c>
       <c r="H58" s="16" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="I58" s="32">
         <v>0.33333333333333298</v>
@@ -7252,26 +7274,26 @@
         <v>0.41666666666666702</v>
       </c>
       <c r="K58" s="16" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="L58" s="16" t="s">
         <v>66</v>
       </c>
       <c r="M58" s="33" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="N58" s="16" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="O58" s="34">
         <v>22</v>
       </c>
       <c r="P58" s="20" t="str">
-        <f>VLOOKUP($B58,Liste!$B$2:$C$32,2,FALSE)</f>
+        <f>VLOOKUP($B58,Liste!$B$2:$C$33,2,FALSE)</f>
         <v>https://www.wiwi.ruhr-uni-bochum.de/statoek/index.html.de</v>
       </c>
       <c r="Q58" s="16" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="R58" s="16" t="s">
         <v>68</v>
@@ -7280,22 +7302,22 @@
         <v>10</v>
       </c>
       <c r="T58" s="16" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="U58" s="16" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="59" spans="1:21" ht="65" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="23" t="s">
+        <v>242</v>
+      </c>
+      <c r="B59" s="18" t="str">
+        <f>VLOOKUP($E59,Liste!$A$2:$C$33,2,FALSE)</f>
+        <v>Professur Finance</v>
+      </c>
+      <c r="C59" s="14" t="s">
         <v>243</v>
-      </c>
-      <c r="B59" s="18" t="str">
-        <f>VLOOKUP($E59,Liste!$A$2:$C$32,2,FALSE)</f>
-        <v>Professur Finance</v>
-      </c>
-      <c r="C59" s="14" t="s">
-        <v>244</v>
       </c>
       <c r="D59" s="14" t="s">
         <v>99</v>
@@ -7319,26 +7341,26 @@
         <v>0.5</v>
       </c>
       <c r="K59" s="14" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="L59" s="14" t="s">
         <v>66</v>
       </c>
       <c r="M59" s="14" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="N59" s="23" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="O59" s="54" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="P59" s="49" t="str">
-        <f>VLOOKUP($B59,Liste!$B$2:$C$32,2,FALSE)</f>
+        <f>VLOOKUP($B59,Liste!$B$2:$C$33,2,FALSE)</f>
         <v>https://finance.wiwi.tu-dortmund.de/</v>
       </c>
       <c r="Q59" s="14" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="R59" s="14" t="s">
         <v>68</v>
@@ -7347,22 +7369,22 @@
         <v>7.5</v>
       </c>
       <c r="T59" s="14" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="U59" s="14" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="60" spans="1:21" ht="65" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="23" t="s">
+        <v>242</v>
+      </c>
+      <c r="B60" s="18" t="str">
+        <f>VLOOKUP($E60,Liste!$A$2:$C$33,2,FALSE)</f>
+        <v>Professur Finance</v>
+      </c>
+      <c r="C60" s="14" t="s">
         <v>243</v>
-      </c>
-      <c r="B60" s="18" t="str">
-        <f>VLOOKUP($E60,Liste!$A$2:$C$32,2,FALSE)</f>
-        <v>Professur Finance</v>
-      </c>
-      <c r="C60" s="14" t="s">
-        <v>244</v>
       </c>
       <c r="D60" s="14" t="s">
         <v>99</v>
@@ -7386,26 +7408,26 @@
         <v>0.41666666666666702</v>
       </c>
       <c r="K60" s="14" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="L60" s="14" t="s">
         <v>66</v>
       </c>
       <c r="M60" s="14" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="N60" s="23" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="O60" s="14" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="P60" s="49" t="str">
-        <f>VLOOKUP($B60,Liste!$B$2:$C$32,2,FALSE)</f>
+        <f>VLOOKUP($B60,Liste!$B$2:$C$33,2,FALSE)</f>
         <v>https://finance.wiwi.tu-dortmund.de/</v>
       </c>
       <c r="Q60" s="14" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="R60" s="14" t="s">
         <v>68</v>
@@ -7414,18 +7436,18 @@
         <v>7.5</v>
       </c>
       <c r="T60" s="14" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="U60" s="14" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="61" spans="1:21" ht="65" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="25" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B61" s="19" t="str">
-        <f>VLOOKUP($E61,Liste!$A$2:$C$32,2,FALSE)</f>
+        <f>VLOOKUP($E61,Liste!$A$2:$C$33,2,FALSE)</f>
         <v>Ökonometrie</v>
       </c>
       <c r="C61" s="15" t="s">
@@ -7466,7 +7488,7 @@
         <v>64</v>
       </c>
       <c r="P61" s="27" t="str">
-        <f>VLOOKUP($B61,Liste!$B$2:$C$32,2,FALSE)</f>
+        <f>VLOOKUP($B61,Liste!$B$2:$C$33,2,FALSE)</f>
         <v>https://www.oek.wiwi.uni-due.de/</v>
       </c>
       <c r="Q61" s="27" t="s">
@@ -7479,18 +7501,18 @@
         <v>3</v>
       </c>
       <c r="T61" s="30" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="U61" s="30" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="62" spans="1:21" ht="65" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="25" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B62" s="19" t="str">
-        <f>VLOOKUP($E62,Liste!$A$2:$C$32,2,FALSE)</f>
+        <f>VLOOKUP($E62,Liste!$A$2:$C$33,2,FALSE)</f>
         <v>Ökonometrie</v>
       </c>
       <c r="C62" s="15" t="s">
@@ -7531,7 +7553,7 @@
         <v>64</v>
       </c>
       <c r="P62" s="27" t="str">
-        <f>VLOOKUP($B62,Liste!$B$2:$C$32,2,FALSE)</f>
+        <f>VLOOKUP($B62,Liste!$B$2:$C$33,2,FALSE)</f>
         <v>https://www.oek.wiwi.uni-due.de/</v>
       </c>
       <c r="Q62" s="27" t="s">
@@ -7544,10 +7566,10 @@
         <v>3</v>
       </c>
       <c r="T62" s="30" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="U62" s="30" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="63" spans="1:21" ht="65" customHeight="1" x14ac:dyDescent="0.15">
@@ -7555,7 +7577,7 @@
         <v>115</v>
       </c>
       <c r="B63" s="19" t="str">
-        <f>VLOOKUP($E63,Liste!$A$2:$C$32,2,FALSE)</f>
+        <f>VLOOKUP($E63,Liste!$A$2:$C$33,2,FALSE)</f>
         <v>Lehrstuhl für Energiehandel und Finanzdienstleistungen</v>
       </c>
       <c r="C63" s="15" t="s">
@@ -7592,13 +7614,13 @@
         <v>118</v>
       </c>
       <c r="N63" s="15" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="O63" s="29">
         <v>56</v>
       </c>
       <c r="P63" s="19" t="str">
-        <f>VLOOKUP($B63,Liste!$B$2:$C$32,2,FALSE)</f>
+        <f>VLOOKUP($B63,Liste!$B$2:$C$33,2,FALSE)</f>
         <v>https://www.lef.wiwi.uni-due.de/</v>
       </c>
       <c r="Q63" s="15" t="s">
@@ -7611,10 +7633,10 @@
         <v>3</v>
       </c>
       <c r="T63" s="30" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="U63" s="30" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="64" spans="1:21" ht="65" customHeight="1" x14ac:dyDescent="0.15">
@@ -7622,7 +7644,7 @@
         <v>115</v>
       </c>
       <c r="B64" s="19" t="str">
-        <f>VLOOKUP($E64,Liste!$A$2:$C$32,2,FALSE)</f>
+        <f>VLOOKUP($E64,Liste!$A$2:$C$33,2,FALSE)</f>
         <v>Lehrstuhl für Energiehandel und Finanzdienstleistungen</v>
       </c>
       <c r="C64" s="15" t="s">
@@ -7657,13 +7679,13 @@
       </c>
       <c r="M64" s="28"/>
       <c r="N64" s="15" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="O64" s="29">
         <v>56</v>
       </c>
       <c r="P64" s="19" t="str">
-        <f>VLOOKUP($B64,Liste!$B$2:$C$32,2,FALSE)</f>
+        <f>VLOOKUP($B64,Liste!$B$2:$C$33,2,FALSE)</f>
         <v>https://www.lef.wiwi.uni-due.de/</v>
       </c>
       <c r="Q64" s="15" t="s">
@@ -7676,10 +7698,10 @@
         <v>3</v>
       </c>
       <c r="T64" s="30" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="U64" s="30" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="65" spans="1:21" ht="65" customHeight="1" x14ac:dyDescent="0.15">
@@ -7687,7 +7709,7 @@
         <v>121</v>
       </c>
       <c r="B65" s="19" t="str">
-        <f>VLOOKUP($E65,Liste!$A$2:$C$32,2,FALSE)</f>
+        <f>VLOOKUP($E65,Liste!$A$2:$C$33,2,FALSE)</f>
         <v>Lehrstuhl für Energiehandel und Finanzdienstleistungen</v>
       </c>
       <c r="C65" s="15" t="s">
@@ -7724,13 +7746,13 @@
         <v>122</v>
       </c>
       <c r="N65" s="15" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="O65" s="29">
         <v>57</v>
       </c>
       <c r="P65" s="19" t="str">
-        <f>VLOOKUP($B65,Liste!$B$2:$C$32,2,FALSE)</f>
+        <f>VLOOKUP($B65,Liste!$B$2:$C$33,2,FALSE)</f>
         <v>https://www.lef.wiwi.uni-due.de/</v>
       </c>
       <c r="Q65" s="15" t="s">
@@ -7743,10 +7765,10 @@
         <v>3</v>
       </c>
       <c r="T65" s="30" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="U65" s="30" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="66" spans="1:21" ht="65" customHeight="1" x14ac:dyDescent="0.15">
@@ -7754,7 +7776,7 @@
         <v>155</v>
       </c>
       <c r="B66" s="19" t="str">
-        <f>VLOOKUP($E66,Liste!$A$2:$C$32,2,FALSE)</f>
+        <f>VLOOKUP($E66,Liste!$A$2:$C$33,2,FALSE)</f>
         <v>Mikroökonomik</v>
       </c>
       <c r="C66" s="15" t="s">
@@ -7789,13 +7811,13 @@
       </c>
       <c r="M66" s="28"/>
       <c r="N66" s="27" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="O66" s="29">
         <v>47</v>
       </c>
       <c r="P66" s="27" t="str">
-        <f>VLOOKUP($B66,Liste!$B$2:$C$32,2,FALSE)</f>
+        <f>VLOOKUP($B66,Liste!$B$2:$C$33,2,FALSE)</f>
         <v>https://www.mikro.wiwi.uni-due.de/</v>
       </c>
       <c r="Q66" s="27" t="s">
@@ -7808,10 +7830,10 @@
         <v>6</v>
       </c>
       <c r="T66" s="30" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="U66" s="30" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="67" spans="1:21" ht="65" customHeight="1" x14ac:dyDescent="0.15">
@@ -7819,7 +7841,7 @@
         <v>179</v>
       </c>
       <c r="B67" s="19" t="str">
-        <f>VLOOKUP($E67,Liste!$A$2:$C$32,2,FALSE)</f>
+        <f>VLOOKUP($E67,Liste!$A$2:$C$33,2,FALSE)</f>
         <v>Lehrstuhl für Finanzierung</v>
       </c>
       <c r="C67" s="15" t="s">
@@ -7847,20 +7869,20 @@
         <v>0.58333333333333304</v>
       </c>
       <c r="K67" s="27" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="L67" s="27" t="s">
         <v>75</v>
       </c>
       <c r="M67" s="28"/>
       <c r="N67" s="27" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="O67" s="29">
         <v>50</v>
       </c>
       <c r="P67" s="27" t="str">
-        <f>VLOOKUP($B67,Liste!$B$2:$C$32,2,FALSE)</f>
+        <f>VLOOKUP($B67,Liste!$B$2:$C$33,2,FALSE)</f>
         <v>https://www.fin.wiwi.uni-due.de/</v>
       </c>
       <c r="Q67" s="27" t="s">
@@ -7873,10 +7895,10 @@
         <v>6</v>
       </c>
       <c r="T67" s="30" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="U67" s="30" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="68" spans="1:21" ht="65" customHeight="1" x14ac:dyDescent="0.15">
@@ -7884,7 +7906,7 @@
         <v>121</v>
       </c>
       <c r="B68" s="19" t="str">
-        <f>VLOOKUP($E68,Liste!$A$2:$C$32,2,FALSE)</f>
+        <f>VLOOKUP($E68,Liste!$A$2:$C$33,2,FALSE)</f>
         <v>Lehrstuhl für Energiehandel und Finanzdienstleistungen</v>
       </c>
       <c r="C68" s="15" t="s">
@@ -7919,13 +7941,13 @@
       </c>
       <c r="M68" s="28"/>
       <c r="N68" s="15" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="O68" s="29">
         <v>57</v>
       </c>
       <c r="P68" s="19" t="str">
-        <f>VLOOKUP($B68,Liste!$B$2:$C$32,2,FALSE)</f>
+        <f>VLOOKUP($B68,Liste!$B$2:$C$33,2,FALSE)</f>
         <v>https://www.lef.wiwi.uni-due.de/</v>
       </c>
       <c r="Q68" s="15" t="s">
@@ -7938,10 +7960,10 @@
         <v>3</v>
       </c>
       <c r="T68" s="30" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="U68" s="30" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="69" spans="1:21" ht="65" customHeight="1" x14ac:dyDescent="0.15">
@@ -7949,7 +7971,7 @@
         <v>124</v>
       </c>
       <c r="B69" s="19" t="str">
-        <f>VLOOKUP($E69,Liste!$A$2:$C$32,2,FALSE)</f>
+        <f>VLOOKUP($E69,Liste!$A$2:$C$33,2,FALSE)</f>
         <v>Lehrstuhl für VWL, insb. Gesundheitsökonomik</v>
       </c>
       <c r="C69" s="15" t="s">
@@ -7984,13 +8006,13 @@
       </c>
       <c r="M69" s="28"/>
       <c r="N69" s="15" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="O69" s="29">
         <v>58</v>
       </c>
       <c r="P69" s="19" t="str">
-        <f>VLOOKUP($B69,Liste!$B$2:$C$32,2,FALSE)</f>
+        <f>VLOOKUP($B69,Liste!$B$2:$C$33,2,FALSE)</f>
         <v>https://www.goek.wiwi.uni-due.de/startseite/</v>
       </c>
       <c r="Q69" s="15" t="s">
@@ -8003,10 +8025,10 @@
         <v>3</v>
       </c>
       <c r="T69" s="30" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="U69" s="30" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="70" spans="1:21" ht="65" customHeight="1" x14ac:dyDescent="0.15">
@@ -8014,7 +8036,7 @@
         <v>124</v>
       </c>
       <c r="B70" s="19" t="str">
-        <f>VLOOKUP($E70,Liste!$A$2:$C$32,2,FALSE)</f>
+        <f>VLOOKUP($E70,Liste!$A$2:$C$33,2,FALSE)</f>
         <v>Lehrstuhl für VWL, insb. Gesundheitsökonomik</v>
       </c>
       <c r="C70" s="15" t="s">
@@ -8049,13 +8071,13 @@
       </c>
       <c r="M70" s="28"/>
       <c r="N70" s="15" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="O70" s="29">
         <v>58</v>
       </c>
       <c r="P70" s="19" t="str">
-        <f>VLOOKUP($B70,Liste!$B$2:$C$32,2,FALSE)</f>
+        <f>VLOOKUP($B70,Liste!$B$2:$C$33,2,FALSE)</f>
         <v>https://www.goek.wiwi.uni-due.de/startseite/</v>
       </c>
       <c r="Q70" s="15" t="s">
@@ -8068,31 +8090,31 @@
         <v>3</v>
       </c>
       <c r="T70" s="30" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="U70" s="30" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="71" spans="1:21" ht="65" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A71" s="23" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B71" s="18" t="str">
-        <f>VLOOKUP($E71,Liste!$A$2:$C$32,2,FALSE)</f>
+        <f>VLOOKUP($E71,Liste!$A$2:$C$33,2,FALSE)</f>
         <v>Lehrstuhl für Künstliche Intelligenz</v>
       </c>
       <c r="C71" s="14" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D71" s="14" t="s">
         <v>71</v>
       </c>
       <c r="E71" s="14" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F71" s="14" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="G71" s="14" t="s">
         <v>63</v>
@@ -8107,34 +8129,34 @@
         <v>0.5</v>
       </c>
       <c r="K71" s="14" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="L71" s="14" t="s">
         <v>66</v>
       </c>
       <c r="M71" s="14"/>
       <c r="N71" s="23" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="O71" s="14" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="P71" s="23" t="str">
-        <f>VLOOKUP($B71,Liste!$B$2:$C$32,2,FALSE)</f>
+        <f>VLOOKUP($B71,Liste!$B$2:$C$33,2,FALSE)</f>
         <v>https://www-ai.cs.tu-dortmund.de/index.html</v>
       </c>
       <c r="Q71" s="23" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="R71" s="14" t="s">
         <v>92</v>
       </c>
       <c r="S71" s="14"/>
       <c r="T71" s="14" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="U71" s="14" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="72" spans="1:21" ht="65" customHeight="1" x14ac:dyDescent="0.15">
@@ -8142,7 +8164,7 @@
         <v>184</v>
       </c>
       <c r="B72" s="18" t="str">
-        <f>VLOOKUP($E72,Liste!$A$2:$C$32,2,FALSE)</f>
+        <f>VLOOKUP($E72,Liste!$A$2:$C$33,2,FALSE)</f>
         <v>Applied Economics</v>
       </c>
       <c r="C72" s="14" t="s">
@@ -8170,7 +8192,7 @@
         <v>190</v>
       </c>
       <c r="K72" s="14" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="L72" s="14" t="s">
         <v>75</v>
@@ -8180,14 +8202,14 @@
         <v>191</v>
       </c>
       <c r="O72" s="14" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="P72" s="49" t="str">
-        <f>VLOOKUP($B72,Liste!$B$2:$C$32,2,FALSE)</f>
+        <f>VLOOKUP($B72,Liste!$B$2:$C$33,2,FALSE)</f>
         <v>https://www.wiwi2.tu-dortmund.de/wiwi/ae/de/lehrstuhl/</v>
       </c>
       <c r="Q72" s="49" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="R72" s="14" t="s">
         <v>68</v>
@@ -8196,10 +8218,10 @@
         <v>7.5</v>
       </c>
       <c r="T72" s="14" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="U72" s="14" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="73" spans="1:21" ht="65" customHeight="1" x14ac:dyDescent="0.15">
@@ -8207,7 +8229,7 @@
         <v>199</v>
       </c>
       <c r="B73" s="18" t="str">
-        <f>VLOOKUP($E73,Liste!$A$2:$C$32,2,FALSE)</f>
+        <f>VLOOKUP($E73,Liste!$A$2:$C$33,2,FALSE)</f>
         <v>Applied Economics</v>
       </c>
       <c r="C73" s="14" t="s">
@@ -8235,7 +8257,7 @@
         <v>203</v>
       </c>
       <c r="K73" s="14" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="L73" s="14" t="s">
         <v>75</v>
@@ -8245,10 +8267,10 @@
         <v>204</v>
       </c>
       <c r="O73" s="14" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="P73" s="49" t="str">
-        <f>VLOOKUP($B73,Liste!$B$2:$C$32,2,FALSE)</f>
+        <f>VLOOKUP($B73,Liste!$B$2:$C$33,2,FALSE)</f>
         <v>https://www.wiwi2.tu-dortmund.de/wiwi/ae/de/lehrstuhl/</v>
       </c>
       <c r="Q73" s="49" t="s">
@@ -8261,10 +8283,10 @@
         <v>7.5</v>
       </c>
       <c r="T73" s="14" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="U73" s="14" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="74" spans="1:21" ht="65" customHeight="1" x14ac:dyDescent="0.15">
@@ -8272,7 +8294,7 @@
         <v>199</v>
       </c>
       <c r="B74" s="18" t="str">
-        <f>VLOOKUP($E74,Liste!$A$2:$C$32,2,FALSE)</f>
+        <f>VLOOKUP($E74,Liste!$A$2:$C$33,2,FALSE)</f>
         <v>Applied Economics</v>
       </c>
       <c r="C74" s="14" t="s">
@@ -8300,7 +8322,7 @@
         <v>189</v>
       </c>
       <c r="K74" s="14" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="L74" s="14" t="s">
         <v>75</v>
@@ -8310,10 +8332,10 @@
         <v>204</v>
       </c>
       <c r="O74" s="14" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="P74" s="49" t="str">
-        <f>VLOOKUP($B74,Liste!$B$2:$C$32,2,FALSE)</f>
+        <f>VLOOKUP($B74,Liste!$B$2:$C$33,2,FALSE)</f>
         <v>https://www.wiwi2.tu-dortmund.de/wiwi/ae/de/lehrstuhl/</v>
       </c>
       <c r="Q74" s="49" t="s">
@@ -8326,31 +8348,31 @@
         <v>7.5</v>
       </c>
       <c r="T74" s="14" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="U74" s="14" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="75" spans="1:21" ht="65" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" s="23" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B75" s="18" t="str">
-        <f>VLOOKUP($E75,Liste!$A$2:$C$32,2,FALSE)</f>
+        <f>VLOOKUP($E75,Liste!$A$2:$C$33,2,FALSE)</f>
         <v>Lehrstuhl für Künstliche Intelligenz</v>
       </c>
       <c r="C75" s="14" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D75" s="14" t="s">
         <v>77</v>
       </c>
       <c r="E75" s="14" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F75" s="14" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="G75" s="14" t="s">
         <v>107</v>
@@ -8365,34 +8387,34 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="K75" s="14" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="L75" s="14" t="s">
         <v>66</v>
       </c>
       <c r="M75" s="14"/>
       <c r="N75" s="23" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="O75" s="14" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="P75" s="49" t="str">
-        <f>VLOOKUP($B75,Liste!$B$2:$C$32,2,FALSE)</f>
+        <f>VLOOKUP($B75,Liste!$B$2:$C$33,2,FALSE)</f>
         <v>https://www-ai.cs.tu-dortmund.de/index.html</v>
       </c>
       <c r="Q75" s="23" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="R75" s="14" t="s">
         <v>92</v>
       </c>
       <c r="S75" s="14"/>
       <c r="T75" s="14" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="U75" s="14" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="76" spans="1:21" ht="65" customHeight="1" x14ac:dyDescent="0.15">
@@ -8400,7 +8422,7 @@
         <v>94</v>
       </c>
       <c r="B76" s="19" t="str">
-        <f>VLOOKUP($E76,Liste!$A$2:$C$32,2,FALSE)</f>
+        <f>VLOOKUP($E76,Liste!$A$2:$C$33,2,FALSE)</f>
         <v>Lehrstuhl für Quantitative Methoden in den Wirtschaftswissenschaften</v>
       </c>
       <c r="C76" s="15" t="s">
@@ -8410,19 +8432,19 @@
         <v>71</v>
       </c>
       <c r="E76" s="15" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="F76" s="15" t="s">
         <v>29</v>
       </c>
       <c r="G76" s="15"/>
       <c r="H76" s="15" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="I76" s="26"/>
       <c r="J76" s="26"/>
       <c r="K76" s="27" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="L76" s="27" t="s">
         <v>75</v>
@@ -8431,11 +8453,11 @@
       <c r="N76" s="27" t="s">
         <v>96</v>
       </c>
-      <c r="O76" s="29" t="s">
-        <v>237</v>
+      <c r="O76" s="29">
+        <v>1</v>
       </c>
       <c r="P76" s="27" t="str">
-        <f>VLOOKUP($B76,Liste!$B$2:$C$32,2,FALSE)</f>
+        <f>VLOOKUP($B76,Liste!$B$2:$C$33,2,FALSE)</f>
         <v>https://www.qmw.msm.uni-due.de/startseite/</v>
       </c>
       <c r="Q76" s="27" t="s">
@@ -8448,10 +8470,10 @@
         <v>3</v>
       </c>
       <c r="T76" s="30" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="U76" s="30" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="77" spans="1:21" ht="65" customHeight="1" x14ac:dyDescent="0.15">
@@ -8459,7 +8481,7 @@
         <v>94</v>
       </c>
       <c r="B77" s="19" t="str">
-        <f>VLOOKUP($E77,Liste!$A$2:$C$32,2,FALSE)</f>
+        <f>VLOOKUP($E77,Liste!$A$2:$C$33,2,FALSE)</f>
         <v>Lehrstuhl für Quantitative Methoden in den Wirtschaftswissenschaften</v>
       </c>
       <c r="C77" s="15" t="s">
@@ -8469,19 +8491,19 @@
         <v>77</v>
       </c>
       <c r="E77" s="15" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="F77" s="15" t="s">
         <v>97</v>
       </c>
       <c r="G77" s="15"/>
       <c r="H77" s="15" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="I77" s="26"/>
       <c r="J77" s="26"/>
       <c r="K77" s="27" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="L77" s="27" t="s">
         <v>75</v>
@@ -8490,11 +8512,11 @@
       <c r="N77" s="27" t="s">
         <v>96</v>
       </c>
-      <c r="O77" s="29" t="s">
-        <v>237</v>
+      <c r="O77" s="29">
+        <v>1</v>
       </c>
       <c r="P77" s="27" t="str">
-        <f>VLOOKUP($B77,Liste!$B$2:$C$32,2,FALSE)</f>
+        <f>VLOOKUP($B77,Liste!$B$2:$C$33,2,FALSE)</f>
         <v>https://www.qmw.msm.uni-due.de/startseite/</v>
       </c>
       <c r="Q77" s="27" t="s">
@@ -8507,10 +8529,10 @@
         <v>3</v>
       </c>
       <c r="T77" s="30" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="U77" s="30" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="78" spans="1:21" ht="65" customHeight="1" x14ac:dyDescent="0.15">
@@ -8518,7 +8540,7 @@
         <v>79</v>
       </c>
       <c r="B78" s="19" t="str">
-        <f>VLOOKUP($E78,Liste!$A$2:$C$32,2,FALSE)</f>
+        <f>VLOOKUP($E78,Liste!$A$2:$C$33,2,FALSE)</f>
         <v>Lehrstuhl für VWL, insb. Gesundheitsökonomik</v>
       </c>
       <c r="C78" s="15" t="s">
@@ -8553,13 +8575,13 @@
       </c>
       <c r="M78" s="28"/>
       <c r="N78" s="27" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="O78" s="29">
         <v>66</v>
       </c>
       <c r="P78" s="27" t="str">
-        <f>VLOOKUP($B78,Liste!$B$2:$C$32,2,FALSE)</f>
+        <f>VLOOKUP($B78,Liste!$B$2:$C$33,2,FALSE)</f>
         <v>https://www.goek.wiwi.uni-due.de/startseite/</v>
       </c>
       <c r="Q78" s="27" t="s">
@@ -8572,10 +8594,10 @@
         <v>3</v>
       </c>
       <c r="T78" s="30" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="U78" s="30" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="79" spans="1:21" ht="65" customHeight="1" x14ac:dyDescent="0.15">
@@ -8583,7 +8605,7 @@
         <v>79</v>
       </c>
       <c r="B79" s="19" t="str">
-        <f>VLOOKUP($E79,Liste!$A$2:$C$32,2,FALSE)</f>
+        <f>VLOOKUP($E79,Liste!$A$2:$C$33,2,FALSE)</f>
         <v>Lehrstuhl für VWL, insb. Gesundheitsökonomik</v>
       </c>
       <c r="C79" s="15" t="s">
@@ -8618,13 +8640,13 @@
       </c>
       <c r="M79" s="28"/>
       <c r="N79" s="27" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="O79" s="29">
         <v>66</v>
       </c>
       <c r="P79" s="27" t="str">
-        <f>VLOOKUP($B79,Liste!$B$2:$C$32,2,FALSE)</f>
+        <f>VLOOKUP($B79,Liste!$B$2:$C$33,2,FALSE)</f>
         <v>https://www.goek.wiwi.uni-due.de/startseite/</v>
       </c>
       <c r="Q79" s="27" t="s">
@@ -8637,31 +8659,31 @@
         <v>3</v>
       </c>
       <c r="T79" s="30" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="U79" s="30" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="80" spans="1:21" ht="65" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" s="23" t="s">
+        <v>254</v>
+      </c>
+      <c r="B80" s="18" t="str">
+        <f>VLOOKUP($E80,Liste!$A$2:$C$33,2,FALSE)</f>
+        <v> Lehrstuhl für Wirtschaftspolitik </v>
+      </c>
+      <c r="C80" s="14" t="s">
         <v>255</v>
-      </c>
-      <c r="B80" s="18" t="str">
-        <f>VLOOKUP($E80,Liste!$A$2:$C$32,2,FALSE)</f>
-        <v> Lehrstuhl für Wirtschaftspolitik </v>
-      </c>
-      <c r="C80" s="14" t="s">
-        <v>256</v>
       </c>
       <c r="D80" s="14" t="s">
         <v>71</v>
       </c>
       <c r="E80" s="14" t="s">
+        <v>256</v>
+      </c>
+      <c r="F80" s="14" t="s">
         <v>257</v>
-      </c>
-      <c r="F80" s="14" t="s">
-        <v>258</v>
       </c>
       <c r="G80" s="14" t="s">
         <v>63</v>
@@ -8676,24 +8698,24 @@
         <v>0.75</v>
       </c>
       <c r="K80" s="14" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="L80" s="14" t="s">
         <v>66</v>
       </c>
       <c r="M80" s="14"/>
       <c r="N80" s="23" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="O80" s="14" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="P80" s="49" t="str">
-        <f>VLOOKUP($B80,Liste!$B$2:$C$32,2,FALSE)</f>
+        <f>VLOOKUP($B80,Liste!$B$2:$C$33,2,FALSE)</f>
         <v>https://www.wiwi2.tu-dortmund.de/wiwi/wp/de/lehrstuhl/index.html</v>
       </c>
       <c r="Q80" s="14" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="R80" s="14" t="s">
         <v>145</v>
@@ -8702,31 +8724,31 @@
         <v>7.5</v>
       </c>
       <c r="T80" s="14" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="U80" s="14" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="81" spans="1:21" ht="65" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A81" s="23" t="s">
+        <v>254</v>
+      </c>
+      <c r="B81" s="18" t="str">
+        <f>VLOOKUP($E81,Liste!$A$2:$C$33,2,FALSE)</f>
+        <v> Lehrstuhl für Wirtschaftspolitik </v>
+      </c>
+      <c r="C81" s="14" t="s">
         <v>255</v>
-      </c>
-      <c r="B81" s="18" t="str">
-        <f>VLOOKUP($E81,Liste!$A$2:$C$32,2,FALSE)</f>
-        <v> Lehrstuhl für Wirtschaftspolitik </v>
-      </c>
-      <c r="C81" s="14" t="s">
-        <v>256</v>
       </c>
       <c r="D81" s="14" t="s">
         <v>77</v>
       </c>
       <c r="E81" s="14" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F81" s="14" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G81" s="14" t="s">
         <v>120</v>
@@ -8741,24 +8763,24 @@
         <v>0.75</v>
       </c>
       <c r="K81" s="14" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="L81" s="14" t="s">
         <v>66</v>
       </c>
       <c r="M81" s="14"/>
       <c r="N81" s="23" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="O81" s="14" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="P81" s="49" t="str">
-        <f>VLOOKUP($B81,Liste!$B$2:$C$32,2,FALSE)</f>
+        <f>VLOOKUP($B81,Liste!$B$2:$C$33,2,FALSE)</f>
         <v>https://www.wiwi2.tu-dortmund.de/wiwi/wp/de/lehrstuhl/index.html</v>
       </c>
       <c r="Q81" s="14" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="R81" s="14" t="s">
         <v>145</v>
@@ -8767,63 +8789,63 @@
         <v>7.5</v>
       </c>
       <c r="T81" s="14" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="U81" s="14" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="82" spans="1:21" ht="65" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A82" s="23" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B82" s="18" t="str">
-        <f>VLOOKUP($E82,Liste!$A$2:$C$32,2,FALSE)</f>
+        <f>VLOOKUP($E82,Liste!$A$2:$C$33,2,FALSE)</f>
         <v>Ökonometrie und Statistik</v>
       </c>
       <c r="C82" s="14" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D82" s="14" t="s">
         <v>71</v>
       </c>
       <c r="E82" s="14" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="F82" s="14" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G82" s="14"/>
       <c r="H82" s="14" t="s">
         <v>188</v>
       </c>
       <c r="I82" s="14" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="J82" s="14" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="K82" s="14" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="L82" s="14" t="s">
         <v>75</v>
       </c>
       <c r="M82" s="14" t="s">
+        <v>283</v>
+      </c>
+      <c r="N82" s="49" t="s">
         <v>284</v>
       </c>
-      <c r="N82" s="49" t="s">
+      <c r="O82" s="14" t="s">
+        <v>559</v>
+      </c>
+      <c r="P82" s="49" t="str">
+        <f>VLOOKUP($B82,Liste!$B$2:$C$33,2,FALSE)</f>
+        <v>https://www.statistik.tu-dortmund.de/oekonometrie.html</v>
+      </c>
+      <c r="Q82" s="49" t="s">
         <v>285</v>
-      </c>
-      <c r="O82" s="14" t="s">
-        <v>561</v>
-      </c>
-      <c r="P82" s="49" t="str">
-        <f>VLOOKUP($B82,Liste!$B$2:$C$32,2,FALSE)</f>
-        <v>https://www.statistik.tu-dortmund.de/oekonometrie.html</v>
-      </c>
-      <c r="Q82" s="49" t="s">
-        <v>286</v>
       </c>
       <c r="R82" s="14" t="s">
         <v>68</v>
@@ -8832,28 +8854,28 @@
         <v>9</v>
       </c>
       <c r="T82" s="14" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="U82" s="14" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="83" spans="1:21" ht="65" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A83" s="31" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B83" s="20" t="str">
-        <f>VLOOKUP($E83,Liste!$A$2:$C$32,2,FALSE)</f>
+        <f>VLOOKUP($E83,Liste!$A$2:$C$33,2,FALSE)</f>
         <v> Quantitative Analyse (Statistik/Ökonometrie)</v>
       </c>
       <c r="C83" s="16" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D83" s="16" t="s">
         <v>71</v>
       </c>
       <c r="E83" s="16" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F83" s="16" t="s">
         <v>5</v>
@@ -8862,7 +8884,7 @@
         <v>120</v>
       </c>
       <c r="H83" s="16" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="I83" s="32">
         <v>0.33333333333333298</v>
@@ -8871,26 +8893,26 @@
         <v>0.41666666666666702</v>
       </c>
       <c r="K83" s="16" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="L83" s="16" t="s">
         <v>66</v>
       </c>
       <c r="M83" s="33" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="N83" s="16" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="O83" s="34">
         <v>24</v>
       </c>
       <c r="P83" s="20" t="str">
-        <f>VLOOKUP($B83,Liste!$B$2:$C$32,2,FALSE)</f>
+        <f>VLOOKUP($B83,Liste!$B$2:$C$33,2,FALSE)</f>
         <v>https://www.wiwi.ruhr-uni-bochum.de/statoek/index.html.de</v>
       </c>
       <c r="Q83" s="16" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="R83" s="16" t="s">
         <v>68</v>
@@ -8899,28 +8921,28 @@
         <v>10</v>
       </c>
       <c r="T83" s="16" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="U83" s="16" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="84" spans="1:21" ht="65" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A84" s="31" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B84" s="20" t="str">
-        <f>VLOOKUP($E84,Liste!$A$2:$C$32,2,FALSE)</f>
+        <f>VLOOKUP($E84,Liste!$A$2:$C$33,2,FALSE)</f>
         <v> Quantitative Analyse (Statistik/Ökonometrie)</v>
       </c>
       <c r="C84" s="16" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D84" s="16" t="s">
         <v>77</v>
       </c>
       <c r="E84" s="16" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F84" s="16" t="s">
         <v>7</v>
@@ -8929,31 +8951,31 @@
         <v>120</v>
       </c>
       <c r="H84" s="16" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="I84" s="32"/>
       <c r="J84" s="32"/>
       <c r="K84" s="16" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="L84" s="16" t="s">
         <v>66</v>
       </c>
       <c r="M84" s="33" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="N84" s="16" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="O84" s="34">
         <v>24</v>
       </c>
       <c r="P84" s="20" t="str">
-        <f>VLOOKUP($B84,Liste!$B$2:$C$32,2,FALSE)</f>
+        <f>VLOOKUP($B84,Liste!$B$2:$C$33,2,FALSE)</f>
         <v>https://www.wiwi.ruhr-uni-bochum.de/statoek/index.html.de</v>
       </c>
       <c r="Q84" s="16" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="R84" s="16" t="s">
         <v>68</v>
@@ -8961,15 +8983,15 @@
       <c r="S84" s="34"/>
       <c r="T84" s="16"/>
       <c r="U84" s="16" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="85" spans="1:21" ht="65" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A85" s="23" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B85" s="18" t="str">
-        <f>VLOOKUP($E85,Liste!$A$2:$C$32,2,FALSE)</f>
+        <f>VLOOKUP($E85,Liste!$A$2:$C$33,2,FALSE)</f>
         <v>Professur Finance</v>
       </c>
       <c r="C85" s="14" t="s">
@@ -8982,7 +9004,7 @@
         <v>213</v>
       </c>
       <c r="F85" s="14" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G85" s="14" t="s">
         <v>63</v>
@@ -8997,24 +9019,24 @@
         <v>203</v>
       </c>
       <c r="K85" s="14" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="L85" s="14" t="s">
         <v>75</v>
       </c>
       <c r="M85" s="14"/>
       <c r="N85" s="49" t="s">
+        <v>246</v>
+      </c>
+      <c r="O85" s="14" t="s">
+        <v>575</v>
+      </c>
+      <c r="P85" s="49" t="str">
+        <f>VLOOKUP($B85,Liste!$B$2:$C$33,2,FALSE)</f>
+        <v>https://finance.wiwi.tu-dortmund.de/</v>
+      </c>
+      <c r="Q85" s="49" t="s">
         <v>247</v>
-      </c>
-      <c r="O85" s="14" t="s">
-        <v>577</v>
-      </c>
-      <c r="P85" s="49" t="str">
-        <f>VLOOKUP($B85,Liste!$B$2:$C$32,2,FALSE)</f>
-        <v>https://finance.wiwi.tu-dortmund.de/</v>
-      </c>
-      <c r="Q85" s="49" t="s">
-        <v>248</v>
       </c>
       <c r="R85" s="14" t="s">
         <v>68</v>
@@ -9023,18 +9045,18 @@
         <v>4</v>
       </c>
       <c r="T85" s="14" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="U85" s="14" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="86" spans="1:21" ht="65" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A86" s="23" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B86" s="18" t="str">
-        <f>VLOOKUP($E86,Liste!$A$2:$C$32,2,FALSE)</f>
+        <f>VLOOKUP($E86,Liste!$A$2:$C$33,2,FALSE)</f>
         <v>Professur Finance</v>
       </c>
       <c r="C86" s="14" t="s">
@@ -9062,22 +9084,22 @@
         <v>203</v>
       </c>
       <c r="K86" s="14" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="L86" s="14" t="s">
         <v>75</v>
       </c>
       <c r="M86" s="14" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="N86" s="49" t="s">
         <v>216</v>
       </c>
       <c r="O86" s="14" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="P86" s="49" t="str">
-        <f>VLOOKUP($B86,Liste!$B$2:$C$32,2,FALSE)</f>
+        <f>VLOOKUP($B86,Liste!$B$2:$C$33,2,FALSE)</f>
         <v>https://finance.wiwi.tu-dortmund.de/</v>
       </c>
       <c r="Q86" s="49" t="s">
@@ -9090,22 +9112,22 @@
         <v>3.5</v>
       </c>
       <c r="T86" s="14" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="U86" s="14" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="87" spans="1:21" ht="65" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A87" s="23" t="s">
+        <v>259</v>
+      </c>
+      <c r="B87" s="18" t="str">
+        <f>VLOOKUP($E87,Liste!$A$2:$C$33,2,FALSE)</f>
+        <v>Professur Finance</v>
+      </c>
+      <c r="C87" s="14" t="s">
         <v>260</v>
-      </c>
-      <c r="B87" s="18" t="str">
-        <f>VLOOKUP($E87,Liste!$A$2:$C$32,2,FALSE)</f>
-        <v>Professur Finance</v>
-      </c>
-      <c r="C87" s="14" t="s">
-        <v>261</v>
       </c>
       <c r="D87" s="14" t="s">
         <v>180</v>
@@ -9114,7 +9136,7 @@
         <v>213</v>
       </c>
       <c r="F87" s="14" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="G87" s="14" t="s">
         <v>82</v>
@@ -9132,23 +9154,23 @@
         <v>83</v>
       </c>
       <c r="L87" s="14" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="M87" s="14" t="s">
+        <v>262</v>
+      </c>
+      <c r="N87" s="49" t="s">
         <v>263</v>
       </c>
-      <c r="N87" s="49" t="s">
+      <c r="O87" s="14" t="s">
+        <v>576</v>
+      </c>
+      <c r="P87" s="49" t="str">
+        <f>VLOOKUP($B87,Liste!$B$2:$C$33,2,FALSE)</f>
+        <v>https://finance.wiwi.tu-dortmund.de/</v>
+      </c>
+      <c r="Q87" s="49" t="s">
         <v>264</v>
-      </c>
-      <c r="O87" s="14" t="s">
-        <v>578</v>
-      </c>
-      <c r="P87" s="49" t="str">
-        <f>VLOOKUP($B87,Liste!$B$2:$C$32,2,FALSE)</f>
-        <v>https://finance.wiwi.tu-dortmund.de/</v>
-      </c>
-      <c r="Q87" s="49" t="s">
-        <v>265</v>
       </c>
       <c r="R87" s="14" t="s">
         <v>68</v>
@@ -9157,18 +9179,18 @@
         <v>4</v>
       </c>
       <c r="T87" s="14" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="U87" s="14" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="88" spans="1:21" ht="65" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A88" s="25" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="B88" s="19" t="str">
-        <f>VLOOKUP($E88,Liste!$A$2:$C$32,2,FALSE)</f>
+        <f>VLOOKUP($E88,Liste!$A$2:$C$33,2,FALSE)</f>
         <v>Ökonometrie</v>
       </c>
       <c r="C88" s="15" t="s">
@@ -9181,7 +9203,7 @@
         <v>72</v>
       </c>
       <c r="F88" s="15" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="G88" s="15" t="s">
         <v>82</v>
@@ -9196,26 +9218,26 @@
         <v>0.5</v>
       </c>
       <c r="K88" s="27" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="L88" s="27" t="s">
         <v>66</v>
       </c>
       <c r="M88" s="28" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="N88" s="15" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="O88" s="29">
         <v>6</v>
       </c>
       <c r="P88" s="19" t="str">
-        <f>VLOOKUP($B88,Liste!$B$2:$C$32,2,FALSE)</f>
+        <f>VLOOKUP($B88,Liste!$B$2:$C$33,2,FALSE)</f>
         <v>https://www.oek.wiwi.uni-due.de/</v>
       </c>
       <c r="Q88" s="15" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="R88" s="28" t="s">
         <v>68</v>
@@ -9224,18 +9246,18 @@
         <v>10</v>
       </c>
       <c r="T88" s="30" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="U88" s="30" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="89" spans="1:21" ht="65" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A89" s="25" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="B89" s="19" t="str">
-        <f>VLOOKUP($E89,Liste!$A$2:$C$32,2,FALSE)</f>
+        <f>VLOOKUP($E89,Liste!$A$2:$C$33,2,FALSE)</f>
         <v>Ökonometrie</v>
       </c>
       <c r="C89" s="15" t="s">
@@ -9248,7 +9270,7 @@
         <v>72</v>
       </c>
       <c r="F89" s="15" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="G89" s="15" t="s">
         <v>82</v>
@@ -9263,24 +9285,24 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="K89" s="27" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="L89" s="27" t="s">
         <v>66</v>
       </c>
       <c r="M89" s="28"/>
       <c r="N89" s="15" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="O89" s="29">
         <v>6</v>
       </c>
       <c r="P89" s="19" t="str">
-        <f>VLOOKUP($B89,Liste!$B$2:$C$32,2,FALSE)</f>
+        <f>VLOOKUP($B89,Liste!$B$2:$C$33,2,FALSE)</f>
         <v>https://www.oek.wiwi.uni-due.de/</v>
       </c>
       <c r="Q89" s="15" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="R89" s="28" t="s">
         <v>68</v>
@@ -9289,10 +9311,10 @@
         <v>10</v>
       </c>
       <c r="T89" s="30" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="U89" s="30" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="90" spans="1:21" ht="65" customHeight="1" x14ac:dyDescent="0.15">
@@ -9300,7 +9322,7 @@
         <v>169</v>
       </c>
       <c r="B90" s="19" t="str">
-        <f>VLOOKUP($E90,Liste!$A$2:$C$32,2,FALSE)</f>
+        <f>VLOOKUP($E90,Liste!$A$2:$C$33,2,FALSE)</f>
         <v>Lehrstuhl für VWL, insb. Finanzwissenschaften</v>
       </c>
       <c r="C90" s="15" t="s">
@@ -9331,13 +9353,13 @@
         <v>171</v>
       </c>
       <c r="N90" s="27" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="O90" s="29">
         <v>48</v>
       </c>
       <c r="P90" s="27" t="str">
-        <f>VLOOKUP($B90,Liste!$B$2:$C$32,2,FALSE)</f>
+        <f>VLOOKUP($B90,Liste!$B$2:$C$33,2,FALSE)</f>
         <v>https://www.fiwi.wiwi.uni-due.de/</v>
       </c>
       <c r="Q90" s="27" t="s">
@@ -9350,22 +9372,22 @@
         <v>6</v>
       </c>
       <c r="T90" s="30" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="U90" s="30" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="91" spans="1:21" ht="65" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A91" s="25" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B91" s="19" t="str">
-        <f>VLOOKUP($E91,Liste!$A$2:$C$32,2,FALSE)</f>
+        <f>VLOOKUP($E91,Liste!$A$2:$C$33,2,FALSE)</f>
         <v>Lehrstuhl für VWL, insb. Finanzwissenschaften</v>
       </c>
       <c r="C91" s="15" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D91" s="15" t="s">
         <v>71</v>
@@ -9389,20 +9411,20 @@
         <v>0.75</v>
       </c>
       <c r="K91" s="27" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="L91" s="27" t="s">
         <v>75</v>
       </c>
       <c r="M91" s="28"/>
       <c r="N91" s="27" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="O91" s="29">
         <v>59</v>
       </c>
       <c r="P91" s="27" t="str">
-        <f>VLOOKUP($B91,Liste!$B$2:$C$32,2,FALSE)</f>
+        <f>VLOOKUP($B91,Liste!$B$2:$C$33,2,FALSE)</f>
         <v>https://www.fiwi.wiwi.uni-due.de/</v>
       </c>
       <c r="Q91" s="27" t="s">
@@ -9415,22 +9437,22 @@
         <v>3</v>
       </c>
       <c r="T91" s="30" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="U91" s="30" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="92" spans="1:21" ht="65" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A92" s="25" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B92" s="19" t="str">
-        <f>VLOOKUP($E92,Liste!$A$2:$C$32,2,FALSE)</f>
+        <f>VLOOKUP($E92,Liste!$A$2:$C$33,2,FALSE)</f>
         <v>Lehrstuhl für VWL, insb. Finanzwissenschaften</v>
       </c>
       <c r="C92" s="15" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D92" s="15" t="s">
         <v>77</v>
@@ -9454,20 +9476,20 @@
         <v>0.5</v>
       </c>
       <c r="K92" s="27" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="L92" s="27" t="s">
         <v>75</v>
       </c>
       <c r="M92" s="28"/>
       <c r="N92" s="27" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="O92" s="29">
         <v>59</v>
       </c>
       <c r="P92" s="27" t="str">
-        <f>VLOOKUP($B92,Liste!$B$2:$C$32,2,FALSE)</f>
+        <f>VLOOKUP($B92,Liste!$B$2:$C$33,2,FALSE)</f>
         <v>https://www.fiwi.wiwi.uni-due.de/</v>
       </c>
       <c r="Q92" s="27" t="s">
@@ -9480,31 +9502,31 @@
         <v>3</v>
       </c>
       <c r="T92" s="30" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="U92" s="30" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="93" spans="1:21" ht="65" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A93" s="23" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="B93" s="18" t="str">
-        <f>VLOOKUP($E93,Liste!$A$2:$C$32,2,FALSE)</f>
+        <f>VLOOKUP($E93,Liste!$A$2:$C$33,2,FALSE)</f>
         <v>Statistik in den Biowissenschaften</v>
       </c>
       <c r="C93" s="14" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D93" s="14" t="s">
         <v>71</v>
       </c>
       <c r="E93" s="14" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F93" s="14" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="G93" s="14" t="s">
         <v>63</v>
@@ -9519,20 +9541,20 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="K93" s="14" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="L93" s="14" t="s">
         <v>66</v>
       </c>
       <c r="M93" s="14"/>
       <c r="N93" s="49" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="O93" s="14" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="P93" s="49" t="str">
-        <f>VLOOKUP($B93,Liste!$B$2:$C$32,2,FALSE)</f>
+        <f>VLOOKUP($B93,Liste!$B$2:$C$33,2,FALSE)</f>
         <v>https://www.statistik.tu-dortmund.de/biowissenschaften.html</v>
       </c>
       <c r="Q93" s="49"/>
@@ -9543,31 +9565,31 @@
         <v>9</v>
       </c>
       <c r="T93" s="14" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="U93" s="14" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="94" spans="1:21" ht="65" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A94" s="23" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="B94" s="18" t="str">
-        <f>VLOOKUP($E94,Liste!$A$2:$C$32,2,FALSE)</f>
+        <f>VLOOKUP($E94,Liste!$A$2:$C$33,2,FALSE)</f>
         <v>Statistik in den Biowissenschaften</v>
       </c>
       <c r="C94" s="14" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D94" s="14" t="s">
         <v>77</v>
       </c>
       <c r="E94" s="14" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F94" s="14" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="G94" s="14" t="s">
         <v>63</v>
@@ -9582,20 +9604,20 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="K94" s="14" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="L94" s="14" t="s">
         <v>66</v>
       </c>
       <c r="M94" s="14"/>
       <c r="N94" s="49" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="O94" s="14" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="P94" s="49" t="str">
-        <f>VLOOKUP($B94,Liste!$B$2:$C$32,2,FALSE)</f>
+        <f>VLOOKUP($B94,Liste!$B$2:$C$33,2,FALSE)</f>
         <v>https://www.statistik.tu-dortmund.de/biowissenschaften.html</v>
       </c>
       <c r="Q94" s="49"/>
@@ -9606,31 +9628,31 @@
         <v>9</v>
       </c>
       <c r="T94" s="14" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="U94" s="14" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="95" spans="1:21" ht="65" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A95" s="23" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B95" s="18" t="str">
-        <f>VLOOKUP($E95,Liste!$A$2:$C$32,2,FALSE)</f>
+        <f>VLOOKUP($E95,Liste!$A$2:$C$33,2,FALSE)</f>
         <v>Statistik in den Biowissenschaften</v>
       </c>
       <c r="C95" s="14" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D95" s="14" t="s">
         <v>71</v>
       </c>
       <c r="E95" s="14" t="s">
+        <v>273</v>
+      </c>
+      <c r="F95" s="14" t="s">
         <v>274</v>
-      </c>
-      <c r="F95" s="14" t="s">
-        <v>275</v>
       </c>
       <c r="G95" s="14" t="s">
         <v>82</v>
@@ -9645,24 +9667,24 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="K95" s="14" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="L95" s="14" t="s">
         <v>158</v>
       </c>
       <c r="M95" s="14"/>
       <c r="N95" s="49" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="O95" s="14" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="P95" s="49" t="str">
-        <f>VLOOKUP($B95,Liste!$B$2:$C$32,2,FALSE)</f>
+        <f>VLOOKUP($B95,Liste!$B$2:$C$33,2,FALSE)</f>
         <v>https://www.statistik.tu-dortmund.de/biowissenschaften.html</v>
       </c>
       <c r="Q95" s="49" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="R95" s="14" t="s">
         <v>92</v>
@@ -9671,31 +9693,31 @@
         <v>9</v>
       </c>
       <c r="T95" s="14" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="U95" s="14" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="96" spans="1:21" ht="65" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A96" s="23" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B96" s="18" t="str">
-        <f>VLOOKUP($E96,Liste!$A$2:$C$32,2,FALSE)</f>
+        <f>VLOOKUP($E96,Liste!$A$2:$C$33,2,FALSE)</f>
         <v>Statistik in den Biowissenschaften</v>
       </c>
       <c r="C96" s="14" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D96" s="14" t="s">
         <v>77</v>
       </c>
       <c r="E96" s="14" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F96" s="14" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="G96" s="14" t="s">
         <v>95</v>
@@ -9710,24 +9732,24 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="K96" s="14" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="L96" s="14" t="s">
         <v>158</v>
       </c>
       <c r="M96" s="14"/>
       <c r="N96" s="49" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="O96" s="14" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="P96" s="49" t="str">
-        <f>VLOOKUP($B96,Liste!$B$2:$C$32,2,FALSE)</f>
+        <f>VLOOKUP($B96,Liste!$B$2:$C$33,2,FALSE)</f>
         <v>https://www.statistik.tu-dortmund.de/biowissenschaften.html</v>
       </c>
       <c r="Q96" s="49" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="R96" s="14" t="s">
         <v>92</v>
@@ -9736,22 +9758,22 @@
         <v>9</v>
       </c>
       <c r="T96" s="14" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="U96" s="14" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="97" spans="1:1028" ht="65" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A97" s="25" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B97" s="19" t="str">
-        <f>VLOOKUP($E97,Liste!$A$2:$C$32,2,FALSE)</f>
+        <f>VLOOKUP($E97,Liste!$A$2:$C$33,2,FALSE)</f>
         <v>Ökonometrie</v>
       </c>
       <c r="C97" s="15" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D97" s="15" t="s">
         <v>61</v>
@@ -9760,7 +9782,7 @@
         <v>72</v>
       </c>
       <c r="F97" s="15" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G97" s="15"/>
       <c r="H97" s="15" t="s">
@@ -9769,26 +9791,26 @@
       <c r="I97" s="26"/>
       <c r="J97" s="26"/>
       <c r="K97" s="27" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="L97" s="27" t="s">
         <v>66</v>
       </c>
       <c r="M97" s="28" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="N97" s="15" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="O97" s="29">
         <v>1</v>
       </c>
       <c r="P97" s="19" t="str">
-        <f>VLOOKUP($B97,Liste!$B$2:$C$32,2,FALSE)</f>
+        <f>VLOOKUP($B97,Liste!$B$2:$C$33,2,FALSE)</f>
         <v>https://www.oek.wiwi.uni-due.de/</v>
       </c>
       <c r="Q97" s="15" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="R97" s="28" t="s">
         <v>68</v>
@@ -9797,10 +9819,10 @@
         <v>6</v>
       </c>
       <c r="T97" s="30" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="U97" s="30" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="98" spans="1:1028" ht="65" customHeight="1" x14ac:dyDescent="0.15">
@@ -9808,7 +9830,7 @@
         <v>147</v>
       </c>
       <c r="B98" s="19" t="str">
-        <f>VLOOKUP($E98,Liste!$A$2:$C$32,2,FALSE)</f>
+        <f>VLOOKUP($E98,Liste!$A$2:$C$33,2,FALSE)</f>
         <v>Lehrstuhl für VWL, insb. Internationale Wirtschaftsbeziehungen</v>
       </c>
       <c r="C98" s="15" t="s">
@@ -9843,13 +9865,13 @@
       </c>
       <c r="M98" s="28"/>
       <c r="N98" s="28" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="O98" s="29">
         <v>62</v>
       </c>
       <c r="P98" s="37" t="str">
-        <f>VLOOKUP($B98,Liste!$B$2:$C$32,2,FALSE)</f>
+        <f>VLOOKUP($B98,Liste!$B$2:$C$33,2,FALSE)</f>
         <v>https://www.iwb.wiwi.uni-due.de/</v>
       </c>
       <c r="Q98" s="28" t="s">
@@ -9862,10 +9884,10 @@
         <v>3</v>
       </c>
       <c r="T98" s="30" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="U98" s="30" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="99" spans="1:1028" ht="65" customHeight="1" x14ac:dyDescent="0.15">
@@ -9873,7 +9895,7 @@
         <v>147</v>
       </c>
       <c r="B99" s="19" t="str">
-        <f>VLOOKUP($E99,Liste!$A$2:$C$32,2,FALSE)</f>
+        <f>VLOOKUP($E99,Liste!$A$2:$C$33,2,FALSE)</f>
         <v>Lehrstuhl für VWL, insb. Internationale Wirtschaftsbeziehungen</v>
       </c>
       <c r="C99" s="15" t="s">
@@ -9908,13 +9930,13 @@
       </c>
       <c r="M99" s="28"/>
       <c r="N99" s="28" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="O99" s="29">
         <v>62</v>
       </c>
       <c r="P99" s="37" t="str">
-        <f>VLOOKUP($B99,Liste!$B$2:$C$32,2,FALSE)</f>
+        <f>VLOOKUP($B99,Liste!$B$2:$C$33,2,FALSE)</f>
         <v>https://www.iwb.wiwi.uni-due.de/</v>
       </c>
       <c r="Q99" s="28" t="s">
@@ -9927,59 +9949,59 @@
         <v>3</v>
       </c>
       <c r="T99" s="30" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="U99" s="30" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="100" spans="1:1028" ht="65" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A100" s="31" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B100" s="20" t="str">
-        <f>VLOOKUP($E100,Liste!$A$2:$C$32,2,FALSE)</f>
+        <f>VLOOKUP($E100,Liste!$A$2:$C$33,2,FALSE)</f>
         <v>Lehrstuhl für Wirtschaftspolitik und angewandte Ökonometrie</v>
       </c>
       <c r="C100" s="16" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D100" s="16" t="s">
         <v>61</v>
       </c>
       <c r="E100" s="16" t="s">
+        <v>303</v>
+      </c>
+      <c r="F100" s="16" t="s">
         <v>304</v>
-      </c>
-      <c r="F100" s="16" t="s">
-        <v>305</v>
       </c>
       <c r="G100" s="16"/>
       <c r="H100" s="16" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="I100" s="32"/>
       <c r="J100" s="32"/>
       <c r="K100" s="16" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="L100" s="16" t="s">
         <v>158</v>
       </c>
       <c r="M100" s="33" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="N100" s="16" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="O100" s="34">
         <v>26</v>
       </c>
       <c r="P100" s="20" t="str">
-        <f>VLOOKUP($B100,Liste!$B$2:$C$32,2,FALSE)</f>
+        <f>VLOOKUP($B100,Liste!$B$2:$C$33,2,FALSE)</f>
         <v>https://www.wiwi.ruhr-uni-bochum.de/wipooek/index.html.de</v>
       </c>
       <c r="Q100" s="16" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="R100" s="16" t="s">
         <v>68</v>
@@ -9988,10 +10010,10 @@
         <v>5</v>
       </c>
       <c r="T100" s="16" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="U100" s="16" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="101" spans="1:1028" ht="65" customHeight="1" x14ac:dyDescent="0.15">
@@ -9999,7 +10021,7 @@
         <v>150</v>
       </c>
       <c r="B101" s="19" t="str">
-        <f>VLOOKUP($E101,Liste!$A$2:$C$32,2,FALSE)</f>
+        <f>VLOOKUP($E101,Liste!$A$2:$C$33,2,FALSE)</f>
         <v>Lehrstuhl für Energiehandel und Finanzdienstleistungen</v>
       </c>
       <c r="C101" s="15" t="s">
@@ -10036,13 +10058,13 @@
         <v>152</v>
       </c>
       <c r="N101" s="27" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="O101" s="29">
         <v>63</v>
       </c>
       <c r="P101" s="27" t="str">
-        <f>VLOOKUP($B101,Liste!$B$2:$C$32,2,FALSE)</f>
+        <f>VLOOKUP($B101,Liste!$B$2:$C$33,2,FALSE)</f>
         <v>https://www.lef.wiwi.uni-due.de/</v>
       </c>
       <c r="Q101" s="27" t="s">
@@ -10055,10 +10077,10 @@
         <v>3</v>
       </c>
       <c r="T101" s="30" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="U101" s="30" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="102" spans="1:1028" ht="65" customHeight="1" x14ac:dyDescent="0.15">
@@ -10066,7 +10088,7 @@
         <v>150</v>
       </c>
       <c r="B102" s="19" t="str">
-        <f>VLOOKUP($E102,Liste!$A$2:$C$32,2,FALSE)</f>
+        <f>VLOOKUP($E102,Liste!$A$2:$C$33,2,FALSE)</f>
         <v>Lehrstuhl für Energiehandel und Finanzdienstleistungen</v>
       </c>
       <c r="C102" s="15" t="s">
@@ -10103,13 +10125,13 @@
         <v>154</v>
       </c>
       <c r="N102" s="27" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="O102" s="29">
         <v>63</v>
       </c>
       <c r="P102" s="27" t="str">
-        <f>VLOOKUP($B102,Liste!$B$2:$C$32,2,FALSE)</f>
+        <f>VLOOKUP($B102,Liste!$B$2:$C$33,2,FALSE)</f>
         <v>https://www.lef.wiwi.uni-due.de/</v>
       </c>
       <c r="Q102" s="27" t="s">
@@ -10122,28 +10144,28 @@
         <v>3</v>
       </c>
       <c r="T102" s="30" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="U102" s="30" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="103" spans="1:1028" s="43" customFormat="1" ht="65" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A103" s="40" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B103" s="41" t="str">
-        <f>VLOOKUP($E103,Liste!$A$2:$C$32,2,FALSE)</f>
+        <f>VLOOKUP($E103,Liste!$A$2:$C$33,2,FALSE)</f>
         <v>Empirical Economics</v>
       </c>
       <c r="C103" s="40" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D103" s="40" t="s">
         <v>61</v>
       </c>
       <c r="E103" s="40" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F103" s="40" t="s">
         <v>15</v>
@@ -10152,7 +10174,7 @@
         <v>63</v>
       </c>
       <c r="H103" s="40" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="I103" s="44">
         <v>0.58333333333333304</v>
@@ -10161,26 +10183,26 @@
         <v>0.66666666666666696</v>
       </c>
       <c r="K103" s="40" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="L103" s="40" t="s">
         <v>66</v>
       </c>
       <c r="M103" s="45" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="N103" s="40" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="O103" s="46">
         <v>19</v>
       </c>
       <c r="P103" s="40" t="str">
-        <f>VLOOKUP($B103,Liste!$B$2:$C$32,2,FALSE)</f>
+        <f>VLOOKUP($B103,Liste!$B$2:$C$33,2,FALSE)</f>
         <v>https://www.wiwi.ruhr-uni-bochum.de/empwifo/index.html.en</v>
       </c>
       <c r="Q103" s="40" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="R103" s="40" t="s">
         <v>68</v>
@@ -10189,10 +10211,10 @@
         <v>5</v>
       </c>
       <c r="T103" s="40" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="U103" s="40" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="V103" s="42"/>
       <c r="W103" s="42"/>
@@ -11204,20 +11226,20 @@
     </row>
     <row r="104" spans="1:1028" ht="65" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A104" s="31" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B104" s="20" t="str">
-        <f>VLOOKUP($E104,Liste!$A$2:$C$32,2,FALSE)</f>
+        <f>VLOOKUP($E104,Liste!$A$2:$C$33,2,FALSE)</f>
         <v>Empirical Economics</v>
       </c>
       <c r="C104" s="16" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D104" s="16" t="s">
         <v>71</v>
       </c>
       <c r="E104" s="16" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F104" s="16" t="s">
         <v>14</v>
@@ -11226,7 +11248,7 @@
         <v>95</v>
       </c>
       <c r="H104" s="16" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="I104" s="32" t="s">
         <v>189</v>
@@ -11235,26 +11257,26 @@
         <v>198</v>
       </c>
       <c r="K104" s="16" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="L104" s="16" t="s">
         <v>75</v>
       </c>
       <c r="M104" s="33" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="N104" s="16" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="O104" s="34">
         <v>20</v>
       </c>
       <c r="P104" s="16" t="str">
-        <f>VLOOKUP($B104,Liste!$B$2:$C$32,2,FALSE)</f>
+        <f>VLOOKUP($B104,Liste!$B$2:$C$33,2,FALSE)</f>
         <v>https://www.wiwi.ruhr-uni-bochum.de/empwifo/index.html.en</v>
       </c>
       <c r="Q104" s="16" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="R104" s="16" t="s">
         <v>68</v>
@@ -11263,10 +11285,10 @@
         <v>5</v>
       </c>
       <c r="T104" s="16" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="U104" s="16" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="105" spans="1:1028" ht="65" customHeight="1" x14ac:dyDescent="0.15">
@@ -11274,7 +11296,7 @@
         <v>133</v>
       </c>
       <c r="B105" s="20" t="str">
-        <f>VLOOKUP($E105,Liste!$A$2:$C$32,2,FALSE)</f>
+        <f>VLOOKUP($E105,Liste!$A$2:$C$33,2,FALSE)</f>
         <v>Empirical Economics</v>
       </c>
       <c r="C105" s="16" t="s">
@@ -11284,7 +11306,7 @@
         <v>71</v>
       </c>
       <c r="E105" s="16" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F105" s="16" t="s">
         <v>35</v>
@@ -11293,7 +11315,7 @@
         <v>107</v>
       </c>
       <c r="H105" s="16" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="I105" s="32">
         <v>0.58333333333333304</v>
@@ -11302,24 +11324,24 @@
         <v>0.75</v>
       </c>
       <c r="K105" s="16" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="L105" s="16" t="s">
         <v>75</v>
       </c>
       <c r="M105" s="33"/>
       <c r="N105" s="16" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="O105" s="34">
         <v>23</v>
       </c>
       <c r="P105" s="16" t="str">
-        <f>VLOOKUP($B105,Liste!$B$2:$C$32,2,FALSE)</f>
+        <f>VLOOKUP($B105,Liste!$B$2:$C$33,2,FALSE)</f>
         <v>https://www.wiwi.ruhr-uni-bochum.de/empwifo/index.html.en</v>
       </c>
       <c r="Q105" s="16" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="R105" s="16" t="s">
         <v>68</v>
@@ -11328,10 +11350,10 @@
         <v>10</v>
       </c>
       <c r="T105" s="16" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="U105" s="16" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="106" spans="1:1028" ht="65" customHeight="1" x14ac:dyDescent="0.15">
@@ -11339,7 +11361,7 @@
         <v>133</v>
       </c>
       <c r="B106" s="20" t="str">
-        <f>VLOOKUP($E106,Liste!$A$2:$C$32,2,FALSE)</f>
+        <f>VLOOKUP($E106,Liste!$A$2:$C$33,2,FALSE)</f>
         <v>Empirical Economics</v>
       </c>
       <c r="C106" s="16" t="s">
@@ -11349,7 +11371,7 @@
         <v>77</v>
       </c>
       <c r="E106" s="16" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F106" s="16" t="s">
         <v>34</v>
@@ -11358,7 +11380,7 @@
         <v>82</v>
       </c>
       <c r="H106" s="16" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="I106" s="32">
         <v>0.33333333333333331</v>
@@ -11367,24 +11389,24 @@
         <v>0.5</v>
       </c>
       <c r="K106" s="16" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="L106" s="16" t="s">
         <v>75</v>
       </c>
       <c r="M106" s="33"/>
       <c r="N106" s="16" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="O106" s="34">
         <v>23</v>
       </c>
       <c r="P106" s="16" t="str">
-        <f>VLOOKUP($B106,Liste!$B$2:$C$32,2,FALSE)</f>
+        <f>VLOOKUP($B106,Liste!$B$2:$C$33,2,FALSE)</f>
         <v>https://www.wiwi.ruhr-uni-bochum.de/empwifo/index.html.en</v>
       </c>
       <c r="Q106" s="16" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="R106" s="16" t="s">
         <v>68</v>
@@ -11393,28 +11415,28 @@
         <v>10</v>
       </c>
       <c r="T106" s="16" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="U106" s="16" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="107" spans="1:1028" ht="65" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A107" s="31" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B107" s="20" t="str">
-        <f>VLOOKUP($E107,Liste!$A$2:$C$32,2,FALSE)</f>
+        <f>VLOOKUP($E107,Liste!$A$2:$C$33,2,FALSE)</f>
         <v>Empirical Economics</v>
       </c>
       <c r="C107" s="16" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D107" s="16" t="s">
         <v>61</v>
       </c>
       <c r="E107" s="16" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F107" s="16" t="s">
         <v>16</v>
@@ -11423,7 +11445,7 @@
         <v>107</v>
       </c>
       <c r="H107" s="16" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="I107" s="32">
         <v>0.58333333333333304</v>
@@ -11432,24 +11454,24 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="K107" s="16" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="L107" s="16" t="s">
         <v>66</v>
       </c>
       <c r="M107" s="33"/>
       <c r="N107" s="16" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="O107" s="34">
         <v>21</v>
       </c>
       <c r="P107" s="16" t="str">
-        <f>VLOOKUP($B107,Liste!$B$2:$C$32,2,FALSE)</f>
+        <f>VLOOKUP($B107,Liste!$B$2:$C$33,2,FALSE)</f>
         <v>https://www.wiwi.ruhr-uni-bochum.de/empwifo/index.html.en</v>
       </c>
       <c r="Q107" s="16" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="R107" s="16" t="s">
         <v>68</v>
@@ -11458,28 +11480,28 @@
         <v>10</v>
       </c>
       <c r="T107" s="16" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="U107" s="16" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="108" spans="1:1028" ht="65" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A108" s="31" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B108" s="20" t="str">
-        <f>VLOOKUP($E108,Liste!$A$2:$C$32,2,FALSE)</f>
+        <f>VLOOKUP($E108,Liste!$A$2:$C$33,2,FALSE)</f>
         <v> Quantitative Analyse (Statistik/Ökonometrie)</v>
       </c>
       <c r="C108" s="16" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D108" s="16" t="s">
         <v>71</v>
       </c>
       <c r="E108" s="16" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F108" s="16" t="s">
         <v>27</v>
@@ -11488,7 +11510,7 @@
         <v>63</v>
       </c>
       <c r="H108" s="16" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="I108" s="32" t="s">
         <v>202</v>
@@ -11497,26 +11519,26 @@
         <v>203</v>
       </c>
       <c r="K108" s="16" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="L108" s="16" t="s">
         <v>75</v>
       </c>
       <c r="M108" s="33" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="N108" s="16" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="O108" s="34">
         <v>18</v>
       </c>
       <c r="P108" s="16" t="str">
-        <f>VLOOKUP($B108,Liste!$B$2:$C$32,2,FALSE)</f>
+        <f>VLOOKUP($B108,Liste!$B$2:$C$33,2,FALSE)</f>
         <v>https://www.wiwi.ruhr-uni-bochum.de/statoek/index.html.de</v>
       </c>
       <c r="Q108" s="16" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="R108" s="16" t="s">
         <v>68</v>
@@ -11525,28 +11547,28 @@
         <v>10</v>
       </c>
       <c r="T108" s="16" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="U108" s="16" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="109" spans="1:1028" ht="65" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A109" s="31" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B109" s="20" t="str">
-        <f>VLOOKUP($E109,Liste!$A$2:$C$32,2,FALSE)</f>
+        <f>VLOOKUP($E109,Liste!$A$2:$C$33,2,FALSE)</f>
         <v> Quantitative Analyse (Statistik/Ökonometrie)</v>
       </c>
       <c r="C109" s="16" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D109" s="16" t="s">
         <v>77</v>
       </c>
       <c r="E109" s="16" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F109" s="16" t="s">
         <v>23</v>
@@ -11555,7 +11577,7 @@
         <v>63</v>
       </c>
       <c r="H109" s="16" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="I109" s="32" t="s">
         <v>227</v>
@@ -11564,24 +11586,24 @@
         <v>202</v>
       </c>
       <c r="K109" s="16" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="L109" s="16" t="s">
         <v>75</v>
       </c>
       <c r="M109" s="33"/>
       <c r="N109" s="16" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="O109" s="34">
         <v>18</v>
       </c>
       <c r="P109" s="16" t="str">
-        <f>VLOOKUP($B109,Liste!$B$2:$C$32,2,FALSE)</f>
+        <f>VLOOKUP($B109,Liste!$B$2:$C$33,2,FALSE)</f>
         <v>https://www.wiwi.ruhr-uni-bochum.de/statoek/index.html.de</v>
       </c>
       <c r="Q109" s="16" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="R109" s="16" t="s">
         <v>68</v>
@@ -11590,37 +11612,37 @@
         <v>10</v>
       </c>
       <c r="T109" s="16" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="U109" s="16" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="110" spans="1:1028" ht="65" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A110" s="31" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B110" s="20" t="str">
-        <f>VLOOKUP($E110,Liste!$A$2:$C$32,2,FALSE)</f>
+        <f>VLOOKUP($E110,Liste!$A$2:$C$33,2,FALSE)</f>
         <v> Quantitative Analyse (Statistik/Ökonometrie)</v>
       </c>
       <c r="C110" s="16" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D110" s="16" t="s">
         <v>61</v>
       </c>
       <c r="E110" s="16" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F110" s="16" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="G110" s="16" t="s">
         <v>82</v>
       </c>
       <c r="H110" s="16" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="I110" s="32" t="s">
         <v>198</v>
@@ -11629,26 +11651,26 @@
         <v>190</v>
       </c>
       <c r="K110" s="16" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="L110" s="16" t="s">
         <v>158</v>
       </c>
       <c r="M110" s="33" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="N110" s="16" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="O110" s="34">
         <v>25</v>
       </c>
       <c r="P110" s="20" t="str">
-        <f>VLOOKUP($B110,Liste!$B$2:$C$32,2,FALSE)</f>
+        <f>VLOOKUP($B110,Liste!$B$2:$C$33,2,FALSE)</f>
         <v>https://www.wiwi.ruhr-uni-bochum.de/statoek/index.html.de</v>
       </c>
       <c r="Q110" s="16" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="R110" s="16" t="s">
         <v>68</v>
@@ -11657,59 +11679,59 @@
         <v>5</v>
       </c>
       <c r="T110" s="16" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="U110" s="16" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="111" spans="1:1028" ht="65" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A111" s="31" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B111" s="20" t="str">
-        <f>VLOOKUP($E111,Liste!$A$2:$C$32,2,FALSE)</f>
+        <f>VLOOKUP($E111,Liste!$A$2:$C$33,2,FALSE)</f>
         <v>Apl.-Professur für Health Economics</v>
       </c>
       <c r="C111" s="16" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D111" s="16" t="s">
         <v>61</v>
       </c>
       <c r="E111" s="16" t="s">
+        <v>309</v>
+      </c>
+      <c r="F111" s="16" t="s">
         <v>310</v>
-      </c>
-      <c r="F111" s="16" t="s">
-        <v>311</v>
       </c>
       <c r="G111" s="16"/>
       <c r="H111" s="16" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="I111" s="32"/>
       <c r="J111" s="32"/>
       <c r="K111" s="16" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="L111" s="16" t="s">
         <v>66</v>
       </c>
       <c r="M111" s="33" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="N111" s="16" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="O111" s="34">
         <v>17</v>
       </c>
       <c r="P111" s="20" t="str">
-        <f>VLOOKUP($B111,Liste!$B$2:$C$32,2,FALSE)</f>
+        <f>VLOOKUP($B111,Liste!$B$2:$C$33,2,FALSE)</f>
         <v>https://www.wiwi.ruhr-uni-bochum.de/health/index.html.de</v>
       </c>
       <c r="Q111" s="16" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="R111" s="16" t="s">
         <v>68</v>
@@ -11718,10 +11740,10 @@
         <v>5</v>
       </c>
       <c r="T111" s="16" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="U111" s="16" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="112" spans="1:1028" ht="65" customHeight="1" x14ac:dyDescent="0.15">
@@ -11729,7 +11751,7 @@
         <v>173</v>
       </c>
       <c r="B112" s="19" t="str">
-        <f>VLOOKUP($E112,Liste!$A$2:$C$32,2,FALSE)</f>
+        <f>VLOOKUP($E112,Liste!$A$2:$C$33,2,FALSE)</f>
         <v>Ökonometrie</v>
       </c>
       <c r="C112" s="15" t="s">
@@ -11757,16 +11779,16 @@
         <v>75</v>
       </c>
       <c r="M112" s="28" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="N112" s="15" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="O112" s="29">
         <v>64</v>
       </c>
       <c r="P112" s="19" t="str">
-        <f>VLOOKUP($B112,Liste!$B$2:$C$32,2,FALSE)</f>
+        <f>VLOOKUP($B112,Liste!$B$2:$C$33,2,FALSE)</f>
         <v>https://www.oek.wiwi.uni-due.de/</v>
       </c>
       <c r="Q112" s="15" t="s">
@@ -11779,10 +11801,10 @@
         <v>3</v>
       </c>
       <c r="T112" s="30" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="U112" s="30" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="113" spans="1:21" ht="65" customHeight="1" x14ac:dyDescent="0.15">
@@ -11790,7 +11812,7 @@
         <v>173</v>
       </c>
       <c r="B113" s="19" t="str">
-        <f>VLOOKUP($E113,Liste!$A$2:$C$32,2,FALSE)</f>
+        <f>VLOOKUP($E113,Liste!$A$2:$C$33,2,FALSE)</f>
         <v>Ökonometrie</v>
       </c>
       <c r="C113" s="15" t="s">
@@ -11818,16 +11840,16 @@
         <v>75</v>
       </c>
       <c r="M113" s="28" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="N113" s="15" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="O113" s="29">
         <v>64</v>
       </c>
       <c r="P113" s="19" t="str">
-        <f>VLOOKUP($B113,Liste!$B$2:$C$32,2,FALSE)</f>
+        <f>VLOOKUP($B113,Liste!$B$2:$C$33,2,FALSE)</f>
         <v>https://www.oek.wiwi.uni-due.de/</v>
       </c>
       <c r="Q113" s="15" t="s">
@@ -11840,31 +11862,31 @@
         <v>3</v>
       </c>
       <c r="T113" s="30" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="U113" s="30" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="114" spans="1:21" ht="65" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A114" s="23" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B114" s="18" t="str">
-        <f>VLOOKUP($E114,Liste!$A$2:$C$32,2,FALSE)</f>
+        <f>VLOOKUP($E114,Liste!$A$2:$C$33,2,FALSE)</f>
         <v>Wirtschafts- und Sozialstatistik</v>
       </c>
       <c r="C114" s="14" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D114" s="14" t="s">
         <v>71</v>
       </c>
       <c r="E114" s="14" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="F114" s="14" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="G114" s="14" t="s">
         <v>95</v>
@@ -11879,26 +11901,26 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="K114" s="14" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="L114" s="14" t="s">
         <v>66</v>
       </c>
       <c r="M114" s="14" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="N114" s="23" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="O114" s="14" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="P114" s="49" t="str">
-        <f>VLOOKUP($B114,Liste!$B$2:$C$32,2,FALSE)</f>
+        <f>VLOOKUP($B114,Liste!$B$2:$C$33,2,FALSE)</f>
         <v>https://www.statistik.tu-dortmund.de/iwus.html</v>
       </c>
       <c r="Q114" s="23" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="R114" s="14" t="s">
         <v>68</v>
@@ -11907,10 +11929,10 @@
         <v>5</v>
       </c>
       <c r="T114" s="14" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="U114" s="14" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="115" spans="1:21" ht="65" customHeight="1" x14ac:dyDescent="0.15">
@@ -11918,7 +11940,7 @@
         <v>128</v>
       </c>
       <c r="B115" s="19" t="str">
-        <f>VLOOKUP($E115,Liste!$A$2:$C$32,2,FALSE)</f>
+        <f>VLOOKUP($E115,Liste!$A$2:$C$33,2,FALSE)</f>
         <v>Lehrstuhl für VWL, insb. Internationale Wirtschaftsbeziehungen</v>
       </c>
       <c r="C115" s="15" t="s">
@@ -11946,20 +11968,20 @@
         <v>0.5</v>
       </c>
       <c r="K115" s="27" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="L115" s="27" t="s">
         <v>75</v>
       </c>
       <c r="M115" s="28"/>
       <c r="N115" s="28" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="O115" s="29">
         <v>46</v>
       </c>
       <c r="P115" s="37" t="str">
-        <f>VLOOKUP($B115,Liste!$B$2:$C$32,2,FALSE)</f>
+        <f>VLOOKUP($B115,Liste!$B$2:$C$33,2,FALSE)</f>
         <v>https://www.iwb.wiwi.uni-due.de/</v>
       </c>
       <c r="Q115" s="28" t="s">
@@ -11972,10 +11994,10 @@
         <v>3</v>
       </c>
       <c r="T115" s="30" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="U115" s="30" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="116" spans="1:21" ht="65" customHeight="1" x14ac:dyDescent="0.15">
@@ -11983,7 +12005,7 @@
         <v>128</v>
       </c>
       <c r="B116" s="19" t="str">
-        <f>VLOOKUP($E116,Liste!$A$2:$C$32,2,FALSE)</f>
+        <f>VLOOKUP($E116,Liste!$A$2:$C$33,2,FALSE)</f>
         <v>Lehrstuhl für VWL, insb. Internationale Wirtschaftsbeziehungen</v>
       </c>
       <c r="C116" s="15" t="s">
@@ -12011,20 +12033,20 @@
         <v>0.58333333333333304</v>
       </c>
       <c r="K116" s="27" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="L116" s="27" t="s">
         <v>75</v>
       </c>
       <c r="M116" s="28"/>
       <c r="N116" s="28" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="O116" s="29">
         <v>46</v>
       </c>
       <c r="P116" s="37" t="str">
-        <f>VLOOKUP($B116,Liste!$B$2:$C$32,2,FALSE)</f>
+        <f>VLOOKUP($B116,Liste!$B$2:$C$33,2,FALSE)</f>
         <v>https://www.iwb.wiwi.uni-due.de/</v>
       </c>
       <c r="Q116" s="28" t="s">
@@ -12037,31 +12059,31 @@
         <v>3</v>
       </c>
       <c r="T116" s="30" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="U116" s="30" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="117" spans="1:21" ht="65" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A117" s="23" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B117" s="18" t="str">
-        <f>VLOOKUP($E117,Liste!$A$2:$C$32,2,FALSE)</f>
+        <f>VLOOKUP($E117,Liste!$A$2:$C$33,2,FALSE)</f>
         <v>Wirtschafts- und Sozialstatistik</v>
       </c>
       <c r="C117" s="14" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D117" s="14" t="s">
         <v>71</v>
       </c>
       <c r="E117" s="14" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="F117" s="14" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="G117" s="14" t="s">
         <v>63</v>
@@ -12076,26 +12098,26 @@
         <v>0.5</v>
       </c>
       <c r="K117" s="14" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="L117" s="14" t="s">
         <v>66</v>
       </c>
       <c r="M117" s="14" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="N117" s="23" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="O117" s="14" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="P117" s="49" t="str">
-        <f>VLOOKUP($B117,Liste!$B$2:$C$32,2,FALSE)</f>
+        <f>VLOOKUP($B117,Liste!$B$2:$C$33,2,FALSE)</f>
         <v>https://www.statistik.tu-dortmund.de/iwus.html</v>
       </c>
       <c r="Q117" s="23" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="R117" s="14" t="s">
         <v>68</v>
@@ -12104,31 +12126,31 @@
         <v>5</v>
       </c>
       <c r="T117" s="14" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="U117" s="14" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="118" spans="1:21" ht="65" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A118" s="23" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B118" s="18" t="str">
-        <f>VLOOKUP($E118,Liste!$A$2:$C$32,2,FALSE)</f>
+        <f>VLOOKUP($E118,Liste!$A$2:$C$33,2,FALSE)</f>
         <v>Wirtschafts- und Sozialstatistik</v>
       </c>
       <c r="C118" s="14" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D118" s="14" t="s">
         <v>71</v>
       </c>
       <c r="E118" s="14" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="F118" s="14" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G118" s="14" t="s">
         <v>107</v>
@@ -12143,26 +12165,26 @@
         <v>0.5</v>
       </c>
       <c r="K118" s="14" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="L118" s="14" t="s">
         <v>66</v>
       </c>
       <c r="M118" s="14" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="N118" s="14" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="O118" s="14" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="P118" s="49" t="str">
-        <f>VLOOKUP($B118,Liste!$B$2:$C$32,2,FALSE)</f>
+        <f>VLOOKUP($B118,Liste!$B$2:$C$33,2,FALSE)</f>
         <v>https://www.statistik.tu-dortmund.de/iwus.html</v>
       </c>
       <c r="Q118" s="23" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="R118" s="14" t="s">
         <v>68</v>
@@ -12171,10 +12193,10 @@
         <v>5</v>
       </c>
       <c r="T118" s="14" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="U118" s="14" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="119" spans="1:21" ht="65" customHeight="1" x14ac:dyDescent="0.15">
@@ -12182,7 +12204,7 @@
         <v>218</v>
       </c>
       <c r="B119" s="18" t="str">
-        <f>VLOOKUP($E119,Liste!$A$2:$C$32,2,FALSE)</f>
+        <f>VLOOKUP($E119,Liste!$A$2:$C$33,2,FALSE)</f>
         <v>VWL (Mikroökonomie)</v>
       </c>
       <c r="C119" s="14" t="s">
@@ -12210,7 +12232,7 @@
         <v>189</v>
       </c>
       <c r="K119" s="14" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="L119" s="14" t="s">
         <v>75</v>
@@ -12219,13 +12241,13 @@
         <v>221</v>
       </c>
       <c r="N119" s="14" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="O119" s="14" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="P119" s="18" t="str">
-        <f>VLOOKUP($B119,Liste!$B$2:$C$32,2,FALSE)</f>
+        <f>VLOOKUP($B119,Liste!$B$2:$C$33,2,FALSE)</f>
         <v>https://www.wiwi2.tu-dortmund.de/wiwi/mik/de/lehrstuhl/index.html</v>
       </c>
       <c r="Q119" s="14"/>
@@ -12236,22 +12258,22 @@
         <v>4</v>
       </c>
       <c r="T119" s="14" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="U119" s="14" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="120" spans="1:21" ht="65" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A120" s="23" t="s">
+        <v>248</v>
+      </c>
+      <c r="B120" s="18" t="str">
+        <f>VLOOKUP($E120,Liste!$A$2:$C$33,2,FALSE)</f>
+        <v>VWL (Mikroökonomie)</v>
+      </c>
+      <c r="C120" s="14" t="s">
         <v>249</v>
-      </c>
-      <c r="B120" s="18" t="str">
-        <f>VLOOKUP($E120,Liste!$A$2:$C$32,2,FALSE)</f>
-        <v>VWL (Mikroökonomie)</v>
-      </c>
-      <c r="C120" s="14" t="s">
-        <v>250</v>
       </c>
       <c r="D120" s="14" t="s">
         <v>71</v>
@@ -12275,20 +12297,20 @@
         <v>0.5</v>
       </c>
       <c r="K120" s="14" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="L120" s="14" t="s">
         <v>66</v>
       </c>
       <c r="M120" s="14"/>
       <c r="N120" s="14" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="O120" s="14" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="P120" s="18" t="str">
-        <f>VLOOKUP($B120,Liste!$B$2:$C$32,2,FALSE)</f>
+        <f>VLOOKUP($B120,Liste!$B$2:$C$33,2,FALSE)</f>
         <v>https://www.wiwi2.tu-dortmund.de/wiwi/mik/de/lehrstuhl/index.html</v>
       </c>
       <c r="Q120" s="14"/>
@@ -12299,22 +12321,22 @@
         <v>7.5</v>
       </c>
       <c r="T120" s="14" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="U120" s="14" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="121" spans="1:21" ht="65" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A121" s="23" t="s">
+        <v>248</v>
+      </c>
+      <c r="B121" s="18" t="str">
+        <f>VLOOKUP($E121,Liste!$A$2:$C$33,2,FALSE)</f>
+        <v>VWL (Mikroökonomie)</v>
+      </c>
+      <c r="C121" s="14" t="s">
         <v>249</v>
-      </c>
-      <c r="B121" s="18" t="str">
-        <f>VLOOKUP($E121,Liste!$A$2:$C$32,2,FALSE)</f>
-        <v>VWL (Mikroökonomie)</v>
-      </c>
-      <c r="C121" s="14" t="s">
-        <v>250</v>
       </c>
       <c r="D121" s="14" t="s">
         <v>77</v>
@@ -12338,20 +12360,20 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="K121" s="14" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="L121" s="14" t="s">
         <v>66</v>
       </c>
       <c r="M121" s="14"/>
       <c r="N121" s="14" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="O121" s="14" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="P121" s="18" t="str">
-        <f>VLOOKUP($B121,Liste!$B$2:$C$32,2,FALSE)</f>
+        <f>VLOOKUP($B121,Liste!$B$2:$C$33,2,FALSE)</f>
         <v>https://www.wiwi2.tu-dortmund.de/wiwi/mik/de/lehrstuhl/index.html</v>
       </c>
       <c r="Q121" s="14"/>
@@ -12362,18 +12384,18 @@
         <v>7.5</v>
       </c>
       <c r="T121" s="14" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="U121" s="14" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="122" spans="1:21" ht="65" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A122" s="23" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B122" s="18" t="str">
-        <f>VLOOKUP($E122,Liste!$A$2:$C$32,2,FALSE)</f>
+        <f>VLOOKUP($E122,Liste!$A$2:$C$33,2,FALSE)</f>
         <v>VWL (Mikroökonomie)</v>
       </c>
       <c r="C122" s="14" t="s">
@@ -12386,7 +12408,7 @@
         <v>220</v>
       </c>
       <c r="F122" s="14" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G122" s="14" t="s">
         <v>95</v>
@@ -12401,22 +12423,22 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="K122" s="14" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="L122" s="14" t="s">
         <v>66</v>
       </c>
       <c r="M122" s="14" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="N122" s="14" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="O122" s="14" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="P122" s="18" t="str">
-        <f>VLOOKUP($B122,Liste!$B$2:$C$32,2,FALSE)</f>
+        <f>VLOOKUP($B122,Liste!$B$2:$C$33,2,FALSE)</f>
         <v>https://www.wiwi2.tu-dortmund.de/wiwi/mik/de/lehrstuhl/index.html</v>
       </c>
       <c r="Q122" s="14"/>
@@ -12427,10 +12449,10 @@
         <v>4</v>
       </c>
       <c r="T122" s="14" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="U122" s="14" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
   </sheetData>
@@ -12632,22 +12654,22 @@
   <sheetData>
     <row r="2" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A2" s="6" t="s">
+        <v>396</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>397</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>398</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>399</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>400</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>44</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="14" x14ac:dyDescent="0.15">
@@ -12664,10 +12686,10 @@
         <v>7.5</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="14" x14ac:dyDescent="0.15">
@@ -12684,10 +12706,10 @@
         <v>9</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="14" x14ac:dyDescent="0.15">
@@ -12704,18 +12726,18 @@
         <v>6</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A6" s="8" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C6" s="9" t="s">
         <v>68</v>
@@ -12724,18 +12746,18 @@
         <v>6</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A7" s="8" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C7" s="9" t="s">
         <v>68</v>
@@ -12744,10 +12766,10 @@
         <v>9</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="14" x14ac:dyDescent="0.15">
@@ -12764,10 +12786,10 @@
         <v>7.5</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="14" x14ac:dyDescent="0.15">
@@ -12784,18 +12806,18 @@
         <v>3.5</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A10" s="8" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C10" s="9" t="s">
         <v>68</v>
@@ -12804,10 +12826,10 @@
         <v>10</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="28" x14ac:dyDescent="0.15">
@@ -12824,10 +12846,10 @@
         <v>4</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="14" x14ac:dyDescent="0.15">
@@ -12844,10 +12866,10 @@
         <v>9</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="14" x14ac:dyDescent="0.15">
@@ -12864,18 +12886,18 @@
         <v>6</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A14" s="8" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C14" s="9" t="s">
         <v>92</v>
@@ -12884,10 +12906,10 @@
         <v>8</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="14" x14ac:dyDescent="0.15">
@@ -12904,18 +12926,18 @@
         <v>6</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A16" s="8" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C16" s="9" t="s">
         <v>68</v>
@@ -12924,18 +12946,18 @@
         <v>5</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A17" s="8" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C17" s="9" t="s">
         <v>68</v>
@@ -12944,10 +12966,10 @@
         <v>5</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="14" x14ac:dyDescent="0.15">
@@ -12964,18 +12986,18 @@
         <v>7.5</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A19" s="8" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C19" s="9" t="s">
         <v>68</v>
@@ -12984,10 +13006,10 @@
         <v>5</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F19" s="9" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="14" x14ac:dyDescent="0.15">
@@ -13004,10 +13026,10 @@
         <v>10</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="F20" s="9" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="14" x14ac:dyDescent="0.15">
@@ -13024,10 +13046,10 @@
         <v>6</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F21" s="9" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="14" x14ac:dyDescent="0.15">
@@ -13044,15 +13066,15 @@
         <v>6</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F22" s="9" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A23" s="8" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B23" s="8" t="s">
         <v>219</v>
@@ -13064,10 +13086,10 @@
         <v>3.5</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="F23" s="9" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="14" x14ac:dyDescent="0.15">
@@ -13084,10 +13106,10 @@
         <v>6</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F24" s="9" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="14" x14ac:dyDescent="0.15">
@@ -13104,10 +13126,10 @@
         <v>6</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F25" s="9" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="14" x14ac:dyDescent="0.15">
@@ -13124,10 +13146,10 @@
         <v>6</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="F26" s="9" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="14" x14ac:dyDescent="0.15">
@@ -13144,10 +13166,10 @@
         <v>6</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="F27" s="9" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="42" x14ac:dyDescent="0.15">
@@ -13164,18 +13186,18 @@
         <v>6</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F28" s="9" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A29" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="B29" s="8" t="s">
         <v>243</v>
-      </c>
-      <c r="B29" s="8" t="s">
-        <v>244</v>
       </c>
       <c r="C29" s="9" t="s">
         <v>68</v>
@@ -13184,18 +13206,18 @@
         <v>7.5</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F29" s="9" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A30" s="8" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C30" s="9" t="s">
         <v>68</v>
@@ -13204,10 +13226,10 @@
         <v>10</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="F30" s="9" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="14" x14ac:dyDescent="0.15">
@@ -13224,10 +13246,10 @@
         <v>6</v>
       </c>
       <c r="E31" s="9" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F31" s="9" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="14" x14ac:dyDescent="0.15">
@@ -13244,18 +13266,18 @@
         <v>6</v>
       </c>
       <c r="E32" s="9" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F32" s="9" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A33" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="B33" s="8" t="s">
         <v>249</v>
-      </c>
-      <c r="B33" s="8" t="s">
-        <v>250</v>
       </c>
       <c r="C33" s="9" t="s">
         <v>68</v>
@@ -13264,18 +13286,18 @@
         <v>7.5</v>
       </c>
       <c r="E33" s="9" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="F33" s="9" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A34" s="8" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C34" s="8" t="s">
         <v>92</v>
@@ -13284,10 +13306,10 @@
         <v>9</v>
       </c>
       <c r="E34" s="9" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="F34" s="8" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="14" x14ac:dyDescent="0.15">
@@ -13304,10 +13326,10 @@
         <v>6</v>
       </c>
       <c r="E35" s="9" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F35" s="9" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="14" x14ac:dyDescent="0.15">
@@ -13324,28 +13346,28 @@
         <v>6</v>
       </c>
       <c r="E36" s="9" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="F36" s="9" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A37" s="8" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C37" s="9" t="s">
         <v>92</v>
       </c>
       <c r="D37" s="9"/>
       <c r="E37" s="9" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F37" s="9" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="14" x14ac:dyDescent="0.15">
@@ -13362,18 +13384,18 @@
         <v>10</v>
       </c>
       <c r="E38" s="9" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="F38" s="9" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A39" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="B39" s="8" t="s">
         <v>255</v>
-      </c>
-      <c r="B39" s="8" t="s">
-        <v>256</v>
       </c>
       <c r="C39" s="9" t="s">
         <v>145</v>
@@ -13382,18 +13404,18 @@
         <v>7.5</v>
       </c>
       <c r="E39" s="9" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F39" s="9" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A40" s="8" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C40" s="9" t="s">
         <v>68</v>
@@ -13402,18 +13424,18 @@
         <v>6</v>
       </c>
       <c r="E40" s="9" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F40" s="9" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A41" s="8" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C41" s="9" t="s">
         <v>68</v>
@@ -13422,18 +13444,18 @@
         <v>10</v>
       </c>
       <c r="E41" s="9" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="F41" s="9" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A42" s="8" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C42" s="9" t="s">
         <v>92</v>
@@ -13442,10 +13464,10 @@
         <v>9</v>
       </c>
       <c r="E42" s="9" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="F42" s="8" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="14" x14ac:dyDescent="0.15">
@@ -13462,10 +13484,10 @@
         <v>6</v>
       </c>
       <c r="E43" s="9" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="F43" s="9" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="14" x14ac:dyDescent="0.15">
@@ -13482,10 +13504,10 @@
         <v>6</v>
       </c>
       <c r="E44" s="9" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="F44" s="9" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="14" x14ac:dyDescent="0.15">
@@ -13502,18 +13524,18 @@
         <v>6</v>
       </c>
       <c r="E45" s="9" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F45" s="9" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A46" s="8" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C46" s="9" t="s">
         <v>68</v>
@@ -13522,18 +13544,18 @@
         <v>6</v>
       </c>
       <c r="E46" s="9" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F46" s="9" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A47" s="8" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C47" s="9" t="s">
         <v>68</v>
@@ -13542,10 +13564,10 @@
         <v>10</v>
       </c>
       <c r="E47" s="9" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="F47" s="9" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="14" x14ac:dyDescent="0.15">
@@ -13562,15 +13584,15 @@
         <v>6</v>
       </c>
       <c r="E48" s="9" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F48" s="9" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A49" s="8" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B49" s="8" t="s">
         <v>212</v>
@@ -13582,15 +13604,15 @@
         <v>4</v>
       </c>
       <c r="E49" s="9" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="F49" s="9" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A50" s="8" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B50" s="8" t="s">
         <v>212</v>
@@ -13602,10 +13624,10 @@
         <v>3.5</v>
       </c>
       <c r="E50" s="9" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F50" s="9" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="28" x14ac:dyDescent="0.15">
@@ -13622,18 +13644,18 @@
         <v>6</v>
       </c>
       <c r="E51" s="9" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F51" s="9" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="28" x14ac:dyDescent="0.15">
       <c r="A52" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="B52" s="8" t="s">
         <v>260</v>
-      </c>
-      <c r="B52" s="8" t="s">
-        <v>261</v>
       </c>
       <c r="C52" s="9" t="s">
         <v>68</v>
@@ -13642,18 +13664,18 @@
         <v>4</v>
       </c>
       <c r="E52" s="9" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="F52" s="9" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A53" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C53" s="9" t="s">
         <v>92</v>
@@ -13662,18 +13684,18 @@
         <v>9</v>
       </c>
       <c r="E53" s="9" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="F53" s="9" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A54" s="8" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C54" s="9" t="s">
         <v>68</v>
@@ -13682,18 +13704,18 @@
         <v>5</v>
       </c>
       <c r="E54" s="9" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="F54" s="9" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A55" s="8" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C55" s="9" t="s">
         <v>68</v>
@@ -13702,18 +13724,18 @@
         <v>5</v>
       </c>
       <c r="E55" s="9" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="F55" s="9" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="28" x14ac:dyDescent="0.15">
       <c r="A56" s="8" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="C56" s="9" t="s">
         <v>92</v>
@@ -13722,15 +13744,15 @@
         <v>4</v>
       </c>
       <c r="E56" s="9" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="F56" s="9" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A57" s="8" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B57" s="8" t="s">
         <v>219</v>
@@ -13742,18 +13764,18 @@
         <v>4</v>
       </c>
       <c r="E57" s="9" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="F57" s="9" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A58" s="8" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B58" s="8" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C58" s="9" t="s">
         <v>68</v>
@@ -13762,18 +13784,18 @@
         <v>10</v>
       </c>
       <c r="E58" s="9" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F58" s="9" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="42" x14ac:dyDescent="0.15">
       <c r="A59" s="8" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C59" s="9" t="s">
         <v>68</v>
@@ -13782,18 +13804,18 @@
         <v>5</v>
       </c>
       <c r="E59" s="9" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="F59" s="9" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A60" s="8" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C60" s="9" t="s">
         <v>92</v>
@@ -13802,10 +13824,10 @@
         <v>9</v>
       </c>
       <c r="E60" s="9" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="F60" s="9" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="14" x14ac:dyDescent="0.15">
@@ -13822,15 +13844,15 @@
         <v>6</v>
       </c>
       <c r="E61" s="9" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="F61" s="9" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A62" s="8" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B62" s="8" t="s">
         <v>70</v>
@@ -13842,18 +13864,18 @@
         <v>6</v>
       </c>
       <c r="E62" s="9" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="F62" s="9" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="28" x14ac:dyDescent="0.15">
       <c r="A63" s="8" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C63" s="9" t="s">
         <v>68</v>
@@ -13862,18 +13884,18 @@
         <v>5</v>
       </c>
       <c r="E63" s="9" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="F63" s="9" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A64" s="8" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B64" s="8" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C64" s="9" t="s">
         <v>68</v>
@@ -13882,18 +13904,18 @@
         <v>5</v>
       </c>
       <c r="E64" s="9" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="F64" s="9" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A65" s="8" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C65" s="9" t="s">
         <v>68</v>
@@ -13902,18 +13924,18 @@
         <v>5</v>
       </c>
       <c r="E65" s="9" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="F65" s="9" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A66" s="8" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="B66" s="8" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C66" s="9" t="s">
         <v>92</v>
@@ -13922,10 +13944,10 @@
         <v>9</v>
       </c>
       <c r="E66" s="9" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="F66" s="8" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="14" x14ac:dyDescent="0.15">
@@ -13942,10 +13964,10 @@
         <v>6</v>
       </c>
       <c r="E67" s="9" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F67" s="9" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="14" x14ac:dyDescent="0.15">
@@ -13962,18 +13984,18 @@
         <v>6</v>
       </c>
       <c r="E68" s="9" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="F68" s="9" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A69" s="8" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B69" s="8" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C69" s="9" t="s">
         <v>92</v>
@@ -13982,10 +14004,10 @@
         <v>9</v>
       </c>
       <c r="E69" s="9" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="F69" s="9" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="28" x14ac:dyDescent="0.15">
@@ -14002,18 +14024,18 @@
         <v>6</v>
       </c>
       <c r="E70" s="9" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="F70" s="9" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="71" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A71" s="8" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B71" s="8" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C71" s="9" t="s">
         <v>92</v>
@@ -14022,18 +14044,18 @@
         <v>10</v>
       </c>
       <c r="E71" s="9" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F71" s="9" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A72" s="8" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B72" s="8" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C72" s="9" t="s">
         <v>68</v>
@@ -14042,18 +14064,18 @@
         <v>9</v>
       </c>
       <c r="E72" s="9" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="F72" s="9" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="73" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A73" s="8" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B73" s="8" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C73" s="9" t="s">
         <v>92</v>
@@ -14062,10 +14084,10 @@
         <v>8</v>
       </c>
       <c r="E73" s="9" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F73" s="9" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
   </sheetData>

--- a/KurseMscECMX.xlsx
+++ b/KurseMscECMX.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/martin/Git projects/ECMTX_course_overview/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{714D6C2F-571C-5142-8E86-27957E9EA167}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B86AC42-E73B-154D-BFEF-BB8837380B98}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
